--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -401,10 +401,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -967,16 +967,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1688,13 +1688,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="6"/>
-    <col min="2" max="2" width="51" style="6" customWidth="1"/>
+    <col min="2" max="2" width="54.1428571428571" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.8571428571429" style="6" customWidth="1"/>
     <col min="4" max="4" width="57.2857142857143" style="6" customWidth="1"/>
     <col min="5" max="5" width="37.1428571428571" style="6" customWidth="1"/>

--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
-    <sheet name="api_url" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>tc_id</t>
   </si>
@@ -45,10 +45,10 @@
     <t>expected_validation_data</t>
   </si>
   <si>
-    <t>BB_001</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for 1 player successfully</t>
+    <t>BB_VST_001</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package (golf fee only)</t>
   </si>
   <si>
     <t>success</t>
@@ -109,7 +109,7 @@
 }</t>
   </si>
   <si>
-    <t>BB_002</t>
+    <t>BB_VST_002</t>
   </si>
   <si>
     <t>Verify create batch booking for 2 players successfully</t>
@@ -211,7 +211,7 @@
 }</t>
   </si>
   <si>
-    <t>BB_003</t>
+    <t>BB_VST_003</t>
   </si>
   <si>
     <t>Verify error when booking_date is missing in player object</t>
@@ -268,7 +268,7 @@
     <t>{"status_code": 500}</t>
   </si>
   <si>
-    <t>BB_004</t>
+    <t>BB_VST_004</t>
   </si>
   <si>
     <t>Verify error when booking date is in the past</t>
@@ -320,7 +320,7 @@
   ]</t>
   </si>
   <si>
-    <t>BB_005</t>
+    <t>BB_VST_005</t>
   </si>
   <si>
     <t>Verify error when guest_style is invalid</t>
@@ -372,28 +372,330 @@
   ]</t>
   </si>
   <si>
-    <t>endpoint</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>body_request</t>
-  </si>
-  <si>
-    <t>result_return</t>
-  </si>
-  <si>
-    <t>/golf-cms/api/booking/batch</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>create_booking_batch_template.json</t>
-  </si>
-  <si>
-    <t>create_booking_batch_result.json</t>
+    <t>BB_VST_006</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor with package (package_add_on_fee applied)</t>
+  </si>
+  <si>
+    <t>{
+    "booking_list": [
+        {
+            "cms_user": "phuongtt-chilinh",
+            "partner_uid": "CHI-LINH",
+            "course_uid": "CHI-LINH-01",
+            "hole_booking": 18,
+            "customer_booking_name": "PhuongTT",
+            "customer_booking_phone": "",
+            "customer_booking_email": "vn@gmail.com",
+            "agency_id": 0,
+            "booking_restaurant": {
+                "enable": false,
+                "number_people": 0
+            },
+            "booking_retal": {
+                "enable": false,
+                "golf_set_number": 0,
+                "buggy_number": 0
+            },
+            "note_of_booking": "",
+            "agency_player_pay": false,
+            "sale_name": "Trần Phương",
+            "sale_account": "phuongtt-chilinh",
+            "customer_name": "",
+            "caddie_code": "",
+            "caddie_booking": "",
+            "tee_type": "1",
+            "course_type": "A",
+            "tee_path": "NIGHT",
+            "turn_time": "00:34",
+            "tee_time": "22:10",
+            "row_index": 3,
+            "tee_time_after": "",
+            "customer_nationality_id": 3728,
+            "gender": "MALE",
+            "guest_style": "4D_package_PTT",
+            "hole": 18,
+            "booking_date": "{{TODAY}}",
+            "add_ons": [],
+            "voucher_apply": [],
+            "member_uid_of_guest": "",
+            "member_card_uid": ""
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "status_code": 200,
+  "size()": 1,
+  "[0].uid": "NOT_NULL"
+}</t>
+  </si>
+  <si>
+    <t>BB_VST_007</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + add caddie</t>
+  </si>
+  <si>
+    <t>{
+    "booking_list": [
+        {
+            "cms_user": "phuongtt-chilinh",
+            "partner_uid": "CHI-LINH",
+            "course_uid": "CHI-LINH-01",
+            "hole_booking": 18,
+            "customer_booking_name": "PhuongTT",
+            "customer_booking_phone": "",
+            "customer_booking_email": "01zl@gmail.com",
+            "agency_id": 0,
+            "booking_restaurant": {
+                "enable": false,
+                "number_people": 0
+            },
+            "booking_retal": {
+                "enable": false,
+                "golf_set_number": 0,
+                "buggy_number": 0
+            },
+            "note_of_booking": "",
+            "agency_player_pay": false,
+            "sale_name": "Trần Phương",
+            "sale_account": "phuongtt-chilinh",
+            "customer_name": "",
+            "caddie_code": "CD1203",
+            "caddie_booking": "CD1203",
+            "tee_type": "1",
+            "course_type": "A",
+            "tee_path": "NIGHT",
+            "turn_time": "00:42",
+            "tee_time": "22:18",
+            "row_index": 0,
+            "tee_time_after": "",
+            "customer_nationality_id": 3728,
+            "gender": "MALE",
+            "guest_style": "4D",
+            "hole": 18,
+            "booking_date": "{{TODAY}}",
+            "add_ons": [],
+            "voucher_apply": [],
+            "member_uid_of_guest": "",
+            "member_card_uid": ""
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "status_code": 200,
+  "size()": 1,
+  "[0].uid": "NOT_NULL",
+}</t>
+  </si>
+  <si>
+    <t>BB_VST_008</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor with package + add caddie</t>
+  </si>
+  <si>
+    <t>{
+    "booking_list": [
+        {
+            "cms_user": "phuongtt-chilinh",
+            "partner_uid": "CHI-LINH",
+            "course_uid": "CHI-LINH-01",
+            "hole_booking": 18,
+            "customer_booking_name": "PhuongTT",
+            "customer_booking_phone": "",
+            "customer_booking_email": "vn@gmail.com",
+            "agency_id": 0,
+            "booking_restaurant": {
+                "enable": false,
+                "number_people": 0
+            },
+            "booking_retal": {
+                "enable": false,
+                "golf_set_number": 0,
+                "buggy_number": 0
+            },
+            "note_of_booking": "",
+            "agency_player_pay": false,
+            "sale_name": "Trần Phương",
+            "sale_account": "phuongtt-chilinh",
+            "customer_name": "",
+            "caddie_code": "009",
+            "caddie_booking": "009",
+            "tee_type": "1",
+            "course_type": "A",
+            "tee_path": "NIGHT",
+            "turn_time": "00:42",
+            "tee_time": "22:18",
+            "row_index": 1,
+            "tee_time_after": "",
+            "customer_nationality_id": 3728,
+            "gender": "MALE",
+            "guest_style": "4D_package_PTT",
+            "hole": 18,
+            "booking_date": "{{TODAY}}",
+            "add_ons": [],
+            "voucher_apply": [],
+            "member_uid_of_guest": "",
+            "member_card_uid": ""
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>BB_VST_009</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + voucher (fixed amount, apply to all fee types)</t>
+  </si>
+  <si>
+    <t>{"status_code":200,"[0].voucher_apply[0].voucher_code":"{{VOUCHER_ALL_FIXED}}","[0].total_amount":"NOT_NULL"}</t>
+  </si>
+  <si>
+    <t>BB_VST_010</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + voucher (fixed amount, apply to green fee only)</t>
+  </si>
+  <si>
+    <t>{"status_code":200,"[0].voucher_apply[0].voucher_code":"{{VOUCHER_GREEN_FIXED}}"}</t>
+  </si>
+  <si>
+    <t>BB_VST_011</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + voucher (fixed amount, apply to caddie fee only)</t>
+  </si>
+  <si>
+    <t>{"status_code":200,"[0].voucher_apply[0].voucher_code":"{{VOUCHER_CADDIE_FIXED}}"}</t>
+  </si>
+  <si>
+    <t>BB_VST_012</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + voucher (percent, apply to all fee types)</t>
+  </si>
+  <si>
+    <t>{"status_code":200,"[0].voucher_apply[0].voucher_code":"{{VOUCHER_ALL_PERCENT}}"}</t>
+  </si>
+  <si>
+    <t>BB_VST_013</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + voucher (percent, apply to green fee only)</t>
+  </si>
+  <si>
+    <t>{"status_code":200,"[0].voucher_apply[0].voucher_code":"{{VOUCHER_GREEN_PERCENT}}"}</t>
+  </si>
+  <si>
+    <t>BB_VST_014</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + voucher (percent, apply to caddie fee only)</t>
+  </si>
+  <si>
+    <t>{"status_code":200}</t>
+  </si>
+  <si>
+    <t>BB_VST_015</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + voucher (fixed discount for 4 fee types: golf/caddie/buggy/add-on)</t>
+  </si>
+  <si>
+    <t>BB_VST_016</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + voucher (fixed discount for green fee)</t>
+  </si>
+  <si>
+    <t>BB_VST_017</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + voucher (fixed discount for caddie fee)</t>
+  </si>
+  <si>
+    <t>BB_VST_018</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + voucher (fixed discount for half buggy)</t>
+  </si>
+  <si>
+    <t>BB_VST_019</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + voucher (fixed discount for add-on package)</t>
+  </si>
+  <si>
+    <t>BB_VST_020</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor with package + voucher (percent, apply to all fee types)</t>
+  </si>
+  <si>
+    <t>BB_001</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package</t>
+  </si>
+  <si>
+    <t>BB_002</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee có package</t>
+  </si>
+  <si>
+    <t>BB_003</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + add thêm caddie</t>
+  </si>
+  <si>
+    <t>BB_004</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee có package + add thêm caddie</t>
+  </si>
+  <si>
+    <t>BB_005</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá thông thường / Trực tiếp số tiền / Áp dụng tất cả các loại phí</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá thông thường / Trực tiếp số tiền / Áp dụng chỉ green fee</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá thông thường / Trực tiếp số tiền / Áp dụng chỉ caddie</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá thông thường /  % vào giá / Áp dụng tất cả các loại phí</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá thông thường /  % vào giá / Áp dụng chỉ green fee</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá thông thường /  % vào giá / Áp dụng chỉ caddie</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá cố định / Cho 4 loại phí</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá cố định / Green fee</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá cố định / Caddie fee</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá cố định / 1/2 xe</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá cố định / Add-on package</t>
   </si>
 </sst>
 </file>
@@ -401,12 +703,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,12 +727,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -778,12 +1074,66 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -818,10 +1168,10 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
@@ -837,21 +1187,6 @@
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
@@ -967,151 +1302,154 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1119,37 +1457,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1685,122 +2032,353 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="6"/>
-    <col min="2" max="2" width="54.1428571428571" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.8571428571429" style="6" customWidth="1"/>
-    <col min="4" max="4" width="57.2857142857143" style="6" customWidth="1"/>
-    <col min="5" max="5" width="37.1428571428571" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="6"/>
+    <col min="1" max="1" width="13.1428571428571" style="8" customWidth="1"/>
+    <col min="2" max="2" width="54.1428571428571" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.8571428571429" style="8" customWidth="1"/>
+    <col min="4" max="4" width="59.8571428571429" style="8" customWidth="1"/>
+    <col min="5" max="5" width="37.1428571428571" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="148" customHeight="1" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="80" customHeight="1" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="65" customHeight="1" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" ht="78" customHeight="1" spans="1:5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="63" customHeight="1" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="13" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="111" customHeight="1" spans="1:5">
+      <c r="A7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="141" customHeight="1" spans="1:5">
+      <c r="A8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="140" customHeight="1" spans="1:5">
+      <c r="A9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" ht="45" spans="1:5">
+      <c r="A11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="45" spans="1:5">
+      <c r="A12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="45" spans="1:5">
+      <c r="A13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" ht="45" spans="1:5">
+      <c r="A14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="1:5">
+      <c r="A15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" ht="45" spans="1:5">
+      <c r="A16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="1:5">
+      <c r="A17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" ht="30" spans="1:5">
+      <c r="A18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:5">
+      <c r="A19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" ht="30" spans="1:5">
+      <c r="A20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" ht="30" spans="1:5">
+      <c r="A21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1812,46 +2390,142 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="36.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="56.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="49.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" ht="24" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>32</v>
+    <row r="1" ht="18.75" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="77" customHeight="1" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" ht="96" customHeight="1" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="110" customHeight="1" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="113" customHeight="1" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" ht="82" customHeight="1" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" ht="45" spans="2:2">
+      <c r="B7" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" ht="45" spans="2:2">
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" ht="45" spans="2:2">
+      <c r="B9" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="2:2">
+      <c r="B10" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" ht="45" spans="2:2">
+      <c r="B11" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="2:2">
+      <c r="B12" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="2:2">
+      <c r="B13" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="2:2">
+      <c r="B14" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="2:2">
+      <c r="B15" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="2:2">
+      <c r="B16" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
   <si>
     <t>tc_id</t>
   </si>
@@ -77,7 +77,7 @@
       "agency_player_pay": false,
       "sale_name": "Trần Phương",
       "sale_account": "phuongtt-chilinh",
-      "customer_name": "",
+      "customer_name": "Khách lẻ",
       "caddie_code": "",
       "caddie_booking": "",
       "tee_type": "1",
@@ -110,6 +110,599 @@
   </si>
   <si>
     <t>BB_VST_002</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor with package (package_add_on_fee applied)</t>
+  </si>
+  <si>
+    <t>[
+    {
+      "cms_user": "phuongtt-chilinh",
+      "partner_uid": "CHI-LINH",
+      "course_uid": "CHI-LINH-01",
+      "hole_booking": 18,
+      "customer_booking_name": "PhuongTT",
+      "customer_booking_phone": "",
+      "customer_booking_email": "vn@gmail.com",
+      "agency_id": 0,
+      "booking_restaurant": {
+          "enable": false,
+          "number_people": 0
+      },
+      "booking_retal": {
+          "enable": false,
+          "golf_set_number": 0,
+          "buggy_number": 0
+      },
+      "note_of_booking": "",
+      "agency_player_pay": false,
+      "sale_name": "Trần Phương",
+      "sale_account": "phuongtt-chilinh",
+      "customer_name": "Khách lẻ có package",
+      "caddie_code": "",
+      "caddie_booking": "",
+      "tee_type": "1",
+      "course_type": "A",
+      "tee_path": "NIGHT",
+      "turn_time": "00:34",
+      "tee_time": "22:10",
+      "row_index": 3,
+      "tee_time_after": "",
+      "customer_nationality_id": 3728,
+      "gender": "MALE",
+      "guest_style": "4D_package_PTT",
+      "hole": 18,
+      "booking_date": "{{TODAY}}",
+      "add_ons": [],
+      "voucher_apply": [],
+      "member_uid_of_guest": "",
+      "member_card_uid": ""
+    }
+  ]</t>
+  </si>
+  <si>
+    <t>{
+  "status_code": 200,
+  "size()": 1,
+  "[0].uid": "NOT_NULL",
+  "[0].customer_booking_name": "PhuongTT",
+  "[0].guest_style": "4D_package_PTT"
+}</t>
+  </si>
+  <si>
+    <t>BB_VST_003</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + add caddie</t>
+  </si>
+  <si>
+    <t>[ 
+  {
+      "cms_user": "phuongtt-chilinh",
+      "partner_uid": "CHI-LINH",
+      "course_uid": "CHI-LINH-01",
+      "hole_booking": 18,
+      "customer_booking_name": "PhuongTT",
+      "customer_booking_phone": "",
+      "customer_booking_email": "01zl@gmail.com",
+      "agency_id": 0,
+      "booking_restaurant": {
+          "enable": false,
+          "number_people": 0
+      },
+      "booking_retal": {
+          "enable": false,
+          "golf_set_number": 0,
+          "buggy_number": 0
+      },
+      "note_of_booking": "",
+      "agency_player_pay": false,
+      "sale_name": "Trần Phương",
+      "sale_account": "phuongtt-chilinh",
+      "customer_name": "Khách lẻ booking caddie",
+      "caddie_code": "CD1203",
+      "caddie_booking": "CD1203",
+      "tee_type": "1",
+      "course_type": "A",
+      "tee_path": "NIGHT",
+      "turn_time": "00:42",
+      "tee_time": "22:18",
+      "row_index": 0,
+      "tee_time_after": "",
+      "customer_nationality_id": 3728,
+      "gender": "MALE",
+      "guest_style": "4D",
+      "hole": 18,
+      "booking_date": "{{TODAY}}",
+      "add_ons": [],
+      "voucher_apply": [],
+      "member_uid_of_guest": "",
+      "member_card_uid": ""
+  }
+]</t>
+  </si>
+  <si>
+    <t>{
+  "status_code": 200,
+  "size()": 1,
+  "[0].uid": "NOT_NULL",
+  "[0].has_book_caddie": true
+}</t>
+  </si>
+  <si>
+    <t>BB_VST_004</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor with package + add caddie</t>
+  </si>
+  <si>
+    <t>[
+  {
+      "cms_user": "phuongtt-chilinh",
+      "partner_uid": "CHI-LINH",
+      "course_uid": "CHI-LINH-01",
+      "hole_booking": 18,
+      "customer_booking_name": "PhuongTT",
+      "customer_booking_phone": "",
+      "customer_booking_email": "vn@gmail.com",
+      "agency_id": 0,
+      "booking_restaurant": {
+          "enable": false,
+          "number_people": 0
+      },
+      "booking_retal": {
+          "enable": false,
+          "golf_set_number": 0,
+          "buggy_number": 0
+      },
+      "note_of_booking": "",
+      "agency_player_pay": false,
+      "sale_name": "Trần Phương",
+      "sale_account": "phuongtt-chilinh",
+      "customer_name": "Khách lẻ có package booking caddie",
+      "caddie_code": "009",
+      "caddie_booking": "009",
+      "tee_type": "1",
+      "course_type": "A",
+      "tee_path": "NIGHT",
+      "turn_time": "00:42",
+      "tee_time": "22:18",
+      "row_index": 1,
+      "tee_time_after": "",
+      "customer_nationality_id": 3728,
+      "gender": "MALE",
+      "guest_style": "4D_package_PTT",
+      "hole": 18,
+      "booking_date": "{{TODAY}}",
+      "add_ons": [],
+      "voucher_apply": [],
+      "member_uid_of_guest": "",
+      "member_card_uid": ""
+  }
+]</t>
+  </si>
+  <si>
+    <t>BB_VST_005</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (fixed amount, apply to all fee types)</t>
+  </si>
+  <si>
+    <t>[
+  {
+      "cms_user": "phuongtt-chilinh",
+      "partner_uid": "CHI-LINH",
+      "course_uid": "CHI-LINH-01",
+      "hole_booking": 18,
+      "customer_booking_name": "PhuongTT",
+      "customer_booking_phone": "",
+      "customer_booking_email": "vn@gmail.com",
+      "agency_id": 0,
+      "booking_restaurant": {
+          "enable": false,
+          "number_people": 0
+      },
+      "booking_retal": {
+          "enable": false,
+          "golf_set_number": 0,
+          "buggy_number": 0
+      },
+      "note_of_booking": "",
+      "agency_player_pay": false,
+      "sale_name": "Trần Phương",
+      "sale_account": "phuongtt-chilinh",
+      "customer_name": "Khách lẻ VC thông thường",
+      "caddie_code": "",
+      "caddie_booking": "",
+      "tee_type": "1",
+      "course_type": "A",
+      "tee_path": "NIGHT",
+      "turn_time": "00:42",
+      "tee_time": "22:18",
+      "row_index": 2,
+      "tee_time_after": "",
+      "customer_nationality_id": 3728,
+      "gender": "MALE",
+      "guest_style": "4D",
+      "hole": 18,
+      "booking_date": "{{TODAY}}",
+      "add_ons": [],
+      "voucher_apply": [
+          {
+              "id": 23934,
+              "voucher_code": "ATCN0001"
+          }
+      ],
+      "member_uid_of_guest": "",
+      "member_card_uid": ""
+  }
+]</t>
+  </si>
+  <si>
+    <t>{
+  "status_code": 200,
+  "size()": 1,
+  "[0].uid": "NOT_NULL",
+  "[0].customer_booking_name": "PhuongTT",
+  "[0].guest_style": "4D",
+  "[0].IsCheckedIn": false,
+  "[0].bag_status": "BOOKING",
+  "[0].bill_code": "NOT_NULL",
+  "[0].booking_code": "NOT_NULL",
+  "[0].customer_type": "VISITOR",
+  "[0].has_book_caddie": false
+}</t>
+  </si>
+  <si>
+    <t>BB_VST_006</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (fixed amount, apply to green fee only)</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "cms_user": "phuongtt-chilinh",
+        "partner_uid": "CHI-LINH",
+        "course_uid": "CHI-LINH-01",
+        "hole_booking": 18,
+        "customer_booking_name": "PhuongTT",
+        "customer_booking_phone": "",
+        "customer_booking_email": "vn@gmail.com",
+        "agency_id": 0,
+        "booking_restaurant": {
+            "enable": false,
+            "number_people": 0
+        },
+        "booking_retal": {
+            "enable": false,
+            "golf_set_number": 0,
+            "buggy_number": 0
+        },
+        "note_of_booking": "",
+        "agency_player_pay": false,
+        "sale_name": "Trần Phương",
+        "sale_account": "phuongtt-chilinh",
+        "customer_name": "VST apply normal voucher (fixed amount, apply to green fee only)",
+        "caddie_code": "",
+        "caddie_booking": "",
+        "tee_type": "1",
+        "course_type": "A",
+        "tee_path": "NIGHT",
+        "turn_time": "00:42",
+        "tee_time": "22:18",
+        "row_index": 3,
+        "tee_time_after": "",
+        "customer_nationality_id": 3728,
+        "gender": "MALE",
+        "guest_style": "4D",
+        "hole": 18,
+        "booking_date": "{{TODAY}}",
+        "add_ons": [],
+        "voucher_apply": [
+            {
+                "id": 23936,
+                "voucher_code": "ATGR0001"
+            }
+        ],
+        "member_uid_of_guest": "",
+        "member_card_uid": ""
+    }
+]</t>
+  </si>
+  <si>
+    <t>BB_VST_007</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (fixed amount, apply to caddie fee only)</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "cms_user": "phuongtt-chilinh",
+        "partner_uid": "CHI-LINH",
+        "course_uid": "CHI-LINH-01",
+        "hole_booking": 18,
+        "customer_booking_name": "PhuongTT",
+        "customer_booking_phone": "",
+        "customer_booking_email": "vn@gmail.com",
+        "agency_id": 0,
+        "booking_restaurant": {
+            "enable": false,
+            "number_people": 0
+        },
+        "booking_retal": {
+            "enable": false,
+            "golf_set_number": 0,
+            "buggy_number": 0
+        },
+        "note_of_booking": "",
+        "agency_player_pay": false,
+        "sale_name": "Trần Phương",
+        "sale_account": "phuongtt-chilinh",
+        "customer_name": "VST apply normal voucher (fixed amount, apply to caddie fee only)",
+        "caddie_code": "",
+        "caddie_booking": "",
+        "tee_type": "1",
+        "course_type": "A",
+        "tee_path": "NIGHT",
+        "turn_time": "00:50",
+        "tee_time": "22:26",
+        "row_index": 0,
+        "tee_time_after": "",
+        "customer_nationality_id": null,
+        "gender": "MALE",
+        "guest_style": "4D",
+        "hole": 18,
+        "booking_date": "{{TODAY}}",
+        "add_ons": [],
+        "voucher_apply": [
+            {
+                "id": 23935,
+                "voucher_code": "ATCD0001"
+            }
+        ],
+        "member_uid_of_guest": "",
+        "member_card_uid": ""
+    }
+]</t>
+  </si>
+  <si>
+    <t>BB_VST_008</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (percent, apply to all fee types)</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "cms_user": "phuongtt-chilinh",
+        "partner_uid": "CHI-LINH",
+        "course_uid": "CHI-LINH-01",
+        "hole_booking": 18,
+        "customer_booking_name": "PhuongTT",
+        "customer_booking_phone": "",
+        "customer_booking_email": "vn@gmail.com",
+        "agency_id": 0,
+        "booking_restaurant": {
+            "enable": false,
+            "number_people": 0
+        },
+        "booking_retal": {
+            "enable": false,
+            "golf_set_number": 0,
+            "buggy_number": 0
+        },
+        "note_of_booking": "",
+        "agency_player_pay": false,
+        "sale_name": "Trần Phương",
+        "sale_account": "phuongtt-chilinh",
+        "customer_name": "VST apply normal voucher (percent, apply to all fee types)",
+        "caddie_code": "",
+        "caddie_booking": "",
+        "tee_type": "1",
+        "course_type": "A",
+        "tee_path": "NIGHT",
+        "turn_time": "00:50",
+        "tee_time": "22:26",
+        "row_index": 1,
+        "tee_time_after": "",
+        "customer_nationality_id": 3728,
+        "gender": "MALE",
+        "guest_style": "4D",
+        "hole": 18,
+        "booking_date": "{{TODAY}}",
+        "add_ons": [],
+        "voucher_apply": [
+            {
+                "id": 23937,
+                "voucher_code": "ATCN10001"
+            }
+        ],
+        "member_uid_of_guest": "",
+        "member_card_uid": ""
+    }
+]</t>
+  </si>
+  <si>
+    <t>BB_VST_009</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (percent, apply to green fee only)</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "cms_user": "phuongtt-chilinh",
+        "partner_uid": "CHI-LINH",
+        "course_uid": "CHI-LINH-01",
+        "hole_booking": 18,
+        "customer_booking_name": "PhuongTT",
+        "customer_booking_phone": "",
+        "customer_booking_email": "vn@gmail.com",
+        "agency_id": 0,
+        "booking_restaurant": {
+            "enable": false,
+            "number_people": 0
+        },
+        "booking_retal": {
+            "enable": false,
+            "golf_set_number": 0,
+            "buggy_number": 0
+        },
+        "note_of_booking": "",
+        "agency_player_pay": false,
+        "sale_name": "Trần Phương",
+        "sale_account": "phuongtt-chilinh",
+        "customer_name": "VST apply normal voucher (percent, apply to green fee only)",
+        "caddie_code": "",
+        "caddie_booking": "",
+        "tee_type": "1",
+        "course_type": "A",
+        "tee_path": "NIGHT",
+        "turn_time": "00:50",
+        "tee_time": "22:26",
+        "row_index": 2,
+        "tee_time_after": "",
+        "customer_nationality_id": 3728,
+        "gender": "MALE",
+        "guest_style": "4D",
+        "hole": 18,
+        "booking_date": "{{TODAY}}",
+        "add_ons": [],
+        "voucher_apply": [
+            {
+                "id": 23938,
+                "voucher_code": "ATGR10001"
+            }
+        ],
+        "member_uid_of_guest": "",
+        "member_card_uid": ""
+    }
+]</t>
+  </si>
+  <si>
+    <t>BB_VST_010</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (percent, apply to caddie fee only)</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "cms_user": "phuongtt-chilinh",
+        "partner_uid": "CHI-LINH",
+        "course_uid": "CHI-LINH-01",
+        "hole_booking": 18,
+        "customer_booking_name": "PhuongTT",
+        "customer_booking_phone": "",
+        "customer_booking_email": "vn@gmail.com",
+        "agency_id": 0,
+        "booking_restaurant": {
+            "enable": false,
+            "number_people": 0
+        },
+        "booking_retal": {
+            "enable": false,
+            "golf_set_number": 0,
+            "buggy_number": 0
+        },
+        "note_of_booking": "",
+        "agency_player_pay": false,
+        "sale_name": "Trần Phương",
+        "sale_account": "phuongtt-chilinh",
+        "customer_name": "VST apply normal voucher (percent, apply to caddie fee only)",
+        "caddie_code": "",
+        "caddie_booking": "",
+        "tee_type": "1",
+        "course_type": "A",
+        "tee_path": "NIGHT",
+        "turn_time": "00:50",
+        "tee_time": "22:26",
+        "row_index": 3,
+        "tee_time_after": "",
+        "customer_nationality_id": null,
+        "gender": "MALE",
+        "guest_style": "4D",
+        "hole": 18,
+        "booking_date": "{{TODAY}}",
+        "add_ons": [],
+        "voucher_apply": [
+            {
+                "id": 23939,
+                "voucher_code": "ATCD10001"
+            }
+        ],
+        "member_uid_of_guest": "",
+        "member_card_uid": ""
+    }
+]</t>
+  </si>
+  <si>
+    <t>BB_VST_011</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for 4 fee types: golf/caddie/buggy/add-on package)</t>
+  </si>
+  <si>
+    <t>{"status_code":200}</t>
+  </si>
+  <si>
+    <t>BB_VST_012</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for green fee)</t>
+  </si>
+  <si>
+    <t>BB_VST_013</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for caddie fee)</t>
+  </si>
+  <si>
+    <t>BB_VST_014</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for half buggy)</t>
+  </si>
+  <si>
+    <t>BB_VST_015</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for add-on package)</t>
+  </si>
+  <si>
+    <t>BB_VST_016</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (all 4 fee types: golf/caddie/buggy/add-on)</t>
+  </si>
+  <si>
+    <t>BB_VST_017</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (green fee only)</t>
+  </si>
+  <si>
+    <t>BB_VST_018</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (caddie fee only)</t>
+  </si>
+  <si>
+    <t>BB_VST_019</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (half buggy)</t>
+  </si>
+  <si>
+    <t>BB_VST_020</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (add-on package)</t>
+  </si>
+  <si>
+    <t>BB_VST_021</t>
   </si>
   <si>
     <t>Verify create batch booking for 2 players successfully</t>
@@ -138,7 +731,7 @@
             "agency_player_pay": false,
             "sale_name": "Trần Phương",
             "sale_account": "phuongtt-chilinh",
-            "customer_name": "",
+            "customer_name": "Player 1",
             "caddie_code": "",
             "caddie_booking": "",
             "tee_type": "1",
@@ -180,7 +773,7 @@
             "agency_player_pay": false,
             "sale_name": "Trần Phương",
             "sale_account": "phuongtt-chilinh",
-            "customer_name": "",
+            "customer_name": "Player 2",
             "caddie_code": "",
             "caddie_booking": "",
             "tee_type": "1",
@@ -211,7 +804,7 @@
 }</t>
   </si>
   <si>
-    <t>BB_VST_003</t>
+    <t>BB_VST_022</t>
   </si>
   <si>
     <t>Verify error when booking_date is missing in player object</t>
@@ -268,7 +861,7 @@
     <t>{"status_code": 500}</t>
   </si>
   <si>
-    <t>BB_VST_004</t>
+    <t>BB_VST_023</t>
   </si>
   <si>
     <t>Verify error when booking date is in the past</t>
@@ -320,7 +913,7 @@
   ]</t>
   </si>
   <si>
-    <t>BB_VST_005</t>
+    <t>BB_VST_024</t>
   </si>
   <si>
     <t>Verify error when guest_style is invalid</t>
@@ -372,272 +965,6 @@
   ]</t>
   </si>
   <si>
-    <t>BB_VST_006</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor with package (package_add_on_fee applied)</t>
-  </si>
-  <si>
-    <t>{
-    "booking_list": [
-        {
-            "cms_user": "phuongtt-chilinh",
-            "partner_uid": "CHI-LINH",
-            "course_uid": "CHI-LINH-01",
-            "hole_booking": 18,
-            "customer_booking_name": "PhuongTT",
-            "customer_booking_phone": "",
-            "customer_booking_email": "vn@gmail.com",
-            "agency_id": 0,
-            "booking_restaurant": {
-                "enable": false,
-                "number_people": 0
-            },
-            "booking_retal": {
-                "enable": false,
-                "golf_set_number": 0,
-                "buggy_number": 0
-            },
-            "note_of_booking": "",
-            "agency_player_pay": false,
-            "sale_name": "Trần Phương",
-            "sale_account": "phuongtt-chilinh",
-            "customer_name": "",
-            "caddie_code": "",
-            "caddie_booking": "",
-            "tee_type": "1",
-            "course_type": "A",
-            "tee_path": "NIGHT",
-            "turn_time": "00:34",
-            "tee_time": "22:10",
-            "row_index": 3,
-            "tee_time_after": "",
-            "customer_nationality_id": 3728,
-            "gender": "MALE",
-            "guest_style": "4D_package_PTT",
-            "hole": 18,
-            "booking_date": "{{TODAY}}",
-            "add_ons": [],
-            "voucher_apply": [],
-            "member_uid_of_guest": "",
-            "member_card_uid": ""
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-  "status_code": 200,
-  "size()": 1,
-  "[0].uid": "NOT_NULL"
-}</t>
-  </si>
-  <si>
-    <t>BB_VST_007</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + add caddie</t>
-  </si>
-  <si>
-    <t>{
-    "booking_list": [
-        {
-            "cms_user": "phuongtt-chilinh",
-            "partner_uid": "CHI-LINH",
-            "course_uid": "CHI-LINH-01",
-            "hole_booking": 18,
-            "customer_booking_name": "PhuongTT",
-            "customer_booking_phone": "",
-            "customer_booking_email": "01zl@gmail.com",
-            "agency_id": 0,
-            "booking_restaurant": {
-                "enable": false,
-                "number_people": 0
-            },
-            "booking_retal": {
-                "enable": false,
-                "golf_set_number": 0,
-                "buggy_number": 0
-            },
-            "note_of_booking": "",
-            "agency_player_pay": false,
-            "sale_name": "Trần Phương",
-            "sale_account": "phuongtt-chilinh",
-            "customer_name": "",
-            "caddie_code": "CD1203",
-            "caddie_booking": "CD1203",
-            "tee_type": "1",
-            "course_type": "A",
-            "tee_path": "NIGHT",
-            "turn_time": "00:42",
-            "tee_time": "22:18",
-            "row_index": 0,
-            "tee_time_after": "",
-            "customer_nationality_id": 3728,
-            "gender": "MALE",
-            "guest_style": "4D",
-            "hole": 18,
-            "booking_date": "{{TODAY}}",
-            "add_ons": [],
-            "voucher_apply": [],
-            "member_uid_of_guest": "",
-            "member_card_uid": ""
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
-  "status_code": 200,
-  "size()": 1,
-  "[0].uid": "NOT_NULL",
-}</t>
-  </si>
-  <si>
-    <t>BB_VST_008</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor with package + add caddie</t>
-  </si>
-  <si>
-    <t>{
-    "booking_list": [
-        {
-            "cms_user": "phuongtt-chilinh",
-            "partner_uid": "CHI-LINH",
-            "course_uid": "CHI-LINH-01",
-            "hole_booking": 18,
-            "customer_booking_name": "PhuongTT",
-            "customer_booking_phone": "",
-            "customer_booking_email": "vn@gmail.com",
-            "agency_id": 0,
-            "booking_restaurant": {
-                "enable": false,
-                "number_people": 0
-            },
-            "booking_retal": {
-                "enable": false,
-                "golf_set_number": 0,
-                "buggy_number": 0
-            },
-            "note_of_booking": "",
-            "agency_player_pay": false,
-            "sale_name": "Trần Phương",
-            "sale_account": "phuongtt-chilinh",
-            "customer_name": "",
-            "caddie_code": "009",
-            "caddie_booking": "009",
-            "tee_type": "1",
-            "course_type": "A",
-            "tee_path": "NIGHT",
-            "turn_time": "00:42",
-            "tee_time": "22:18",
-            "row_index": 1,
-            "tee_time_after": "",
-            "customer_nationality_id": 3728,
-            "gender": "MALE",
-            "guest_style": "4D_package_PTT",
-            "hole": 18,
-            "booking_date": "{{TODAY}}",
-            "add_ons": [],
-            "voucher_apply": [],
-            "member_uid_of_guest": "",
-            "member_card_uid": ""
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>BB_VST_009</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + voucher (fixed amount, apply to all fee types)</t>
-  </si>
-  <si>
-    <t>{"status_code":200,"[0].voucher_apply[0].voucher_code":"{{VOUCHER_ALL_FIXED}}","[0].total_amount":"NOT_NULL"}</t>
-  </si>
-  <si>
-    <t>BB_VST_010</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + voucher (fixed amount, apply to green fee only)</t>
-  </si>
-  <si>
-    <t>{"status_code":200,"[0].voucher_apply[0].voucher_code":"{{VOUCHER_GREEN_FIXED}}"}</t>
-  </si>
-  <si>
-    <t>BB_VST_011</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + voucher (fixed amount, apply to caddie fee only)</t>
-  </si>
-  <si>
-    <t>{"status_code":200,"[0].voucher_apply[0].voucher_code":"{{VOUCHER_CADDIE_FIXED}}"}</t>
-  </si>
-  <si>
-    <t>BB_VST_012</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + voucher (percent, apply to all fee types)</t>
-  </si>
-  <si>
-    <t>{"status_code":200,"[0].voucher_apply[0].voucher_code":"{{VOUCHER_ALL_PERCENT}}"}</t>
-  </si>
-  <si>
-    <t>BB_VST_013</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + voucher (percent, apply to green fee only)</t>
-  </si>
-  <si>
-    <t>{"status_code":200,"[0].voucher_apply[0].voucher_code":"{{VOUCHER_GREEN_PERCENT}}"}</t>
-  </si>
-  <si>
-    <t>BB_VST_014</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + voucher (percent, apply to caddie fee only)</t>
-  </si>
-  <si>
-    <t>{"status_code":200}</t>
-  </si>
-  <si>
-    <t>BB_VST_015</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + voucher (fixed discount for 4 fee types: golf/caddie/buggy/add-on)</t>
-  </si>
-  <si>
-    <t>BB_VST_016</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + voucher (fixed discount for green fee)</t>
-  </si>
-  <si>
-    <t>BB_VST_017</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + voucher (fixed discount for caddie fee)</t>
-  </si>
-  <si>
-    <t>BB_VST_018</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + voucher (fixed discount for half buggy)</t>
-  </si>
-  <si>
-    <t>BB_VST_019</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + voucher (fixed discount for add-on package)</t>
-  </si>
-  <si>
-    <t>BB_VST_020</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor with package + voucher (percent, apply to all fee types)</t>
-  </si>
-  <si>
     <t>BB_001</t>
   </si>
   <si>
@@ -668,6 +995,9 @@
     <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá thông thường / Trực tiếp số tiền / Áp dụng tất cả các loại phí</t>
   </si>
   <si>
+    <t>VC còn các case giảm về 0đ</t>
+  </si>
+  <si>
     <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá thông thường / Trực tiếp số tiền / Áp dụng chỉ green fee</t>
   </si>
   <si>
@@ -696,6 +1026,21 @@
   </si>
   <si>
     <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá cố định / Add-on package</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC trả trước / Cho 4 loại phí</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC trả trước / Green fee</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC trả trước / Caddie fee</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC trả trước / 1/2 xe</t>
+  </si>
+  <si>
+    <t>VST_Kiểm ra booking golf fee không có package + Apply VC trả trước / Add-on package</t>
   </si>
 </sst>
 </file>
@@ -874,7 +1219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,6 +1240,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1074,7 +1425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1133,66 +1484,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1320,7 +1611,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1332,119 +1623,119 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1469,35 +1760,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2032,353 +2332,425 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.1428571428571" style="8" customWidth="1"/>
-    <col min="2" max="2" width="54.1428571428571" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.8571428571429" style="8" customWidth="1"/>
-    <col min="4" max="4" width="59.8571428571429" style="8" customWidth="1"/>
-    <col min="5" max="5" width="37.1428571428571" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="8"/>
+    <col min="1" max="1" width="13.1428571428571" style="9" customWidth="1"/>
+    <col min="2" max="2" width="115.285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.8571428571429" style="9" customWidth="1"/>
+    <col min="4" max="4" width="59.8571428571429" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.1428571428571" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="63" customHeight="1" spans="1:5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="148" customHeight="1" spans="1:5">
-      <c r="A2" s="13" t="s">
+    <row r="2" ht="63" customHeight="1" spans="1:5">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="80" customHeight="1" spans="1:5">
-      <c r="A3" s="13" t="s">
+    <row r="3" ht="63" customHeight="1" spans="1:5">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="65" customHeight="1" spans="1:5">
-      <c r="A4" s="13" t="s">
+    <row r="4" ht="63" customHeight="1" spans="1:5">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="13" t="s">
+    </row>
+    <row r="5" ht="63" customHeight="1" spans="1:5">
+      <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" ht="78" customHeight="1" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="63" customHeight="1" spans="1:5">
+      <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="63" customHeight="1" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" ht="111" customHeight="1" spans="1:5">
-      <c r="A7" s="13" t="s">
+    </row>
+    <row r="7" ht="63" customHeight="1" spans="1:5">
+      <c r="A7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="63" customHeight="1" spans="1:5">
+      <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" ht="141" customHeight="1" spans="1:5">
-      <c r="A8" s="13" t="s">
+      <c r="B8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="63" customHeight="1" spans="1:5">
+      <c r="A9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" ht="140" customHeight="1" spans="1:5">
-      <c r="A9" s="13" t="s">
+      <c r="D9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="63" customHeight="1" spans="1:5">
+      <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="45" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="D10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="63" customHeight="1" spans="1:5">
+      <c r="A11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" ht="45" spans="1:5">
-      <c r="A11" s="13" t="s">
+      <c r="D11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="63" customHeight="1" spans="1:5">
+      <c r="A12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" ht="45" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" ht="63" customHeight="1" spans="1:5">
+      <c r="A13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" ht="45" spans="1:5">
-      <c r="A13" s="13" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" ht="63" customHeight="1" spans="1:5">
+      <c r="A14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="63" customHeight="1" spans="1:5">
+      <c r="A15" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" ht="45" spans="1:5">
-      <c r="A14" s="13" t="s">
+      <c r="B15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" ht="63" customHeight="1" spans="1:5">
+      <c r="A16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" ht="30" spans="1:5">
-      <c r="A15" s="13" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" ht="63" customHeight="1" spans="1:5">
+      <c r="A17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" ht="63" customHeight="1" spans="1:5">
+      <c r="A18" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" ht="45" spans="1:5">
-      <c r="A16" s="13" t="s">
+      <c r="B18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" ht="63" customHeight="1" spans="1:5">
+      <c r="A19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B19" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" ht="30" spans="1:5">
-      <c r="A17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" ht="63" customHeight="1" spans="1:5">
+      <c r="A20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" ht="30" spans="1:5">
-      <c r="A18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" ht="63" customHeight="1" spans="1:5">
+      <c r="A21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B21" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" ht="30" spans="1:5">
-      <c r="A19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" ht="63" customHeight="1" spans="1:5">
+      <c r="A22" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B22" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" ht="30" spans="1:5">
-      <c r="A20" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="D22" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" ht="30" spans="1:5">
-      <c r="A21" s="13" t="s">
+      <c r="E22" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="23" ht="63" customHeight="1" spans="1:5">
+      <c r="A23" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
+      <c r="B23" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" ht="63" customHeight="1" spans="1:5">
+      <c r="A24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" ht="63" customHeight="1" spans="1:5">
+      <c r="A25" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2390,10 +2762,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2425,10 +2797,10 @@
     </row>
     <row r="2" ht="77" customHeight="1" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -2436,10 +2808,10 @@
     </row>
     <row r="3" ht="96" customHeight="1" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2447,10 +2819,10 @@
     </row>
     <row r="4" ht="110" customHeight="1" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2458,10 +2830,10 @@
     </row>
     <row r="5" ht="113" customHeight="1" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2469,63 +2841,90 @@
     </row>
     <row r="6" ht="82" customHeight="1" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" ht="45" spans="2:2">
-      <c r="B7" s="6" t="s">
-        <v>76</v>
+      <c r="B7" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="45" spans="2:2">
-      <c r="B8" s="6" t="s">
-        <v>77</v>
+      <c r="B8" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" ht="45" spans="2:2">
-      <c r="B9" s="6" t="s">
-        <v>78</v>
+      <c r="B9" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" ht="45" spans="2:2">
-      <c r="B10" s="6" t="s">
-        <v>79</v>
+      <c r="B10" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" ht="45" spans="2:2">
-      <c r="B11" s="6" t="s">
-        <v>80</v>
+      <c r="B11" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" ht="30" spans="2:2">
       <c r="B12" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" ht="30" spans="2:2">
       <c r="B13" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" ht="30" spans="2:2">
       <c r="B14" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" ht="30" spans="2:2">
       <c r="B15" s="6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" ht="30" spans="2:2">
       <c r="B16" s="6" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="2:2">
+      <c r="B17" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" ht="30" spans="2:2">
+      <c r="B18" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="2:2">
+      <c r="B19" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" ht="30" spans="2:2">
+      <c r="B20" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" ht="30" spans="2:2">
+      <c r="B21" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460"/>
+    <workbookView windowWidth="30240" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
   <si>
     <t>tc_id</t>
   </si>
@@ -645,7 +645,55 @@
     <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for 4 fee types: golf/caddie/buggy/add-on package)</t>
   </si>
   <si>
-    <t>{"status_code":200}</t>
+    <t>[
+    {
+        "cms_user": "phuongtt-chilinh",
+        "partner_uid": "CHI-LINH",
+        "course_uid": "CHI-LINH-01",
+        "hole_booking": 18,
+        "customer_booking_name": "PhuongTT",
+        "customer_booking_phone": "",
+        "customer_booking_email": "phuongtt@caro.vn",
+        "agency_id": 0,
+        "booking_restaurant": {
+            "enable": false,
+            "number_people": 0
+        },
+        "booking_retal": {
+            "enable": false,
+            "golf_set_number": 0,
+            "buggy_number": 0
+        },
+        "note_of_booking": "",
+        "agency_player_pay": false,
+        "sale_name": "Trần Phương",
+        "sale_account": "phuongtt-chilinh",
+        "customer_name": "VST apply fixed discount voucher (fixed discount for 4 fee types: golf/caddie/buggy/add-on package)",
+        "caddie_code": "",
+        "caddie_booking": "",
+        "tee_type": "1",
+        "course_type": "A",
+        "tee_path": "NIGHT",
+        "turn_time": "00:58",
+        "tee_time": "22:34",
+        "row_index": 0,
+        "tee_time_after": "",
+        "customer_nationality_id": 3728,
+        "gender": "MALE",
+        "guest_style": "4D",
+        "hole": 18,
+        "booking_date": "{{TODAY}}",
+        "add_ons": [],
+        "voucher_apply": [
+            {
+                "id": 23941,
+                "voucher_code": "AT4FEE0001"
+            }
+        ],
+        "member_uid_of_guest": "",
+        "member_card_uid": ""
+    }
+]</t>
   </si>
   <si>
     <t>BB_VST_012</t>
@@ -654,52 +702,511 @@
     <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for green fee)</t>
   </si>
   <si>
+    <t>[
+    {
+        "cms_user": "phuongtt-chilinh",
+        "partner_uid": "CHI-LINH",
+        "course_uid": "CHI-LINH-01",
+        "hole_booking": 18,
+        "customer_booking_name": "PhuongTT",
+        "customer_booking_phone": "",
+        "customer_booking_email": "phuongtt@caro.vn",
+        "agency_id": 0,
+        "booking_restaurant": {
+            "enable": false,
+            "number_people": 0
+        },
+        "booking_retal": {
+            "enable": false,
+            "golf_set_number": 0,
+            "buggy_number": 0
+        },
+        "note_of_booking": "",
+        "agency_player_pay": false,
+        "sale_name": "Trần Phương",
+        "sale_account": "phuongtt-chilinh",
+        "customer_name": "VST apply fixed discount voucher (fixed discount for green fee)",
+        "caddie_code": "",
+        "caddie_booking": "",
+        "tee_type": "1",
+        "course_type": "A",
+        "tee_path": "NIGHT",
+        "turn_time": "00:58",
+        "tee_time": "22:34",
+        "row_index": 1,
+        "tee_time_after": "",
+        "customer_nationality_id": null,
+        "gender": "MALE",
+        "guest_style": "4D",
+        "hole": 18,
+        "booking_date": "{{TODAY}}",
+        "add_ons": [],
+        "voucher_apply": [
+            {
+                "id": 23942,
+                "voucher_code": "AT4GR0001"
+            }
+        ],
+        "member_uid_of_guest": "",
+        "member_card_uid": ""
+    }
+]</t>
+  </si>
+  <si>
     <t>BB_VST_013</t>
   </si>
   <si>
     <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for caddie fee)</t>
   </si>
   <si>
+    <t>[
+    {
+        "cms_user": "phuongtt-chilinh",
+        "partner_uid": "CHI-LINH",
+        "course_uid": "CHI-LINH-01",
+        "hole_booking": 18,
+        "customer_booking_name": "PhuongTT",
+        "customer_booking_phone": "",
+        "customer_booking_email": "phuongtt@caro.vn",
+        "agency_id": 0,
+        "booking_restaurant": {
+            "enable": false,
+            "number_people": 0
+        },
+        "booking_retal": {
+            "enable": false,
+            "golf_set_number": 0,
+            "buggy_number": 0
+        },
+        "note_of_booking": "",
+        "agency_player_pay": false,
+        "sale_name": "Trần Phương",
+        "sale_account": "phuongtt-chilinh",
+        "customer_name": "VST apply fixed discount voucher (fixed discount for caddie fee)",
+        "caddie_code": "",
+        "caddie_booking": "",
+        "tee_type": "1",
+        "course_type": "A",
+        "tee_path": "NIGHT",
+        "turn_time": "00:58",
+        "tee_time": "22:34",
+        "row_index": 2,
+        "tee_time_after": "",
+        "customer_nationality_id": 3728,
+        "gender": "MALE",
+        "guest_style": "4D",
+        "hole": 18,
+        "booking_date": "{{TODAY}}",
+        "add_ons": [],
+        "voucher_apply": [
+            {
+                "id": 23943,
+                "voucher_code": "AT4CD0001"
+            }
+        ],
+        "member_uid_of_guest": "",
+        "member_card_uid": ""
+    }
+]</t>
+  </si>
+  <si>
     <t>BB_VST_014</t>
   </si>
   <si>
     <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for half buggy)</t>
   </si>
   <si>
+    <t>[
+    {
+        "cms_user": "phuongtt-chilinh",
+        "partner_uid": "CHI-LINH",
+        "course_uid": "CHI-LINH-01",
+        "hole_booking": 18,
+        "customer_booking_name": "PhuongTT",
+        "customer_booking_phone": "",
+        "customer_booking_email": "phuongtt@caro.vn",
+        "agency_id": 0,
+        "booking_restaurant": {
+            "enable": false,
+            "number_people": 0
+        },
+        "booking_retal": {
+            "enable": false,
+            "golf_set_number": 0,
+            "buggy_number": 0
+        },
+        "note_of_booking": "",
+        "agency_player_pay": false,
+        "sale_name": "Trần Phương",
+        "sale_account": "phuongtt-chilinh",
+        "customer_name": "VST apply fixed discount voucher (fixed discount for half buggy)",
+        "caddie_code": "",
+        "caddie_booking": "",
+        "tee_type": "1",
+        "course_type": "A",
+        "tee_path": "NIGHT",
+        "turn_time": "00:58",
+        "tee_time": "22:34",
+        "row_index": 3,
+        "tee_time_after": "",
+        "customer_nationality_id": 3728,
+        "gender": "MALE",
+        "guest_style": "4D",
+        "hole": 18,
+        "booking_date": "{{TODAY}}",
+        "add_ons": [],
+        "voucher_apply": [
+            {
+                "id": 23944,
+                "voucher_code": "AT4BG0001"
+            }
+        ],
+        "member_uid_of_guest": "",
+        "member_card_uid": ""
+    }
+]</t>
+  </si>
+  <si>
     <t>BB_VST_015</t>
   </si>
   <si>
     <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for add-on package)</t>
   </si>
   <si>
+    <t>[
+    {
+        "cms_user": "phuongtt-chilinh",
+        "partner_uid": "CHI-LINH",
+        "course_uid": "CHI-LINH-01",
+        "hole_booking": 18,
+        "customer_booking_name": "PhuongTT",
+        "customer_booking_phone": "",
+        "customer_booking_email": "phuongtt@caro.vn",
+        "agency_id": 0,
+        "booking_restaurant": {
+            "enable": false,
+            "number_people": 0
+        },
+        "booking_retal": {
+            "enable": false,
+            "golf_set_number": 0,
+            "buggy_number": 0
+        },
+        "note_of_booking": "",
+        "agency_player_pay": false,
+        "sale_name": "Trần Phương",
+        "sale_account": "phuongtt-chilinh",
+        "customer_name": "VST apply fixed discount voucher (fixed discount for add-on package)",
+        "caddie_code": "",
+        "caddie_booking": "",
+        "tee_type": "1",
+        "course_type": "A",
+        "tee_path": "NIGHT",
+        "turn_time": "01:06",
+        "tee_time": "22:42",
+        "row_index": 0,
+        "tee_time_after": "",
+        "customer_nationality_id": null,
+        "gender": "MALE",
+        "guest_style": "4D",
+        "hole": 18,
+        "booking_date": "{{TODAY}}",
+        "add_ons": [],
+        "voucher_apply": [
+            {
+                "id": 23945,
+                "voucher_code": "AT4PACKAGE0001"
+            }
+        ],
+        "member_uid_of_guest": "",
+        "member_card_uid": ""
+    }
+]</t>
+  </si>
+  <si>
     <t>BB_VST_016</t>
   </si>
   <si>
     <t>Verify create batch booking for Visitor without package + apply prepaid voucher (all 4 fee types: golf/caddie/buggy/add-on)</t>
   </si>
   <si>
+    <t>[
+    {
+        "cms_user": "phuongtt-chilinh",
+        "partner_uid": "CHI-LINH",
+        "course_uid": "CHI-LINH-01",
+        "hole_booking": 18,
+        "customer_booking_name": "PhuongTT",
+        "customer_booking_phone": "",
+        "customer_booking_email": "phuongtt@caro.vn",
+        "agency_id": 0,
+        "booking_restaurant": {
+            "enable": false,
+            "number_people": 0
+        },
+        "booking_retal": {
+            "enable": false,
+            "golf_set_number": 0,
+            "buggy_number": 0
+        },
+        "note_of_booking": "",
+        "agency_player_pay": false,
+        "sale_name": "Trần Phương",
+        "sale_account": "phuongtt-chilinh",
+        "customer_name": "VST apply prepaid voucher (all 4 fee types: golf/caddie/buggy/add-on)",
+        "caddie_code": "",
+        "caddie_booking": "",
+        "tee_type": "1",
+        "course_type": "A",
+        "tee_path": "NIGHT",
+        "turn_time": "01:06",
+        "tee_time": "22:42",
+        "row_index": 1,
+        "tee_time_after": "",
+        "customer_nationality_id": 3728,
+        "gender": "MALE",
+        "guest_style": "4D",
+        "hole": 18,
+        "booking_date": "{{TODAY}}",
+        "add_ons": [],
+        "voucher_apply": [
+            {
+                "id": 23947,
+                "voucher_code": "ATTC4FREE0001"
+            }
+        ],
+        "member_uid_of_guest": "",
+        "member_card_uid": ""
+    }
+]</t>
+  </si>
+  <si>
     <t>BB_VST_017</t>
   </si>
   <si>
     <t>Verify create batch booking for Visitor without package + apply prepaid voucher (green fee only)</t>
   </si>
   <si>
+    <t>[
+    {
+        "cms_user": "phuongtt-chilinh",
+        "partner_uid": "CHI-LINH",
+        "course_uid": "CHI-LINH-01",
+        "hole_booking": 18,
+        "customer_booking_name": "PhuongTT",
+        "customer_booking_phone": "",
+        "customer_booking_email": "phuongtt@caro.vn",
+        "agency_id": 0,
+        "booking_restaurant": {
+            "enable": false,
+            "number_people": 0
+        },
+        "booking_retal": {
+            "enable": false,
+            "golf_set_number": 0,
+            "buggy_number": 0
+        },
+        "note_of_booking": "",
+        "agency_player_pay": false,
+        "sale_name": "Trần Phương",
+        "sale_account": "phuongtt-chilinh",
+        "customer_name": "VST apply prepaid voucher (green fee only)",
+        "caddie_code": "",
+        "caddie_booking": "",
+        "tee_type": "1",
+        "course_type": "A",
+        "tee_path": "NIGHT",
+        "turn_time": "01:06",
+        "tee_time": "22:42",
+        "row_index": 2,
+        "tee_time_after": "",
+        "customer_nationality_id": 3728,
+        "gender": "MALE",
+        "guest_style": "4D",
+        "hole": 18,
+        "booking_date": "{{TODAY}}",
+        "add_ons": [],
+        "voucher_apply": [
+            {
+                "id": 23948,
+                "voucher_code": "ATTC4GR0001"
+            }
+        ],
+        "member_uid_of_guest": "",
+        "member_card_uid": ""
+    }
+]</t>
+  </si>
+  <si>
     <t>BB_VST_018</t>
   </si>
   <si>
     <t>Verify create batch booking for Visitor without package + apply prepaid voucher (caddie fee only)</t>
   </si>
   <si>
+    <t>[
+        {
+            "cms_user": "phuongtt-chilinh",
+            "partner_uid": "CHI-LINH",
+            "course_uid": "CHI-LINH-01",
+            "hole_booking": 18,
+            "customer_booking_name": "PhuongTT",
+            "customer_booking_phone": "",
+            "customer_booking_email": "phuongtt@caro.vn",
+            "agency_id": 0,
+            "booking_restaurant": {
+                "enable": false,
+                "number_people": 0
+            },
+            "booking_retal": {
+                "enable": false,
+                "golf_set_number": 0,
+                "buggy_number": 0
+            },
+            "note_of_booking": "",
+            "agency_player_pay": false,
+            "sale_name": "Trần Phương",
+            "sale_account": "phuongtt-chilinh",
+            "customer_name": "VST apply prepaid voucher (caddie fee only)",
+            "caddie_code": "",
+            "caddie_booking": "",
+            "tee_type": "1",
+            "course_type": "A",
+            "tee_path": "NIGHT",
+            "turn_time": "01:06",
+            "tee_time": "22:42",
+            "row_index": 3,
+            "tee_time_after": "",
+            "customer_nationality_id": 3728,
+            "gender": "MALE",
+            "guest_style": "4D",
+            "hole": 18,
+            "booking_date": "{{TODAY}}",
+            "add_ons": [],
+            "voucher_apply": [
+                {
+                    "id": 23949,
+                    "voucher_code": "ATTC4CD0001"
+                }
+            ],
+            "member_uid_of_guest": "",
+            "member_card_uid": ""
+        }
+    ]</t>
+  </si>
+  <si>
     <t>BB_VST_019</t>
   </si>
   <si>
     <t>Verify create batch booking for Visitor without package + apply prepaid voucher (half buggy)</t>
   </si>
   <si>
+    <t>[
+    {
+        "cms_user": "phuongtt-chilinh",
+        "partner_uid": "CHI-LINH",
+        "course_uid": "CHI-LINH-01",
+        "hole_booking": 18,
+        "customer_booking_name": "PhuongTT",
+        "customer_booking_phone": "",
+        "customer_booking_email": "phuongtt@caro.vn",
+        "agency_id": 0,
+        "booking_restaurant": {
+            "enable": false,
+            "number_people": 0
+        },
+        "booking_retal": {
+            "enable": false,
+            "golf_set_number": 0,
+            "buggy_number": 0
+        },
+        "note_of_booking": "",
+        "agency_player_pay": false,
+        "sale_name": "Trần Phương",
+        "sale_account": "phuongtt-chilinh",
+        "customer_name": "VST apply prepaid voucher (half buggy)",
+        "caddie_code": "",
+        "caddie_booking": "",
+        "tee_type": "1",
+        "course_type": "A",
+        "tee_path": "NIGHT",
+        "turn_time": "01:14",
+        "tee_time": "22:50",
+        "row_index": 0,
+        "tee_time_after": "",
+        "customer_nationality_id": 3728,
+        "gender": "MALE",
+        "guest_style": "4D",
+        "hole": 18,
+        "booking_date": "{{TODAY}}",
+        "add_ons": [],
+        "voucher_apply": [
+            {
+                "id": 23950,
+                "voucher_code": "ATTC4BG0001"
+            }
+        ],
+        "member_uid_of_guest": "",
+        "member_card_uid": ""
+    }
+]</t>
+  </si>
+  <si>
     <t>BB_VST_020</t>
   </si>
   <si>
     <t>Verify create batch booking for Visitor without package + apply prepaid voucher (add-on package)</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "cms_user": "phuongtt-chilinh",
+        "partner_uid": "CHI-LINH",
+        "course_uid": "CHI-LINH-01",
+        "hole_booking": 18,
+        "customer_booking_name": "PhuongTT",
+        "customer_booking_phone": "",
+        "customer_booking_email": "phuongtt@caro.vn",
+        "agency_id": 0,
+        "booking_restaurant": {
+            "enable": false,
+            "number_people": 0
+        },
+        "booking_retal": {
+            "enable": false,
+            "golf_set_number": 0,
+            "buggy_number": 0
+        },
+        "note_of_booking": "",
+        "agency_player_pay": false,
+        "sale_name": "Trần Phương",
+        "sale_account": "phuongtt-chilinh",
+        "customer_name": "VST apply prepaid voucher (add-on package)",
+        "caddie_code": "",
+        "caddie_booking": "",
+        "tee_type": "1",
+        "course_type": "A",
+        "tee_path": "NIGHT",
+        "turn_time": "01:14",
+        "tee_time": "22:50",
+        "row_index": 1,
+        "tee_time_after": "",
+        "customer_nationality_id": 3728,
+        "gender": "MALE",
+        "guest_style": "4D",
+        "hole": 18,
+        "booking_date": "{{TODAY}}",
+        "add_ons": [],
+        "voucher_apply": [
+            {
+                "id": 23951,
+                "voucher_code": "ATTC4PACKAGE0001"
+            }
+        ],
+        "member_uid_of_guest": "",
+        "member_card_uid": ""
+    }
+]</t>
   </si>
   <si>
     <t>BB_VST_021</t>
@@ -1048,10 +1555,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1593,16 +2100,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1735,7 +2242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1751,18 +2258,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1775,29 +2282,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2334,18 +2832,18 @@
   <sheetPr/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B19" sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.1428571428571" style="9" customWidth="1"/>
-    <col min="2" max="2" width="115.285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.8571428571429" style="9" customWidth="1"/>
-    <col min="4" max="4" width="59.8571428571429" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.1428571428571" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="9"/>
+    <col min="1" max="1" width="13.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="115.2890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.859375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="59.859375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="63" customHeight="1" spans="1:5">
@@ -2361,396 +2859,416 @@
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="63" customHeight="1" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="63" customHeight="1" spans="1:5">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="63" customHeight="1" spans="1:5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="63" customHeight="1" spans="1:5">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" ht="63" customHeight="1" spans="1:5">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:5">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" ht="63" customHeight="1" spans="1:5">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" ht="63" customHeight="1" spans="1:5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" ht="63" customHeight="1" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" ht="63" customHeight="1" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>42</v>
       </c>
+      <c r="E12" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" ht="63" customHeight="1" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18" t="s">
-        <v>42</v>
+      <c r="D13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="63" customHeight="1" spans="1:5">
-      <c r="A14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18" t="s">
-        <v>42</v>
+      <c r="D14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18" t="s">
-        <v>42</v>
+      <c r="D15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="63" customHeight="1" spans="1:5">
-      <c r="A16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="A16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18" t="s">
-        <v>42</v>
+      <c r="D16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="63" customHeight="1" spans="1:5">
-      <c r="A17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="18" t="s">
+      <c r="A17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="18" t="s">
-        <v>42</v>
+      <c r="D17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="63" customHeight="1" spans="1:5">
-      <c r="A18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="A18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="18" t="s">
-        <v>42</v>
+      <c r="D18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="63" customHeight="1" spans="1:5">
-      <c r="A19" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="18" t="s">
+      <c r="A19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="18" t="s">
-        <v>42</v>
+      <c r="D19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="63" customHeight="1" spans="1:5">
-      <c r="A20" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="A20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="18" t="s">
-        <v>42</v>
+      <c r="D20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="63" customHeight="1" spans="1:5">
-      <c r="A21" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="A21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="18" t="s">
-        <v>42</v>
+      <c r="D21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="63" customHeight="1" spans="1:5">
-      <c r="A22" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>64</v>
+      <c r="D22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" ht="63" customHeight="1" spans="1:5">
-      <c r="A23" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>69</v>
+      <c r="A23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" ht="63" customHeight="1" spans="1:5">
-      <c r="A24" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>69</v>
+      <c r="A24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="63" customHeight="1" spans="1:5">
-      <c r="A25" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>69</v>
+      <c r="A25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2768,17 +3286,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="1"/>
-    <col min="2" max="2" width="49.7142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="49.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.859375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:5">
+    <row r="1" ht="21" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2791,140 +3309,140 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="77" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" ht="96" customHeight="1" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" ht="110" customHeight="1" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" ht="113" customHeight="1" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" ht="82" customHeight="1" spans="1:5">
-      <c r="A6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" ht="45" spans="2:2">
-      <c r="B7" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" ht="45" spans="2:2">
-      <c r="B8" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" ht="45" spans="2:2">
-      <c r="B9" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" ht="45" spans="2:2">
-      <c r="B10" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" ht="45" spans="2:2">
-      <c r="B11" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" ht="30" spans="2:2">
-      <c r="B12" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" ht="30" spans="2:2">
-      <c r="B13" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" ht="30" spans="2:2">
-      <c r="B14" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" ht="30" spans="2:2">
-      <c r="B15" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" ht="30" spans="2:2">
-      <c r="B16" s="6" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" ht="51" spans="2:2">
+      <c r="B7" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="2:2">
-      <c r="B17" s="8" t="s">
+    <row r="8" ht="51" spans="2:2">
+      <c r="B8" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" ht="30" spans="2:2">
-      <c r="B18" s="8" t="s">
+    <row r="9" ht="51" spans="2:2">
+      <c r="B9" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" ht="30" spans="2:2">
-      <c r="B19" s="8" t="s">
+    <row r="10" ht="34" spans="2:2">
+      <c r="B10" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" ht="30" spans="2:2">
-      <c r="B20" s="8" t="s">
+    <row r="11" ht="34" spans="2:2">
+      <c r="B11" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" ht="30" spans="2:2">
-      <c r="B21" s="8" t="s">
+    <row r="12" ht="34" spans="2:2">
+      <c r="B12" s="5" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="13" ht="34" spans="2:2">
+      <c r="B13" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" ht="34" spans="2:2">
+      <c r="B14" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" ht="34" spans="2:2">
+      <c r="B15" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" ht="34" spans="2:2">
+      <c r="B16" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" ht="34" spans="2:2">
+      <c r="B17" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" ht="34" spans="2:2">
+      <c r="B18" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" ht="34" spans="2:2">
+      <c r="B19" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" ht="34" spans="2:2">
+      <c r="B20" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" ht="34" spans="2:2">
+      <c r="B21" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13080"/>
+    <workbookView windowWidth="30240" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="input_data" sheetId="4" r:id="rId2"/>
+    <sheet name="expected_data" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="145">
   <si>
     <t>tc_id</t>
   </si>
@@ -1472,82 +1473,184 @@
   ]</t>
   </si>
   <si>
-    <t>BB_001</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package</t>
-  </si>
-  <si>
-    <t>BB_002</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee có package</t>
-  </si>
-  <si>
-    <t>BB_003</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + add thêm caddie</t>
-  </si>
-  <si>
-    <t>BB_004</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee có package + add thêm caddie</t>
-  </si>
-  <si>
-    <t>BB_005</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá thông thường / Trực tiếp số tiền / Áp dụng tất cả các loại phí</t>
-  </si>
-  <si>
-    <t>VC còn các case giảm về 0đ</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá thông thường / Trực tiếp số tiền / Áp dụng chỉ green fee</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá thông thường / Trực tiếp số tiền / Áp dụng chỉ caddie</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá thông thường /  % vào giá / Áp dụng tất cả các loại phí</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá thông thường /  % vào giá / Áp dụng chỉ green fee</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá thông thường /  % vào giá / Áp dụng chỉ caddie</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá cố định / Cho 4 loại phí</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá cố định / Green fee</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá cố định / Caddie fee</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá cố định / 1/2 xe</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC giảm giá cố định / Add-on package</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC trả trước / Cho 4 loại phí</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC trả trước / Green fee</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC trả trước / Caddie fee</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC trả trước / 1/2 xe</t>
-  </si>
-  <si>
-    <t>VST_Kiểm ra booking golf fee không có package + Apply VC trả trước / Add-on package</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value_case1</t>
+  </si>
+  <si>
+    <t>value_case2</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "booking_list": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cms_user": ,</t>
+  </si>
+  <si>
+    <t>"phuongtt-chilinh01"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "partner_uid": ,</t>
+  </si>
+  <si>
+    <t>"CHI-LINH"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "course_uid": ,</t>
+  </si>
+  <si>
+    <t>"CHI-LINH-01"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "hole_booking": ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "customer_booking_name": ,</t>
+  </si>
+  <si>
+    <t>"PhuongTT"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "customer_booking_phone": ,</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "customer_booking_email": "phuongtt@caro.vn",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "agency_id": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "booking_restaurant": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "enable": false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "number_people": 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "booking_retal": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "golf_set_number": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "buggy_number": 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "note_of_booking": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "agency_player_pay": false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "sale_name": "Trần Phương 01",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "sale_account": "phuongtt-chilinh01",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "customer_name": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "caddie_code": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "caddie_booking": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "tee_type": "1",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "course_type": "A",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "tee_path": "NOON",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "turn_time": "17:56",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "tee_time": "15:32",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "row_index": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "tee_time_after": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "customer_nationality_id": 3728,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "gender": "MALE",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "guest_style": "4D",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "hole": 18,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "booking_date": "08/09/2025",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "add_ons": [],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "voucher_apply": [],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "member_uid_of_guest": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "member_card_uid": ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cms_user": "phuongtt-chilinh01",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "partner_uid": "CHI-LINH",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "course_uid": "CHI-LINH-01",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "hole_booking": 18,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "customer_booking_name": "PhuongTT",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "customer_booking_phone": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "row_index": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
 </sst>
 </file>
@@ -1932,50 +2035,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2118,7 +2182,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2130,34 +2194,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2242,59 +2306,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2832,442 +2884,443 @@
   <sheetPr/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B19" sqref="A1:E25"/>
+    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="115.2890625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.859375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="59.859375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="115.2890625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.859375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="59.859375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.9765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="63" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="63" customHeight="1" spans="1:5">
-      <c r="A2" s="13" t="s">
+    <row r="2" ht="163" customHeight="1" spans="1:5">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="63" customHeight="1" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="63" customHeight="1" spans="1:5">
-      <c r="A4" s="13" t="s">
+    <row r="4" ht="139" customHeight="1" spans="1:5">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="63" customHeight="1" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="63" customHeight="1" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" ht="63" customHeight="1" spans="1:5">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" ht="63" customHeight="1" spans="1:5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" ht="63" customHeight="1" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" ht="63" customHeight="1" spans="1:5">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" ht="63" customHeight="1" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="63" customHeight="1" spans="1:5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" ht="63" customHeight="1" spans="1:5">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" ht="63" customHeight="1" spans="1:5">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" ht="63" customHeight="1" spans="1:5">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" ht="63" customHeight="1" spans="1:5">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" ht="63" customHeight="1" spans="1:5">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" ht="63" customHeight="1" spans="1:5">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" ht="63" customHeight="1" spans="1:5">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" ht="63" customHeight="1" spans="1:5">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" ht="63" customHeight="1" spans="1:5">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" ht="63" customHeight="1" spans="1:5">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" ht="63" customHeight="1" spans="1:5">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3280,173 +3333,506 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="49.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.859375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="49.0859375" customWidth="1"/>
+    <col min="2" max="2" width="18.4765625" customWidth="1"/>
+    <col min="3" max="3" width="13.8046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="77" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B1" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="96" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="C1" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="110" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="113" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="82" customHeight="1" spans="1:5">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="51" spans="2:2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" ht="51" spans="2:2">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:2">
-      <c r="B9" s="7" t="s">
+      <c r="B8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" ht="34" spans="2:2">
-      <c r="B10" s="7" t="s">
+      <c r="B9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" ht="34" spans="2:2">
-      <c r="B11" s="7" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" ht="34" spans="2:2">
-      <c r="B12" s="5" t="s">
+      <c r="B10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" ht="34" spans="2:2">
-      <c r="B13" s="5" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" ht="34" spans="2:2">
-      <c r="B14" s="5" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" ht="34" spans="2:2">
-      <c r="B15" s="5" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" ht="34" spans="2:2">
-      <c r="B16" s="5" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" ht="34" spans="2:2">
-      <c r="B17" s="7" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" ht="34" spans="2:2">
-      <c r="B18" s="7" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" ht="34" spans="2:2">
-      <c r="B19" s="7" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" ht="34" spans="2:2">
-      <c r="B20" s="7" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" ht="34" spans="2:2">
-      <c r="B21" s="7" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12480" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
     <sheet name="input_data" sheetId="4" r:id="rId2"/>
     <sheet name="expected_data" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +30,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="290">
   <si>
     <t>tc_id</t>
   </si>
@@ -40,19 +64,677 @@
     <t>expected_result</t>
   </si>
   <si>
+    <t>data_column_name</t>
+  </si>
+  <si>
+    <t>expected_validation_data</t>
+  </si>
+  <si>
+    <t>BB_VST_001</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package (golf fee only)</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>value_case1</t>
+  </si>
+  <si>
+    <t>{
+  "status_code": 200,
+  "size()": 1,
+  "[0].uid": "NOT_NULL",
+  "[0].customer_booking_name": "PhuongTT",
+  "[0].guest_style": "4D"
+}</t>
+  </si>
+  <si>
+    <t>BB_VST_002</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor with package (package_add_on_fee applied)</t>
+  </si>
+  <si>
+    <t>value_case2</t>
+  </si>
+  <si>
+    <t>{
+  "status_code": 200,
+  "size()": 1,
+  "[0].uid": "NOT_NULL",
+  "[0].customer_booking_name": "PhuongTT",
+  "[0].guest_style": "4D_package_PTT"
+}</t>
+  </si>
+  <si>
+    <t>BB_VST_003</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + add caddie</t>
+  </si>
+  <si>
+    <t>value_case3</t>
+  </si>
+  <si>
+    <t>{
+  "status_code": 200,
+  "size()": 1,
+  "[0].uid": "NOT_NULL",
+  "[0].has_book_caddie": true
+}</t>
+  </si>
+  <si>
+    <t>BB_VST_004</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor with package + add caddie</t>
+  </si>
+  <si>
+    <t>value_case4</t>
+  </si>
+  <si>
+    <t>BB_VST_005</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (fixed amount, apply to all fee types)</t>
+  </si>
+  <si>
+    <t>value_case5</t>
+  </si>
+  <si>
+    <t>{
+  "status_code": 200,
+  "size()": 1,
+  "[0].uid": "NOT_NULL",
+  "[0].customer_booking_name": "PhuongTT",
+  "[0].guest_style": "4D",
+  "[0].IsCheckedIn": false,
+  "[0].bag_status": "BOOKING",
+  "[0].bill_code": "NOT_NULL",
+  "[0].booking_code": "NOT_NULL",
+  "[0].customer_type": "VISITOR",
+  "[0].has_book_caddie": false
+}</t>
+  </si>
+  <si>
+    <t>BB_VST_006</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (fixed amount, apply to green fee only)</t>
+  </si>
+  <si>
+    <t>value_case6</t>
+  </si>
+  <si>
+    <t>BB_VST_007</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (fixed amount, apply to caddie fee only)</t>
+  </si>
+  <si>
+    <t>value_case7</t>
+  </si>
+  <si>
+    <t>BB_VST_008</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (percent, apply to all fee types)</t>
+  </si>
+  <si>
+    <t>value_case8</t>
+  </si>
+  <si>
+    <t>BB_VST_009</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (percent, apply to green fee only)</t>
+  </si>
+  <si>
+    <t>value_case9</t>
+  </si>
+  <si>
+    <t>BB_VST_010</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (percent, apply to caddie fee only)</t>
+  </si>
+  <si>
+    <t>value_case10</t>
+  </si>
+  <si>
+    <t>BB_VST_011</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for 4 fee types: golf/caddie/buggy/add-on package)</t>
+  </si>
+  <si>
+    <t>value_case11</t>
+  </si>
+  <si>
+    <t>BB_VST_012</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for green fee)</t>
+  </si>
+  <si>
+    <t>value_case12</t>
+  </si>
+  <si>
+    <t>BB_VST_013</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for caddie fee)</t>
+  </si>
+  <si>
+    <t>value_case13</t>
+  </si>
+  <si>
+    <t>BB_VST_014</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for half buggy)</t>
+  </si>
+  <si>
+    <t>value_case14</t>
+  </si>
+  <si>
+    <t>BB_VST_015</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for add-on package)</t>
+  </si>
+  <si>
+    <t>value_case15</t>
+  </si>
+  <si>
+    <t>BB_VST_016</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (all 4 fee types: golf/caddie/buggy/add-on)</t>
+  </si>
+  <si>
+    <t>value_case16</t>
+  </si>
+  <si>
+    <t>BB_VST_017</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (green fee only)</t>
+  </si>
+  <si>
+    <t>value_case17</t>
+  </si>
+  <si>
+    <t>BB_VST_018</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (caddie fee only)</t>
+  </si>
+  <si>
+    <t>value_case18</t>
+  </si>
+  <si>
+    <t>BB_VST_019</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (half buggy)</t>
+  </si>
+  <si>
+    <t>value_case19</t>
+  </si>
+  <si>
+    <t>BB_VST_020</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (add-on package)</t>
+  </si>
+  <si>
+    <t>value_case20</t>
+  </si>
+  <si>
+    <t>BB_VST_021</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for 2 players successfully</t>
+  </si>
+  <si>
+    <t>value_case21</t>
+  </si>
+  <si>
+    <t>{
+  "status_code": 200,
+  "size()": 2,
+  "[0].uid": "NOT_NULL",
+  "[1].uid": "NOT_NULL"
+}</t>
+  </si>
+  <si>
+    <t>BB_VST_022</t>
+  </si>
+  <si>
+    <t>Verify error when booking_date is missing in player object</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>value_case22</t>
+  </si>
+  <si>
+    <t>{"status_code": 500}</t>
+  </si>
+  <si>
+    <t>BB_VST_023</t>
+  </si>
+  <si>
+    <t>Verify error when booking date is in the past</t>
+  </si>
+  <si>
+    <t>value_case23</t>
+  </si>
+  <si>
+    <t>BB_VST_024</t>
+  </si>
+  <si>
+    <t>Verify error when guest_style is invalid</t>
+  </si>
+  <si>
+    <t>value_case24</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "booking_list": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "cms_user":</t>
+  </si>
+  <si>
+    <t>"phuongtt-chilinh",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "partner_uid":</t>
+  </si>
+  <si>
+    <t>"CHI-LINH",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "course_uid":</t>
+  </si>
+  <si>
+    <t>"CHI-LINH-01",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "hole_booking":</t>
+  </si>
+  <si>
+    <t>18,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "customer_booking_name":</t>
+  </si>
+  <si>
+    <t>"PhuongTT",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "customer_booking_phone":</t>
+  </si>
+  <si>
+    <t>"",</t>
+  </si>
+  <si>
+    <t>"0355653355",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "customer_booking_email":</t>
+  </si>
+  <si>
+    <t>"phuongtt@caro.vn",</t>
+  </si>
+  <si>
+    <t>"vn@gmail.com",</t>
+  </si>
+  <si>
+    <t>"01zl@gmail.com",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "agency_id":</t>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "booking_restaurant": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "enable":</t>
+  </si>
+  <si>
+    <t>false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "number_people":</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "booking_retal": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "golf_set_number":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "buggy_number":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "note_of_booking":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "agency_player_pay":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "sale_name":</t>
+  </si>
+  <si>
+    <t>"Trần Phương",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "sale_account":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "customer_name":</t>
+  </si>
+  <si>
+    <t>"Khách lẻ",</t>
+  </si>
+  <si>
+    <t>"Khách lẻ có package",</t>
+  </si>
+  <si>
+    <t>"Khách lẻ booking caddie",</t>
+  </si>
+  <si>
+    <t>"Khách lẻ có package booking caddie",</t>
+  </si>
+  <si>
+    <t>"Khách lẻ VC thông thường",</t>
+  </si>
+  <si>
+    <t>"VST apply normal voucher (fixed amount, apply to green fee only)",</t>
+  </si>
+  <si>
+    <t>"VST apply normal voucher (fixed amount, apply to caddie fee only)",</t>
+  </si>
+  <si>
+    <t>"VST apply normal voucher (percent, apply to all fee types)",</t>
+  </si>
+  <si>
+    <t>"VST apply normal voucher (percent, apply to green fee only)",</t>
+  </si>
+  <si>
+    <t>"VST apply normal voucher (percent, apply to caddie fee only)",</t>
+  </si>
+  <si>
+    <t>"VST apply fixed discount voucher (fixed discount for 4 fee types: golf/caddie/buggy/add-on package)",</t>
+  </si>
+  <si>
+    <t>"VST apply fixed discount voucher (fixed discount for green fee)",</t>
+  </si>
+  <si>
+    <t>"VST apply fixed discount voucher (fixed discount for caddie fee)",</t>
+  </si>
+  <si>
+    <t>"VST apply fixed discount voucher (fixed discount for half buggy)",</t>
+  </si>
+  <si>
+    <t>"VST apply fixed discount voucher (fixed discount for add-on package)",</t>
+  </si>
+  <si>
+    <t>"VST apply prepaid voucher (all 4 fee types: golf/caddie/buggy/add-on)",</t>
+  </si>
+  <si>
+    <t>"VST apply prepaid voucher (green fee only)",</t>
+  </si>
+  <si>
+    <t>"VST apply prepaid voucher (caddie fee only)",</t>
+  </si>
+  <si>
+    <t>"VST apply prepaid voucher (half buggy)",</t>
+  </si>
+  <si>
+    <t>"VST apply prepaid voucher (add-on package)",</t>
+  </si>
+  <si>
+    <t>"Player 1",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "caddie_code":</t>
+  </si>
+  <si>
+    <t>"CD1203",</t>
+  </si>
+  <si>
+    <t>"009",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "caddie_booking":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "tee_type":</t>
+  </si>
+  <si>
+    <t>"1",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "course_type":</t>
+  </si>
+  <si>
+    <t>"A",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "tee_path":</t>
+  </si>
+  <si>
+    <t>"NIGHT",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "turn_time":</t>
+  </si>
+  <si>
+    <t>"00:34",</t>
+  </si>
+  <si>
+    <t>"00:42",</t>
+  </si>
+  <si>
+    <t>"00:50",</t>
+  </si>
+  <si>
+    <t>"00:58",</t>
+  </si>
+  <si>
+    <t>"01:06",</t>
+  </si>
+  <si>
+    <t>"01:14",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "tee_time":</t>
+  </si>
+  <si>
+    <t>"22:10",</t>
+  </si>
+  <si>
+    <t>"22:18",</t>
+  </si>
+  <si>
+    <t>"22:26",</t>
+  </si>
+  <si>
+    <t>"22:34",</t>
+  </si>
+  <si>
+    <t>"22:42",</t>
+  </si>
+  <si>
+    <t>"22:50",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "row_index":</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "tee_time_after":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "customer_nationality_id":</t>
+  </si>
+  <si>
+    <t>3728,</t>
+  </si>
+  <si>
+    <t>null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "gender":</t>
+  </si>
+  <si>
+    <t>"MALE",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "guest_style":</t>
+  </si>
+  <si>
+    <t>"4D",</t>
+  </si>
+  <si>
+    <t>"4D_package_PTT",</t>
+  </si>
+  <si>
+    <t>"INVALID_STYLE",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "hole":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "booking_date":</t>
+  </si>
+  <si>
+    <t>"{{TODAY}}",</t>
+  </si>
+  <si>
+    <t>"{{TODAY-1}}",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "add_ons":</t>
+  </si>
+  <si>
+    <t>[],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "voucher_apply":</t>
+  </si>
+  <si>
+    <t>[{"id": 23934, "voucher_code": "ATCN0001"}],</t>
+  </si>
+  <si>
+    <t>[{"id": 23936, "voucher_code": "ATGR0001"}],</t>
+  </si>
+  <si>
+    <t>[{"id": 23935, "voucher_code": "ATCD0001"}],</t>
+  </si>
+  <si>
+    <t>[{"id": 23937, "voucher_code": "ATCN10001"}],</t>
+  </si>
+  <si>
+    <t>[{"id": 23938, "voucher_code": "ATGR10001"}],</t>
+  </si>
+  <si>
+    <t>[{"id": 23939, "voucher_code": "ATCD10001"}],</t>
+  </si>
+  <si>
+    <t>[{"id": 23941, "voucher_code": "AT4FEE0001"}],</t>
+  </si>
+  <si>
+    <t>[{"id": 23942, "voucher_code": "AT4GR0001"}],</t>
+  </si>
+  <si>
+    <t>[{"id": 23943, "voucher_code": "AT4CD0001"}],</t>
+  </si>
+  <si>
+    <t>[{"id": 23944, "voucher_code": "AT4BG0001"}],</t>
+  </si>
+  <si>
+    <t>[{"id": 23945, "voucher_code": "AT4PACKAGE0001"}],</t>
+  </si>
+  <si>
+    <t>[{"id": 23947, "voucher_code": "ATTC4FREE0001"}],</t>
+  </si>
+  <si>
+    <t>[{"id": 23948, "voucher_code": "ATTC4GR0001"}],</t>
+  </si>
+  <si>
+    <t>[{"id": 23949, "voucher_code": "ATTC4CD0001"}],</t>
+  </si>
+  <si>
+    <t>[{"id": 23950, "voucher_code": "ATTC4BG0001"}],</t>
+  </si>
+  <si>
+    <t>[{"id": 23951, "voucher_code": "ATTC4PACKAGE0001"}],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "member_uid_of_guest":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "member_card_uid":</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t>"Player 2",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ]</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
     <t>booking_list</t>
-  </si>
-  <si>
-    <t>expected_validation_data</t>
-  </si>
-  <si>
-    <t>BB_VST_001</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package (golf fee only)</t>
-  </si>
-  <si>
-    <t>success</t>
   </si>
   <si>
     <t>[
@@ -101,21 +783,6 @@
   ]</t>
   </si>
   <si>
-    <t>{
-  "status_code": 200,
-  "size()": 1,
-  "[0].uid": "NOT_NULL",
-  "[0].customer_booking_name": "PhuongTT",
-  "[0].guest_style": "4D"
-}</t>
-  </si>
-  <si>
-    <t>BB_VST_002</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor with package (package_add_on_fee applied)</t>
-  </si>
-  <si>
     <t>[
     {
       "cms_user": "phuongtt-chilinh",
@@ -162,21 +829,6 @@
   ]</t>
   </si>
   <si>
-    <t>{
-  "status_code": 200,
-  "size()": 1,
-  "[0].uid": "NOT_NULL",
-  "[0].customer_booking_name": "PhuongTT",
-  "[0].guest_style": "4D_package_PTT"
-}</t>
-  </si>
-  <si>
-    <t>BB_VST_003</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + add caddie</t>
-  </si>
-  <si>
     <t>[ 
   {
       "cms_user": "phuongtt-chilinh",
@@ -223,20 +875,6 @@
 ]</t>
   </si>
   <si>
-    <t>{
-  "status_code": 200,
-  "size()": 1,
-  "[0].uid": "NOT_NULL",
-  "[0].has_book_caddie": true
-}</t>
-  </si>
-  <si>
-    <t>BB_VST_004</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor with package + add caddie</t>
-  </si>
-  <si>
     <t>[
   {
       "cms_user": "phuongtt-chilinh",
@@ -281,12 +919,6 @@
       "member_card_uid": ""
   }
 ]</t>
-  </si>
-  <si>
-    <t>BB_VST_005</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply normal voucher (fixed amount, apply to all fee types)</t>
   </si>
   <si>
     <t>[
@@ -340,27 +972,6 @@
 ]</t>
   </si>
   <si>
-    <t>{
-  "status_code": 200,
-  "size()": 1,
-  "[0].uid": "NOT_NULL",
-  "[0].customer_booking_name": "PhuongTT",
-  "[0].guest_style": "4D",
-  "[0].IsCheckedIn": false,
-  "[0].bag_status": "BOOKING",
-  "[0].bill_code": "NOT_NULL",
-  "[0].booking_code": "NOT_NULL",
-  "[0].customer_type": "VISITOR",
-  "[0].has_book_caddie": false
-}</t>
-  </si>
-  <si>
-    <t>BB_VST_006</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply normal voucher (fixed amount, apply to green fee only)</t>
-  </si>
-  <si>
     <t>[
     {
         "cms_user": "phuongtt-chilinh",
@@ -412,12 +1023,6 @@
 ]</t>
   </si>
   <si>
-    <t>BB_VST_007</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply normal voucher (fixed amount, apply to caddie fee only)</t>
-  </si>
-  <si>
     <t>[
     {
         "cms_user": "phuongtt-chilinh",
@@ -469,12 +1074,6 @@
 ]</t>
   </si>
   <si>
-    <t>BB_VST_008</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply normal voucher (percent, apply to all fee types)</t>
-  </si>
-  <si>
     <t>[
     {
         "cms_user": "phuongtt-chilinh",
@@ -526,12 +1125,6 @@
 ]</t>
   </si>
   <si>
-    <t>BB_VST_009</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply normal voucher (percent, apply to green fee only)</t>
-  </si>
-  <si>
     <t>[
     {
         "cms_user": "phuongtt-chilinh",
@@ -583,12 +1176,6 @@
 ]</t>
   </si>
   <si>
-    <t>BB_VST_010</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply normal voucher (percent, apply to caddie fee only)</t>
-  </si>
-  <si>
     <t>[
     {
         "cms_user": "phuongtt-chilinh",
@@ -640,12 +1227,6 @@
 ]</t>
   </si>
   <si>
-    <t>BB_VST_011</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for 4 fee types: golf/caddie/buggy/add-on package)</t>
-  </si>
-  <si>
     <t>[
     {
         "cms_user": "phuongtt-chilinh",
@@ -697,12 +1278,6 @@
 ]</t>
   </si>
   <si>
-    <t>BB_VST_012</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for green fee)</t>
-  </si>
-  <si>
     <t>[
     {
         "cms_user": "phuongtt-chilinh",
@@ -754,12 +1329,6 @@
 ]</t>
   </si>
   <si>
-    <t>BB_VST_013</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for caddie fee)</t>
-  </si>
-  <si>
     <t>[
     {
         "cms_user": "phuongtt-chilinh",
@@ -811,12 +1380,6 @@
 ]</t>
   </si>
   <si>
-    <t>BB_VST_014</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for half buggy)</t>
-  </si>
-  <si>
     <t>[
     {
         "cms_user": "phuongtt-chilinh",
@@ -868,12 +1431,6 @@
 ]</t>
   </si>
   <si>
-    <t>BB_VST_015</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for add-on package)</t>
-  </si>
-  <si>
     <t>[
     {
         "cms_user": "phuongtt-chilinh",
@@ -925,12 +1482,6 @@
 ]</t>
   </si>
   <si>
-    <t>BB_VST_016</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (all 4 fee types: golf/caddie/buggy/add-on)</t>
-  </si>
-  <si>
     <t>[
     {
         "cms_user": "phuongtt-chilinh",
@@ -982,12 +1533,6 @@
 ]</t>
   </si>
   <si>
-    <t>BB_VST_017</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (green fee only)</t>
-  </si>
-  <si>
     <t>[
     {
         "cms_user": "phuongtt-chilinh",
@@ -1039,12 +1584,6 @@
 ]</t>
   </si>
   <si>
-    <t>BB_VST_018</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (caddie fee only)</t>
-  </si>
-  <si>
     <t>[
         {
             "cms_user": "phuongtt-chilinh",
@@ -1096,12 +1635,6 @@
     ]</t>
   </si>
   <si>
-    <t>BB_VST_019</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (half buggy)</t>
-  </si>
-  <si>
     <t>[
     {
         "cms_user": "phuongtt-chilinh",
@@ -1153,12 +1686,6 @@
 ]</t>
   </si>
   <si>
-    <t>BB_VST_020</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (add-on package)</t>
-  </si>
-  <si>
     <t>[
     {
         "cms_user": "phuongtt-chilinh",
@@ -1208,12 +1735,6 @@
         "member_card_uid": ""
     }
 ]</t>
-  </si>
-  <si>
-    <t>BB_VST_021</t>
-  </si>
-  <si>
-    <t>Verify create batch booking for 2 players successfully</t>
   </si>
   <si>
     <t>[
@@ -1304,23 +1825,6 @@
     ]</t>
   </si>
   <si>
-    <t>{
-  "status_code": 200,
-  "size()": 2,
-  "[0].uid": "NOT_NULL",
-  "[1].uid": "NOT_NULL"
-}</t>
-  </si>
-  <si>
-    <t>BB_VST_022</t>
-  </si>
-  <si>
-    <t>Verify error when booking_date is missing in player object</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
     <t>[
     {
       "cms_user": "phuongtt-chilinh",
@@ -1364,15 +1868,6 @@
       "member_card_uid": ""
     }
   ]</t>
-  </si>
-  <si>
-    <t>{"status_code": 500}</t>
-  </si>
-  <si>
-    <t>BB_VST_023</t>
-  </si>
-  <si>
-    <t>Verify error when booking date is in the past</t>
   </si>
   <si>
     <t>[
@@ -1421,12 +1916,6 @@
   ]</t>
   </si>
   <si>
-    <t>BB_VST_024</t>
-  </si>
-  <si>
-    <t>Verify error when guest_style is invalid</t>
-  </si>
-  <si>
     <t>[
     {
       "cms_user": "phuongtt-chilinh",
@@ -1473,184 +1962,154 @@
   ]</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>value_case1</t>
-  </si>
-  <si>
-    <t>value_case2</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "booking_list": [</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "cms_user": ,</t>
-  </si>
-  <si>
-    <t>"phuongtt-chilinh01"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "partner_uid": ,</t>
-  </si>
-  <si>
-    <t>"CHI-LINH"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "course_uid": ,</t>
-  </si>
-  <si>
-    <t>"CHI-LINH-01"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "hole_booking": ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "customer_booking_name": ,</t>
-  </si>
-  <si>
-    <t>"PhuongTT"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "customer_booking_phone": ,</t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "customer_booking_email": "phuongtt@caro.vn",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "agency_id": 0,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "booking_restaurant": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "enable": false,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "number_people": 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            },</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "booking_retal": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "golf_set_number": 0,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "buggy_number": 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "note_of_booking": "",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "agency_player_pay": false,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "sale_name": "Trần Phương 01",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "sale_account": "phuongtt-chilinh01",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "customer_name": "",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "caddie_code": "",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "caddie_booking": "",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "tee_type": "1",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "course_type": "A",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "tee_path": "NOON",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "turn_time": "17:56",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "tee_time": "15:32",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "row_index": 0,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "tee_time_after": "",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "customer_nationality_id": 3728,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "gender": "MALE",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "guest_style": "4D",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "hole": 18,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "booking_date": "08/09/2025",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "add_ons": [],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "voucher_apply": [],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "member_uid_of_guest": "",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "member_card_uid": ""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        },</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "cms_user": "phuongtt-chilinh01",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "partner_uid": "CHI-LINH",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "course_uid": "CHI-LINH-01",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "hole_booking": 18,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "customer_booking_name": "PhuongTT",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "customer_booking_phone": "",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "row_index": 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ]</t>
-  </si>
-  <si>
-    <t>}</t>
+    <t>cms_user</t>
+  </si>
+  <si>
+    <t>phuongtt-chilinh</t>
+  </si>
+  <si>
+    <t>partner_uid</t>
+  </si>
+  <si>
+    <t>CHI-LINH</t>
+  </si>
+  <si>
+    <t>course_uid</t>
+  </si>
+  <si>
+    <t>CHI-LINH-01</t>
+  </si>
+  <si>
+    <t>hole_booking</t>
+  </si>
+  <si>
+    <t>customer_booking_name</t>
+  </si>
+  <si>
+    <t>PhuongTT</t>
+  </si>
+  <si>
+    <t>customer_booking_phone</t>
+  </si>
+  <si>
+    <t>customer_booking_email</t>
+  </si>
+  <si>
+    <t>phuongtt@caro.vn</t>
+  </si>
+  <si>
+    <t>agency_id</t>
+  </si>
+  <si>
+    <t>booking_restaurant.enable</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>booking_restaurant.number_people</t>
+  </si>
+  <si>
+    <t>booking_retal.enable</t>
+  </si>
+  <si>
+    <t>booking_retal.golf_set_number</t>
+  </si>
+  <si>
+    <t>booking_retal.buggy_number</t>
+  </si>
+  <si>
+    <t>note_of_booking</t>
+  </si>
+  <si>
+    <t>agency_player_pay</t>
+  </si>
+  <si>
+    <t>sale_name</t>
+  </si>
+  <si>
+    <t>Trần Phương</t>
+  </si>
+  <si>
+    <t>sale_account</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>Khách lẻ</t>
+  </si>
+  <si>
+    <t>caddie_code</t>
+  </si>
+  <si>
+    <t>caddie_booking</t>
+  </si>
+  <si>
+    <t>tee_type</t>
+  </si>
+  <si>
+    <t>course_type</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>tee_path</t>
+  </si>
+  <si>
+    <t>NIGHT</t>
+  </si>
+  <si>
+    <t>turn_time</t>
+  </si>
+  <si>
+    <t>tee_time</t>
+  </si>
+  <si>
+    <t>row_index</t>
+  </si>
+  <si>
+    <t>tee_time_after</t>
+  </si>
+  <si>
+    <t>customer_nationality_id</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>guest_style</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>booking_date</t>
+  </si>
+  <si>
+    <t>{{TODAY}}</t>
+  </si>
+  <si>
+    <t>add_ons</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>voucher_apply</t>
+  </si>
+  <si>
+    <t>member_uid_of_guest</t>
+  </si>
+  <si>
+    <t>member_card_uid</t>
   </si>
 </sst>
 </file>
@@ -1658,13 +2117,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1683,6 +2150,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1838,13 +2320,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9FC5E8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FF9FC5E8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2164,28 +2646,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2194,136 +2664,177 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2331,23 +2842,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2357,7 +2862,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -2882,445 +3387,449 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="115.2890625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.859375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="59.859375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.9765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.3203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.1428571428571" style="6" customWidth="1"/>
+    <col min="2" max="2" width="49.4285714285714" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.8571428571429" style="6" customWidth="1"/>
+    <col min="4" max="4" width="35.4285714285714" style="6" customWidth="1"/>
+    <col min="5" max="5" width="50.9809523809524" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.3238095238095" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63" customHeight="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="163" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="63" customHeight="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="139" customHeight="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="63" customHeight="1" spans="1:5">
-      <c r="A5" s="6" t="s">
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="63" customHeight="1" spans="1:5">
-      <c r="A6" s="6" t="s">
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="63" customHeight="1" spans="1:5">
-      <c r="A7" s="6" t="s">
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="63" customHeight="1" spans="1:5">
-      <c r="A8" s="6" t="s">
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="63" customHeight="1" spans="1:5">
-      <c r="A9" s="6" t="s">
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="63" customHeight="1" spans="1:5">
-      <c r="A10" s="6" t="s">
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" ht="63" customHeight="1" spans="1:5">
-      <c r="A11" s="6" t="s">
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="63" customHeight="1" spans="1:5">
-      <c r="A12" s="6" t="s">
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="63" customHeight="1" spans="1:5">
-      <c r="A13" s="6" t="s">
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="63" customHeight="1" spans="1:5">
-      <c r="A14" s="6" t="s">
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="6" t="s">
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="63" customHeight="1" spans="1:5">
-      <c r="A16" s="6" t="s">
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" ht="63" customHeight="1" spans="1:5">
-      <c r="A17" s="6" t="s">
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" ht="63" customHeight="1" spans="1:5">
-      <c r="A18" s="6" t="s">
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" ht="63" customHeight="1" spans="1:5">
-      <c r="A19" s="6" t="s">
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" ht="63" customHeight="1" spans="1:5">
-      <c r="A20" s="6" t="s">
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" ht="63" customHeight="1" spans="1:5">
-      <c r="A21" s="6" t="s">
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" ht="63" customHeight="1" spans="1:5">
-      <c r="A22" s="6" t="s">
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" ht="63" customHeight="1" spans="1:5">
-      <c r="A23" s="6" t="s">
+    <row r="23" customHeight="1" spans="1:6">
+      <c r="A23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" ht="63" customHeight="1" spans="1:5">
-      <c r="A24" s="6" t="s">
+      <c r="F23" s="6" cm="1">
+        <f ca="1" t="array" ref="F23">1:1048576</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
+      <c r="A24" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" ht="63" customHeight="1" spans="1:5">
-      <c r="A25" s="6" t="s">
+    <row r="25" customHeight="1" spans="1:5">
+      <c r="A25" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="17" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3333,486 +3842,3894 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="31.8571428571429" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.0859375" customWidth="1"/>
-    <col min="2" max="2" width="18.4765625" customWidth="1"/>
-    <col min="3" max="3" width="13.8046875" customWidth="1"/>
+    <col min="1" max="16384" width="31.8571428571429" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:25">
+      <c r="A1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:1">
+      <c r="A2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" s="11" customFormat="1" spans="1:1">
+      <c r="A3" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="4" s="11" customFormat="1" spans="1:1">
+      <c r="A4" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="5" s="11" customFormat="1" spans="1:25">
+      <c r="A5" s="11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B5" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" s="11" customFormat="1" spans="1:25">
+      <c r="A6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="C6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" s="11" customFormat="1" spans="1:25">
+      <c r="A7" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="C7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" s="11" customFormat="1" spans="1:25">
+      <c r="A8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" s="11" customFormat="1" spans="1:25">
+      <c r="A9" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B9" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" s="11" customFormat="1" spans="1:25">
+      <c r="A10" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="V10" s="11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="W10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" s="11" customFormat="1" spans="1:25">
+      <c r="A11" s="11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B11" s="11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="C11" s="11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="D11" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="E11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" s="11" customFormat="1" spans="1:25">
+      <c r="A12" s="11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B12" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="C12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" s="11" customFormat="1" spans="1:1">
+      <c r="A13" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="14" s="11" customFormat="1" spans="1:25">
+      <c r="A14" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="1" spans="1:25">
+      <c r="A15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" s="11" customFormat="1" spans="1:1">
+      <c r="A16" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" s="11" customFormat="1" spans="1:1">
+      <c r="A17" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" s="11" customFormat="1" spans="1:25">
+      <c r="A18" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="W18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" s="11" customFormat="1" spans="1:25">
+      <c r="A19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="C19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="V19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="X19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" s="11" customFormat="1" spans="1:25">
+      <c r="A20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y20" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" s="11" customFormat="1" spans="1:1">
+      <c r="A21" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" s="11" customFormat="1" spans="1:25">
+      <c r="A22" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" s="11" customFormat="1" spans="1:25">
+      <c r="A23" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" s="11" customFormat="1" spans="1:25">
+      <c r="A24" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="W24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y24" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" s="11" customFormat="1" spans="1:25">
+      <c r="A25" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" s="11" customFormat="1" spans="1:25">
+      <c r="A26" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="T26" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="V26" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="W26" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" s="11" customFormat="1" spans="1:25">
+      <c r="A27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="V27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" s="11" customFormat="1" spans="1:25">
+      <c r="A28" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="W28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="X28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y28" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" s="11" customFormat="1" spans="1:25">
+      <c r="A29" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="U29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="W29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="X29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" s="11" customFormat="1" spans="1:25">
+      <c r="A30" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="X30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y30" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" s="11" customFormat="1" spans="1:25">
+      <c r="A31" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="W31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="X31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y31" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" s="11" customFormat="1" spans="1:25">
+      <c r="A32" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="W32" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="X32" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y32" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" s="11" customFormat="1" spans="1:25">
+      <c r="A33" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="W33" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="X33" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y33" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" s="11" customFormat="1" spans="1:25">
+      <c r="A34" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="R34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S34" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="U34" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="W34" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="X34" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y34" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" s="11" customFormat="1" spans="1:25">
+      <c r="A35" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="V35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="W35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="X35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" s="11" customFormat="1" spans="1:25">
+      <c r="A36" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="S36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="V36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="W36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="X36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y36" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" s="11" customFormat="1" spans="1:25">
+      <c r="A37" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="R37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="S37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="T37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="U37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="V37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="W37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="X37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y37" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" s="11" customFormat="1" spans="1:25">
+      <c r="A38" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="R38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="S38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="T38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="U38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="V38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="W38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="X38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y38" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" s="11" customFormat="1" spans="1:25">
+      <c r="A39" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="T39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="V39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="W39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="X39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y39" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" s="11" customFormat="1" spans="1:25">
+      <c r="A40" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="R40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="S40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="T40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="U40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="V40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="W40" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="X40" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y40" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" s="11" customFormat="1" spans="1:25">
+      <c r="A41" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="S41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="T41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="U41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="V41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="W41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="X41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" s="11" customFormat="1" spans="1:25">
+      <c r="A42" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="S42" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="U42" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="V42" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="W42" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="X42" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y42" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" s="11" customFormat="1" spans="1:25">
+      <c r="A43" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="U43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="V43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="W43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="X43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" s="11" customFormat="1" spans="1:25">
+      <c r="A44" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="S44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="U44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="V44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="W44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="X44" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y44" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" s="11" customFormat="1" spans="1:1">
+      <c r="A45" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" s="11" customFormat="1" spans="1:1">
+      <c r="A46" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" s="11" customFormat="1" spans="1:22">
+      <c r="A47" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" s="11" customFormat="1" spans="1:22">
+      <c r="A48" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" s="11" customFormat="1" spans="1:22">
+      <c r="A49" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" s="11" customFormat="1" spans="1:22">
+      <c r="A50" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" s="11" customFormat="1" spans="1:22">
+      <c r="A51" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" s="11" customFormat="1" spans="1:22">
+      <c r="A52" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" s="11" customFormat="1" spans="1:22">
+      <c r="A53" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" s="11" customFormat="1" spans="1:22">
+      <c r="A54" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" s="11" customFormat="1" spans="1:1">
+      <c r="A55" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" s="11" customFormat="1" spans="1:22">
+      <c r="A56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" s="11" customFormat="1" spans="1:22">
+      <c r="A57" s="11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="V57" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="58" s="11" customFormat="1" spans="1:1">
+      <c r="A58" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="59" s="11" customFormat="1" spans="1:1">
+      <c r="A59" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="60" s="11" customFormat="1" spans="1:22">
+      <c r="A60" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" s="11" customFormat="1" spans="1:22">
+      <c r="A61" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" s="11" customFormat="1" spans="1:22">
+      <c r="A62" s="11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="V62" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" s="11" customFormat="1" spans="1:1">
+      <c r="A63" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" s="11" customFormat="1" spans="1:22">
+      <c r="A64" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" s="11" customFormat="1" spans="1:22">
+      <c r="A65" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" s="11" customFormat="1" spans="1:22">
+      <c r="A66" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="67" s="11" customFormat="1" spans="1:22">
+      <c r="A67" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" s="11" customFormat="1" spans="1:22">
+      <c r="A68" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" s="11" customFormat="1" spans="1:22">
+      <c r="A69" s="11" t="s">
         <v>144</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" s="11" customFormat="1" spans="1:22">
+      <c r="A70" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" s="11" customFormat="1" spans="1:22">
+      <c r="A71" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" s="11" customFormat="1" spans="1:22">
+      <c r="A72" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" s="11" customFormat="1" spans="1:22">
+      <c r="A73" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" s="11" customFormat="1" spans="1:22">
+      <c r="A74" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" s="11" customFormat="1" spans="1:22">
+      <c r="A75" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" s="11" customFormat="1" spans="1:22">
+      <c r="A76" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" s="11" customFormat="1" spans="1:22">
+      <c r="A77" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" s="11" customFormat="1" spans="1:22">
+      <c r="A78" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" s="11" customFormat="1" spans="1:22">
+      <c r="A79" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" s="11" customFormat="1" spans="1:22">
+      <c r="A80" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" s="11" customFormat="1" spans="1:22">
+      <c r="A81" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" s="11" customFormat="1" spans="1:22">
+      <c r="A82" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" s="11" customFormat="1" spans="1:22">
+      <c r="A83" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" s="11" customFormat="1" spans="1:22">
+      <c r="A84" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" s="11" customFormat="1" spans="1:22">
+      <c r="A85" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" s="11" customFormat="1" spans="1:22">
+      <c r="A86" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="V86" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" s="11" customFormat="1" spans="1:1">
+      <c r="A87" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" s="11" customFormat="1" spans="1:1">
+      <c r="A88" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" s="11" customFormat="1" spans="1:1">
+      <c r="A89" s="11" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3830,9 +7747,3011 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="60" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="59.8571428571429" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:1">
+      <c r="A1" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:1">
+      <c r="A3" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:1">
+      <c r="A5" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:1">
+      <c r="A10" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:1">
+      <c r="A12" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:1">
+      <c r="A14" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:1">
+      <c r="A16" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:1">
+      <c r="A19" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:1">
+      <c r="A20" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:1">
+      <c r="A21" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:1">
+      <c r="A22" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:1">
+      <c r="A23" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:1">
+      <c r="A24" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:1">
+      <c r="A25" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Y37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="31.8857142857143" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.8857142857143" style="2"/>
+    <col min="3" max="16384" width="31.8857142857143" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:25">
+      <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:25">
+      <c r="A2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:25">
+      <c r="A3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:25">
+      <c r="A4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:25">
+      <c r="A5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="2">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:25">
+      <c r="A6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:25">
+      <c r="A7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:25">
+      <c r="A8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:25">
+      <c r="A9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:25">
+      <c r="A10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:25">
+      <c r="A11" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:25">
+      <c r="A12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:25">
+      <c r="A13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:25">
+      <c r="A14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:25">
+      <c r="A15" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:25">
+      <c r="A16" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:25">
+      <c r="A17" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:25">
+      <c r="A18" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:25">
+      <c r="A19" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:25">
+      <c r="A20" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:25">
+      <c r="A21" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:25">
+      <c r="A22" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:25">
+      <c r="A23" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:25">
+      <c r="A24" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:25">
+      <c r="A25" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.0236111111111111</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:25">
+      <c r="A26" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.923611111111111</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:25">
+      <c r="A27" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:25">
+      <c r="A28" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:25">
+      <c r="A29" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3728</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:25">
+      <c r="A30" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:25">
+      <c r="A31" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:25">
+      <c r="A32" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" s="2">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:25">
+      <c r="A33" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:25">
+      <c r="A34" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:25">
+      <c r="A35" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:25">
+      <c r="A36" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:25">
+      <c r="A37" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13100"/>
+    <workbookView windowWidth="30240" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="440">
   <si>
     <t>tc_id</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>expected_validation_data</t>
+  </si>
+  <si>
+    <t>expected_validation_db</t>
+  </si>
+  <si>
+    <t>exp_status</t>
+  </si>
+  <si>
+    <t>exp_bag_status</t>
+  </si>
+  <si>
+    <t>exp_last_booking_status</t>
   </si>
   <si>
     <t>BB_VST_001</t>
@@ -231,30 +243,13 @@
 }</t>
   </si>
   <si>
-    <t>{
-  "assert": {
-    "$.uid": "$created_uid",
-    "$.status": "ENABLE",
-    "$.bag_status": "BOOKING",
-    "$.last_booking_status": "BOOKING",
-    "$.partner_uid": "${partner_uid}",
-    "$.course_uid":  "${course_uid}",
-    "$.booking_date": "${booking_date}",
-    "$.row_index": ${row_index},
-    "$.tee_time": "${tee_time}",
-    "$.tee_path": "${tee_path}",
-    "$.tee_type": "${tee_type}",
-    "$.hole_booking": ${hole_booking},
-    "$.guest_style": "${guest_style}",
-    "$.customer_booking_name": "${customer_booking_name}",
-    "$.customer_booking_email": "${customer_booking_email}",
-    "$.booking_restaurant.enable": ${booking_restaurant.enable},
-    "$.booking_restaurant.number_people": ${booking_restaurant.number_people},
-    "$.booking_retal.enable": ${booking_retal.enable},
-    "$.booking_retal.buggy_number": ${booking_retal.buggy_number},
-    "$.booking_retal.golf_set_number": ${booking_retal.golf_set_number}
-  }
-}</t>
+    <t>bookings.json</t>
+  </si>
+  <si>
+    <t>ENABLE</t>
+  </si>
+  <si>
+    <t>BOOKING</t>
   </si>
   <si>
     <t>BB_VST_002</t>
@@ -587,6 +582,78 @@
   </si>
   <si>
     <t>INVALID_STYLE</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "assert": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.uid": "$created_uid",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.status": "ENABLE",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.bag_status": "BOOKING",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.last_booking_status": "BOOKING",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.partner_uid": "${partner_uid}",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.course_uid":  "${course_uid}",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.booking_date": "${booking_date}",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.row_index": ${row_index},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.tee_time": "${tee_time}",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.tee_path": "${tee_path}",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.tee_type": "${tee_type}",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.hole_booking": ${hole_booking},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.guest_style": "${guest_style}",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.customer_booking_name": "${customer_booking_name}",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.customer_booking_email": "${customer_booking_email}",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.booking_restaurant.enable": ${booking_restaurant.enable},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.booking_restaurant.number_people": ${booking_restaurant.number_people},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.booking_retal.enable": ${booking_retal.enable},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.booking_retal.buggy_number": ${booking_retal.buggy_number},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "$.booking_retal.golf_set_number": ${booking_retal.golf_set_number}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
   <si>
     <t>booking_list</t>
@@ -2135,9 +2202,6 @@
     <t>""</t>
   </si>
   <si>
-    <t>{</t>
-  </si>
-  <si>
     <t xml:space="preserve">    "added_round": 0,</t>
   </si>
   <si>
@@ -2469,9 +2533,6 @@
   </si>
   <si>
     <t xml:space="preserve">    "updated_at": 1757555939</t>
-  </si>
-  <si>
-    <t>}</t>
   </si>
 </sst>
 </file>
@@ -3180,7 +3241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3246,6 +3307,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -3784,12 +3848,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AR24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="AE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AR6" sqref="AR6"/>
+      <selection pane="bottomLeft" activeCell="AU8" sqref="AU8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
@@ -3800,10 +3864,11 @@
     <col min="4" max="39" width="17.8359375" style="11" customWidth="1"/>
     <col min="40" max="40" width="31.4296875" style="11" customWidth="1"/>
     <col min="41" max="41" width="32.2890625" style="11" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="11"/>
+    <col min="42" max="44" width="21.9921875" style="11" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="46" customHeight="1" spans="1:41">
+    <row r="1" ht="46" customHeight="1" spans="1:44">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3925,2523 +3990,2742 @@
         <v>39</v>
       </c>
       <c r="AO1" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" ht="147" customHeight="1" spans="1:41">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:44">
       <c r="A2" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="16"/>
       <c r="R2" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
       <c r="X2" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z2" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AB2" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AC2" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AD2" s="16"/>
       <c r="AE2" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF2" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG2" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH2" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI2" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ2" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK2" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AL2" s="16"/>
       <c r="AM2" s="16"/>
       <c r="AN2" s="21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AO2" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" ht="69" customHeight="1" spans="1:41">
+        <v>68</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" ht="69" customHeight="1" spans="1:44">
       <c r="A3" s="10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="16"/>
       <c r="R3" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
       <c r="X3" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z3" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AB3" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AD3" s="16"/>
       <c r="AE3" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF3" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG3" s="16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AH3" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI3" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ3" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK3" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AL3" s="16"/>
       <c r="AM3" s="16"/>
       <c r="AN3" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO3" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AO3" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" ht="69" customHeight="1" spans="1:41">
+      <c r="AR3" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" ht="69" customHeight="1" spans="1:44">
       <c r="A4" s="10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="16"/>
       <c r="R4" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y4" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z4" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA4" s="16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB4" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC4" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF4" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG4" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH4" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI4" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ4" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK4" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AL4" s="16"/>
       <c r="AM4" s="16"/>
       <c r="AN4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO4" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" ht="69" customHeight="1" spans="1:41">
+        <v>83</v>
+      </c>
+      <c r="AO4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR4" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" ht="69" customHeight="1" spans="1:44">
       <c r="A5" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="16"/>
       <c r="R5" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="X5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="W5" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z5" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA5" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="AB5" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC5" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD5" s="16"/>
       <c r="AE5" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF5" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AH5" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI5" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ5" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK5" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AL5" s="16"/>
       <c r="AM5" s="16"/>
       <c r="AN5" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO5" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" ht="69" customHeight="1" spans="1:41">
+        <v>83</v>
+      </c>
+      <c r="AO5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" ht="69" customHeight="1" spans="1:44">
       <c r="A6" s="10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
       <c r="X6" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z6" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA6" s="16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB6" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC6" s="16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD6" s="16"/>
       <c r="AE6" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH6" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI6" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ6" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK6" s="16" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AL6" s="16"/>
       <c r="AM6" s="16"/>
       <c r="AN6" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO6" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" ht="69" customHeight="1" spans="1:41">
+        <v>93</v>
+      </c>
+      <c r="AO6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" ht="69" customHeight="1" spans="1:44">
       <c r="A7" s="10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="16"/>
       <c r="R7" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y7" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z7" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA7" s="16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB7" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC7" s="16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AD7" s="16"/>
       <c r="AE7" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG7" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH7" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI7" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ7" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK7" s="16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AL7" s="16"/>
       <c r="AM7" s="16"/>
       <c r="AN7" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO7" s="22"/>
-    </row>
-    <row r="8" ht="69" customHeight="1" spans="1:41">
+        <v>93</v>
+      </c>
+      <c r="AO7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR7" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" ht="69" customHeight="1" spans="1:44">
       <c r="A8" s="10" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y8" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z8" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA8" s="16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AB8" s="16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AC8" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AD8" s="16"/>
       <c r="AE8" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF8" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG8" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH8" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI8" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ8" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK8" s="16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AL8" s="16"/>
       <c r="AM8" s="16"/>
       <c r="AN8" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO8" s="22"/>
-    </row>
-    <row r="9" ht="69" customHeight="1" spans="1:41">
+        <v>93</v>
+      </c>
+      <c r="AO8" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR8" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" ht="69" customHeight="1" spans="1:44">
       <c r="A9" s="10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="16"/>
       <c r="R9" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z9" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA9" s="16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AB9" s="16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AC9" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD9" s="16"/>
       <c r="AE9" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG9" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH9" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI9" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK9" s="16" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AL9" s="16"/>
       <c r="AM9" s="16"/>
       <c r="AN9" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO9" s="22"/>
-    </row>
-    <row r="10" ht="69" customHeight="1" spans="1:41">
+        <v>93</v>
+      </c>
+      <c r="AO9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" ht="69" customHeight="1" spans="1:44">
       <c r="A10" s="10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y10" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z10" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA10" s="16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AB10" s="16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AC10" s="16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="16"/>
       <c r="AE10" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF10" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG10" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH10" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI10" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ10" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK10" s="16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AL10" s="16"/>
       <c r="AM10" s="16"/>
       <c r="AN10" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO10" s="22"/>
-    </row>
-    <row r="11" ht="69" customHeight="1" spans="1:41">
+        <v>93</v>
+      </c>
+      <c r="AO10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR10" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" ht="69" customHeight="1" spans="1:44">
       <c r="A11" s="10" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="16"/>
       <c r="R11" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z11" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA11" s="16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AB11" s="16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AC11" s="16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AD11" s="16"/>
       <c r="AE11" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF11" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG11" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH11" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI11" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ11" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK11" s="16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AL11" s="16"/>
       <c r="AM11" s="16"/>
       <c r="AN11" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO11" s="22"/>
-    </row>
-    <row r="12" ht="69" customHeight="1" spans="1:41">
+        <v>93</v>
+      </c>
+      <c r="AO11" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" ht="69" customHeight="1" spans="1:44">
       <c r="A12" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="16"/>
       <c r="R12" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y12" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z12" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA12" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AB12" s="16" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AC12" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF12" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG12" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH12" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI12" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ12" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK12" s="16" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AL12" s="16"/>
       <c r="AM12" s="16"/>
       <c r="AN12" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO12" s="22"/>
-    </row>
-    <row r="13" ht="69" customHeight="1" spans="1:41">
+        <v>93</v>
+      </c>
+      <c r="AO12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR12" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" ht="69" customHeight="1" spans="1:44">
       <c r="A13" s="10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="16"/>
       <c r="R13" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S13" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y13" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z13" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA13" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AB13" s="16" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AC13" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF13" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG13" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH13" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI13" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ13" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK13" s="16" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AL13" s="16"/>
       <c r="AM13" s="16"/>
       <c r="AN13" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO13" s="22"/>
-    </row>
-    <row r="14" ht="69" customHeight="1" spans="1:41">
+        <v>93</v>
+      </c>
+      <c r="AO13" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR13" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" ht="69" customHeight="1" spans="1:44">
       <c r="A14" s="10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
       <c r="X14" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z14" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA14" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AB14" s="16" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AC14" s="16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF14" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG14" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH14" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI14" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ14" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK14" s="16" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AL14" s="16"/>
       <c r="AM14" s="16"/>
       <c r="AN14" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO14" s="22"/>
-    </row>
-    <row r="15" ht="69" customHeight="1" spans="1:41">
+        <v>93</v>
+      </c>
+      <c r="AO14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR14" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" ht="69" customHeight="1" spans="1:44">
       <c r="A15" s="10" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y15" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z15" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA15" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AB15" s="16" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AC15" s="16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AD15" s="16"/>
       <c r="AE15" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF15" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG15" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH15" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI15" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ15" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK15" s="16" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AL15" s="16"/>
       <c r="AM15" s="16"/>
       <c r="AN15" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO15" s="22"/>
-    </row>
-    <row r="16" ht="69" customHeight="1" spans="1:41">
+        <v>93</v>
+      </c>
+      <c r="AO15" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" ht="69" customHeight="1" spans="1:44">
       <c r="A16" s="10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="16"/>
       <c r="R16" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y16" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z16" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA16" s="16" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB16" s="16" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC16" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AD16" s="16"/>
       <c r="AE16" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF16" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG16" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH16" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI16" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ16" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK16" s="16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL16" s="16"/>
       <c r="AM16" s="16"/>
       <c r="AN16" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO16" s="22"/>
-    </row>
-    <row r="17" ht="69" customHeight="1" spans="1:41">
+        <v>93</v>
+      </c>
+      <c r="AO16" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR16" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" ht="69" customHeight="1" spans="1:44">
       <c r="A17" s="10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="16"/>
       <c r="R17" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z17" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA17" s="16" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB17" s="16" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC17" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD17" s="16"/>
       <c r="AE17" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF17" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG17" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH17" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI17" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ17" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK17" s="16" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AL17" s="16"/>
       <c r="AM17" s="16"/>
       <c r="AN17" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO17" s="22"/>
-    </row>
-    <row r="18" ht="69" customHeight="1" spans="1:41">
+        <v>93</v>
+      </c>
+      <c r="AO17" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR17" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" ht="69" customHeight="1" spans="1:44">
       <c r="A18" s="10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q18" s="16"/>
       <c r="R18" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T18" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y18" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z18" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA18" s="16" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB18" s="16" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC18" s="16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AD18" s="16"/>
       <c r="AE18" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF18" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG18" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH18" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI18" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ18" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK18" s="16" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AL18" s="16"/>
       <c r="AM18" s="16"/>
       <c r="AN18" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO18" s="22"/>
-    </row>
-    <row r="19" ht="69" customHeight="1" spans="1:41">
+        <v>93</v>
+      </c>
+      <c r="AO18" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR18" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" ht="69" customHeight="1" spans="1:44">
       <c r="A19" s="10" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="16"/>
       <c r="R19" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
       <c r="X19" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y19" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z19" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA19" s="16" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB19" s="16" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC19" s="16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AD19" s="16"/>
       <c r="AE19" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF19" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG19" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH19" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI19" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ19" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK19" s="16" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AL19" s="16"/>
       <c r="AM19" s="16"/>
       <c r="AN19" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO19" s="22"/>
-    </row>
-    <row r="20" ht="69" customHeight="1" spans="1:41">
+        <v>93</v>
+      </c>
+      <c r="AO19" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR19" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" ht="69" customHeight="1" spans="1:44">
       <c r="A20" s="10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y20" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z20" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA20" s="16" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AB20" s="16" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AC20" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AD20" s="16"/>
       <c r="AE20" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF20" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG20" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH20" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI20" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ20" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK20" s="16" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AL20" s="16"/>
       <c r="AM20" s="16"/>
       <c r="AN20" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO20" s="22"/>
-    </row>
-    <row r="21" ht="69" customHeight="1" spans="1:41">
+        <v>93</v>
+      </c>
+      <c r="AO20" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR20" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" ht="69" customHeight="1" spans="1:44">
       <c r="A21" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S21" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U21" s="16" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
       <c r="X21" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y21" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z21" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA21" s="16" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AB21" s="16" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AC21" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD21" s="16"/>
       <c r="AE21" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF21" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG21" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH21" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI21" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ21" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK21" s="16" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AL21" s="16"/>
       <c r="AM21" s="16"/>
       <c r="AN21" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO21" s="22"/>
+        <v>93</v>
+      </c>
+      <c r="AO21" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR21" s="11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" ht="69" customHeight="1" spans="1:41">
       <c r="A22" s="10" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="16"/>
       <c r="R22" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
       <c r="X22" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y22" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z22" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA22" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AB22" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AC22" s="16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AD22" s="16"/>
       <c r="AE22" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF22" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG22" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH22" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI22" s="16"/>
       <c r="AJ22" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK22" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AL22" s="16"/>
       <c r="AM22" s="16"/>
       <c r="AN22" s="21" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AO22" s="21"/>
     </row>
     <row r="23" ht="69" customHeight="1" spans="1:41">
       <c r="A23" s="10" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z23" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AD23" s="16"/>
       <c r="AE23" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF23" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH23" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI23" s="16" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AJ23" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK23" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AL23" s="16"/>
       <c r="AM23" s="16"/>
       <c r="AN23" s="21" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AO23" s="21"/>
     </row>
     <row r="24" ht="69" customHeight="1" spans="1:41">
       <c r="A24" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>158</v>
-      </c>
       <c r="D24" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="16"/>
       <c r="R24" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AD24" s="16"/>
       <c r="AE24" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF24" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AH24" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AI24" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ24" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK24" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AL24" s="16"/>
       <c r="AM24" s="16"/>
       <c r="AN24" s="21" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AO24" s="21"/>
     </row>
@@ -6454,14 +6738,135 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="A1" sqref="A1:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6473,7 +6878,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1"/>
@@ -6483,127 +6888,127 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="8" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="9" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="9" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="9" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" s="9" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
       <c r="A10" s="9" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:1">
       <c r="A11" s="9" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:1">
       <c r="A12" s="9" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:1">
       <c r="A13" s="9" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:1">
       <c r="A14" s="9" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:1">
       <c r="A15" s="9" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="9" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="9" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:1">
       <c r="A18" s="9" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
       <c r="A22" s="10" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:1">
       <c r="A23" s="10" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:1">
       <c r="A24" s="10" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:1">
       <c r="A25" s="10" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6630,79 +7035,79 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:25">
       <c r="A1" s="3" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:25">
@@ -6710,76 +7115,76 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:25">
@@ -6787,76 +7192,76 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:25">
@@ -6864,76 +7269,76 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:25">
@@ -6944,73 +7349,73 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:25">
@@ -7018,76 +7423,76 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:25">
@@ -7096,73 +7501,73 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:25">
@@ -7170,76 +7575,76 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:25">
@@ -7250,150 +7655,150 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>50</v>
+      <c r="B10" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:25">
@@ -7401,153 +7806,153 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>50</v>
+      <c r="B12" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:25">
@@ -7558,73 +7963,73 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:25">
@@ -7632,76 +8037,76 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:25">
@@ -7710,150 +8115,150 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>50</v>
+      <c r="B16" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:25">
@@ -7861,76 +8266,76 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:25">
@@ -7938,76 +8343,76 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:25">
@@ -8015,76 +8420,76 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:25">
@@ -8093,73 +8498,73 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:25">
@@ -8168,73 +8573,73 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:25">
@@ -8245,73 +8650,73 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:25">
@@ -8319,76 +8724,76 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:25">
@@ -8396,76 +8801,76 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:25">
@@ -8476,73 +8881,73 @@
         <v>0.0236111111111111</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:25">
@@ -8553,73 +8958,73 @@
         <v>0.923611111111111</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:25">
@@ -8630,73 +9035,73 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:25">
@@ -8705,73 +9110,73 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:25">
@@ -8782,73 +9187,73 @@
         <v>3728</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:25">
@@ -8856,76 +9261,76 @@
         <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:25">
@@ -8933,76 +9338,76 @@
         <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:25">
@@ -9013,73 +9418,73 @@
         <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:25">
@@ -9087,76 +9492,76 @@
         <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:25">
@@ -9164,76 +9569,76 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:25">
@@ -9241,76 +9646,76 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:25">
@@ -9319,73 +9724,73 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:25">
@@ -9394,73 +9799,73 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -9482,567 +9887,567 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>411</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13100"/>
+    <workbookView windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="191">
   <si>
     <t>tc_id</t>
   </si>
@@ -303,9 +303,6 @@
     <t>22:18</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>BB_VST_004</t>
   </si>
   <si>
@@ -544,6 +541,9 @@
   </si>
   <si>
     <t>failed</t>
+  </si>
+  <si>
+    <t>create_booking_batch_error_expect.json</t>
   </si>
   <si>
     <t>BB_VST_022</t>
@@ -637,10 +637,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1196,16 +1196,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1387,7 +1387,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1401,7 +1401,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1928,25 +1928,25 @@
   <sheetPr/>
   <dimension ref="A1:AZ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" topLeftCell="AK1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AK1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AS6" sqref="AS6"/>
+      <selection pane="bottomLeft" activeCell="AT24" sqref="AT24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" style="1" customWidth="1"/>
-    <col min="5" max="40" width="17.8359375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="31.4296875" style="1" customWidth="1"/>
-    <col min="42" max="46" width="18.9453125" style="1" customWidth="1"/>
-    <col min="47" max="47" width="18.9453125" style="16" customWidth="1"/>
-    <col min="48" max="51" width="18.9453125" style="1" customWidth="1"/>
-    <col min="52" max="52" width="18.9453125" style="16" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.42857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.552380952381" style="1" customWidth="1"/>
+    <col min="5" max="40" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="41" max="41" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="42" max="46" width="18.9428571428571" style="1" customWidth="1"/>
+    <col min="47" max="47" width="18.9428571428571" style="16" customWidth="1"/>
+    <col min="48" max="51" width="18.9428571428571" style="1" customWidth="1"/>
+    <col min="52" max="52" width="18.9428571428571" style="16" customWidth="1"/>
+    <col min="53" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="46" customHeight="1" spans="1:52">
@@ -2232,8 +2232,8 @@
       <c r="AT2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU2" s="16" t="s">
-        <v>63</v>
+      <c r="AU2" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV2" s="1" t="s">
         <v>78</v>
@@ -2247,8 +2247,8 @@
       <c r="AY2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ2" s="16" t="s">
-        <v>63</v>
+      <c r="AZ2" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:52">
@@ -2376,8 +2376,8 @@
       <c r="AT3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="16" t="s">
-        <v>63</v>
+      <c r="AU3" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV3" s="1" t="s">
         <v>78</v>
@@ -2391,8 +2391,8 @@
       <c r="AY3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ3" s="16" t="s">
-        <v>63</v>
+      <c r="AZ3" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="69" customHeight="1" spans="1:52">
@@ -2524,8 +2524,8 @@
       <c r="AT4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU4" s="16" t="s">
-        <v>63</v>
+      <c r="AU4" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV4" s="1" t="s">
         <v>78</v>
@@ -2539,16 +2539,16 @@
       <c r="AY4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ4" s="16" t="s">
-        <v>91</v>
+      <c r="AZ4" s="16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="69" customHeight="1" spans="1:52">
       <c r="A5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>54</v>
@@ -2604,13 +2604,13 @@
         <v>56</v>
       </c>
       <c r="V5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="W5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="W5" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="X5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y5" s="7" t="s">
         <v>66</v>
@@ -2672,8 +2672,8 @@
       <c r="AT5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AU5" s="16" t="s">
-        <v>63</v>
+      <c r="AU5" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV5" s="1" t="s">
         <v>78</v>
@@ -2687,16 +2687,16 @@
       <c r="AY5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ5" s="16" t="s">
-        <v>91</v>
+      <c r="AZ5" s="16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="234" customHeight="1" spans="1:52">
       <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>54</v>
@@ -2752,7 +2752,7 @@
         <v>56</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -2772,7 +2772,7 @@
         <v>90</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7" t="s">
@@ -2794,7 +2794,7 @@
         <v>75</v>
       </c>
       <c r="AL6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AM6" s="7"/>
       <c r="AN6" s="7"/>
@@ -2816,8 +2816,8 @@
       <c r="AT6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU6" s="16" t="s">
-        <v>63</v>
+      <c r="AU6" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV6" s="1" t="s">
         <v>78</v>
@@ -2831,16 +2831,16 @@
       <c r="AY6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ6" s="16" t="s">
-        <v>63</v>
+      <c r="AZ6" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="69" customHeight="1" spans="1:52">
       <c r="A7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>54</v>
@@ -2896,7 +2896,7 @@
         <v>56</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
@@ -2938,7 +2938,7 @@
         <v>75</v>
       </c>
       <c r="AL7" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
@@ -2960,8 +2960,8 @@
       <c r="AT7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU7" s="16" t="s">
-        <v>63</v>
+      <c r="AU7" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV7" s="1" t="s">
         <v>78</v>
@@ -2975,16 +2975,16 @@
       <c r="AY7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ7" s="16" t="s">
-        <v>63</v>
+      <c r="AZ7" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="69" customHeight="1" spans="1:52">
       <c r="A8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>54</v>
@@ -3040,7 +3040,7 @@
         <v>56</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
@@ -3054,10 +3054,10 @@
         <v>68</v>
       </c>
       <c r="AB8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC8" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="AC8" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="AD8" s="7" t="s">
         <v>62</v>
@@ -3082,7 +3082,7 @@
         <v>75</v>
       </c>
       <c r="AL8" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -3104,8 +3104,8 @@
       <c r="AT8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU8" s="16" t="s">
-        <v>63</v>
+      <c r="AU8" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV8" s="1" t="s">
         <v>78</v>
@@ -3119,16 +3119,16 @@
       <c r="AY8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ8" s="16" t="s">
-        <v>63</v>
+      <c r="AZ8" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="69" customHeight="1" spans="1:52">
       <c r="A9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>54</v>
@@ -3184,7 +3184,7 @@
         <v>56</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
@@ -3198,10 +3198,10 @@
         <v>68</v>
       </c>
       <c r="AB9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC9" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="AC9" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="AD9" s="7" t="s">
         <v>66</v>
@@ -3226,7 +3226,7 @@
         <v>75</v>
       </c>
       <c r="AL9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM9" s="7"/>
       <c r="AN9" s="7"/>
@@ -3248,8 +3248,8 @@
       <c r="AT9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU9" s="16" t="s">
-        <v>63</v>
+      <c r="AU9" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV9" s="1" t="s">
         <v>78</v>
@@ -3263,16 +3263,16 @@
       <c r="AY9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ9" s="16" t="s">
-        <v>63</v>
+      <c r="AZ9" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="69" customHeight="1" spans="1:52">
       <c r="A10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>54</v>
@@ -3328,7 +3328,7 @@
         <v>56</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
@@ -3342,13 +3342,13 @@
         <v>68</v>
       </c>
       <c r="AB10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC10" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="AC10" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="AD10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7" t="s">
@@ -3370,7 +3370,7 @@
         <v>75</v>
       </c>
       <c r="AL10" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
@@ -3392,8 +3392,8 @@
       <c r="AT10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU10" s="16" t="s">
-        <v>63</v>
+      <c r="AU10" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV10" s="1" t="s">
         <v>78</v>
@@ -3407,16 +3407,16 @@
       <c r="AY10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ10" s="16" t="s">
-        <v>63</v>
+      <c r="AZ10" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="69" customHeight="1" spans="1:52">
       <c r="A11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>54</v>
@@ -3472,7 +3472,7 @@
         <v>56</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
@@ -3486,10 +3486,10 @@
         <v>68</v>
       </c>
       <c r="AB11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="AC11" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="AD11" s="7" t="s">
         <v>83</v>
@@ -3514,7 +3514,7 @@
         <v>75</v>
       </c>
       <c r="AL11" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
@@ -3536,8 +3536,8 @@
       <c r="AT11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU11" s="16" t="s">
-        <v>63</v>
+      <c r="AU11" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV11" s="1" t="s">
         <v>78</v>
@@ -3551,16 +3551,16 @@
       <c r="AY11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ11" s="16" t="s">
-        <v>63</v>
+      <c r="AZ11" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" ht="69" customHeight="1" spans="1:52">
       <c r="A12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>54</v>
@@ -3616,7 +3616,7 @@
         <v>56</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
@@ -3630,10 +3630,10 @@
         <v>68</v>
       </c>
       <c r="AB12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC12" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="AD12" s="7" t="s">
         <v>62</v>
@@ -3658,7 +3658,7 @@
         <v>75</v>
       </c>
       <c r="AL12" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
@@ -3680,8 +3680,8 @@
       <c r="AT12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU12" s="16" t="s">
-        <v>63</v>
+      <c r="AU12" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV12" s="1" t="s">
         <v>78</v>
@@ -3695,16 +3695,16 @@
       <c r="AY12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ12" s="16" t="s">
-        <v>63</v>
+      <c r="AZ12" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" ht="69" customHeight="1" spans="1:52">
       <c r="A13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>54</v>
@@ -3760,7 +3760,7 @@
         <v>56</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
@@ -3774,10 +3774,10 @@
         <v>68</v>
       </c>
       <c r="AB13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC13" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="AD13" s="7" t="s">
         <v>66</v>
@@ -3802,7 +3802,7 @@
         <v>75</v>
       </c>
       <c r="AL13" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM13" s="7"/>
       <c r="AN13" s="7"/>
@@ -3824,8 +3824,8 @@
       <c r="AT13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU13" s="16" t="s">
-        <v>63</v>
+      <c r="AU13" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV13" s="1" t="s">
         <v>78</v>
@@ -3839,16 +3839,16 @@
       <c r="AY13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ13" s="16" t="s">
-        <v>63</v>
+      <c r="AZ13" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="69" customHeight="1" spans="1:52">
       <c r="A14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>54</v>
@@ -3904,7 +3904,7 @@
         <v>56</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
@@ -3918,13 +3918,13 @@
         <v>68</v>
       </c>
       <c r="AB14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AC14" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="AD14" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7" t="s">
@@ -3946,7 +3946,7 @@
         <v>75</v>
       </c>
       <c r="AL14" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
@@ -3968,8 +3968,8 @@
       <c r="AT14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU14" s="16" t="s">
-        <v>63</v>
+      <c r="AU14" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV14" s="1" t="s">
         <v>78</v>
@@ -3983,16 +3983,16 @@
       <c r="AY14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ14" s="16" t="s">
-        <v>63</v>
+      <c r="AZ14" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="69" customHeight="1" spans="1:52">
       <c r="A15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>54</v>
@@ -4048,7 +4048,7 @@
         <v>56</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
@@ -4062,10 +4062,10 @@
         <v>68</v>
       </c>
       <c r="AB15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC15" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="AC15" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="AD15" s="7" t="s">
         <v>83</v>
@@ -4090,7 +4090,7 @@
         <v>75</v>
       </c>
       <c r="AL15" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AM15" s="7"/>
       <c r="AN15" s="7"/>
@@ -4112,8 +4112,8 @@
       <c r="AT15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU15" s="16" t="s">
-        <v>63</v>
+      <c r="AU15" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV15" s="1" t="s">
         <v>78</v>
@@ -4127,16 +4127,16 @@
       <c r="AY15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ15" s="16" t="s">
-        <v>63</v>
+      <c r="AZ15" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" ht="69" customHeight="1" spans="1:52">
       <c r="A16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>54</v>
@@ -4192,7 +4192,7 @@
         <v>56</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
@@ -4206,10 +4206,10 @@
         <v>68</v>
       </c>
       <c r="AB16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC16" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="AC16" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="AD16" s="7" t="s">
         <v>62</v>
@@ -4234,7 +4234,7 @@
         <v>75</v>
       </c>
       <c r="AL16" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
@@ -4256,8 +4256,8 @@
       <c r="AT16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU16" s="16" t="s">
-        <v>63</v>
+      <c r="AU16" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV16" s="1" t="s">
         <v>78</v>
@@ -4271,16 +4271,16 @@
       <c r="AY16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ16" s="16" t="s">
-        <v>63</v>
+      <c r="AZ16" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" ht="69" customHeight="1" spans="1:52">
       <c r="A17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>54</v>
@@ -4336,7 +4336,7 @@
         <v>56</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
@@ -4350,10 +4350,10 @@
         <v>68</v>
       </c>
       <c r="AB17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC17" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="AC17" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="AD17" s="7" t="s">
         <v>66</v>
@@ -4378,7 +4378,7 @@
         <v>75</v>
       </c>
       <c r="AL17" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
@@ -4400,8 +4400,8 @@
       <c r="AT17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU17" s="16" t="s">
-        <v>63</v>
+      <c r="AU17" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV17" s="1" t="s">
         <v>78</v>
@@ -4415,16 +4415,16 @@
       <c r="AY17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ17" s="16" t="s">
-        <v>63</v>
+      <c r="AZ17" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="69" customHeight="1" spans="1:52">
       <c r="A18" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>54</v>
@@ -4480,7 +4480,7 @@
         <v>56</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
@@ -4494,13 +4494,13 @@
         <v>68</v>
       </c>
       <c r="AB18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC18" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AC18" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="AD18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7" t="s">
@@ -4522,7 +4522,7 @@
         <v>75</v>
       </c>
       <c r="AL18" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
@@ -4544,8 +4544,8 @@
       <c r="AT18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU18" s="16" t="s">
-        <v>63</v>
+      <c r="AU18" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV18" s="1" t="s">
         <v>78</v>
@@ -4559,16 +4559,16 @@
       <c r="AY18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ18" s="16" t="s">
-        <v>63</v>
+      <c r="AZ18" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" ht="69" customHeight="1" spans="1:52">
       <c r="A19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>54</v>
@@ -4624,7 +4624,7 @@
         <v>56</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
@@ -4638,10 +4638,10 @@
         <v>68</v>
       </c>
       <c r="AB19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC19" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="AC19" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="AD19" s="7" t="s">
         <v>83</v>
@@ -4666,7 +4666,7 @@
         <v>75</v>
       </c>
       <c r="AL19" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
@@ -4688,8 +4688,8 @@
       <c r="AT19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU19" s="16" t="s">
-        <v>63</v>
+      <c r="AU19" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV19" s="1" t="s">
         <v>78</v>
@@ -4703,16 +4703,16 @@
       <c r="AY19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ19" s="16" t="s">
-        <v>63</v>
+      <c r="AZ19" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20" ht="69" customHeight="1" spans="1:52">
       <c r="A20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>54</v>
@@ -4768,7 +4768,7 @@
         <v>56</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
@@ -4782,10 +4782,10 @@
         <v>68</v>
       </c>
       <c r="AB20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC20" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="AC20" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="AD20" s="7" t="s">
         <v>62</v>
@@ -4810,7 +4810,7 @@
         <v>75</v>
       </c>
       <c r="AL20" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
@@ -4832,8 +4832,8 @@
       <c r="AT20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU20" s="16" t="s">
-        <v>63</v>
+      <c r="AU20" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV20" s="1" t="s">
         <v>78</v>
@@ -4847,16 +4847,16 @@
       <c r="AY20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ20" s="16" t="s">
-        <v>63</v>
+      <c r="AZ20" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21" ht="69" customHeight="1" spans="1:52">
       <c r="A21" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>54</v>
@@ -4912,7 +4912,7 @@
         <v>56</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
@@ -4926,10 +4926,10 @@
         <v>68</v>
       </c>
       <c r="AB21" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC21" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="AC21" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="AD21" s="7" t="s">
         <v>66</v>
@@ -4954,7 +4954,7 @@
         <v>75</v>
       </c>
       <c r="AL21" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM21" s="7"/>
       <c r="AN21" s="7"/>
@@ -4976,8 +4976,8 @@
       <c r="AT21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU21" s="16" t="s">
-        <v>63</v>
+      <c r="AU21" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AV21" s="1" t="s">
         <v>78</v>
@@ -4991,19 +4991,19 @@
       <c r="AY21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ21" s="16" t="s">
-        <v>63</v>
+      <c r="AZ21" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22" ht="69" customHeight="1" spans="1:42">
       <c r="A22" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>55</v>
@@ -5099,7 +5099,7 @@
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
       <c r="AO22" s="13" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AP22" s="1">
         <v>500</v>
@@ -5113,7 +5113,7 @@
         <v>173</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>55</v>
@@ -5211,7 +5211,7 @@
       <c r="AM23" s="7"/>
       <c r="AN23" s="7"/>
       <c r="AO23" s="13" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AP23" s="1">
         <v>500</v>
@@ -5225,7 +5225,7 @@
         <v>177</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>55</v>
@@ -5323,7 +5323,7 @@
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
       <c r="AO24" s="13" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AP24" s="1">
         <v>500</v>
@@ -5344,16 +5344,16 @@
       <selection activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" customWidth="1"/>
-    <col min="4" max="39" width="17.8359375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="31.4296875" style="1" customWidth="1"/>
-    <col min="41" max="41" width="32.2890625" style="1" customWidth="1"/>
-    <col min="42" max="44" width="21.9921875" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.42857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="39" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="40" max="40" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="41" max="41" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="42" max="44" width="21.9904761904762" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:44">
@@ -5856,10 +5856,10 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>54</v>
@@ -5912,13 +5912,13 @@
         <v>56</v>
       </c>
       <c r="U5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="V5" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="W5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X5" s="7" t="s">
         <v>66</v>
@@ -5980,10 +5980,10 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>54</v>
@@ -6036,7 +6036,7 @@
         <v>56</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -6056,7 +6056,7 @@
         <v>90</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7" t="s">
@@ -6078,7 +6078,7 @@
         <v>75</v>
       </c>
       <c r="AK6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
@@ -6100,10 +6100,10 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>54</v>
@@ -6156,7 +6156,7 @@
         <v>56</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
@@ -6198,7 +6198,7 @@
         <v>75</v>
       </c>
       <c r="AK7" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
@@ -6220,10 +6220,10 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>54</v>
@@ -6276,7 +6276,7 @@
         <v>56</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -6290,10 +6290,10 @@
         <v>68</v>
       </c>
       <c r="AA8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB8" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="AC8" s="7" t="s">
         <v>62</v>
@@ -6318,7 +6318,7 @@
         <v>75</v>
       </c>
       <c r="AK8" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
@@ -6340,10 +6340,10 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>54</v>
@@ -6396,7 +6396,7 @@
         <v>56</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
@@ -6410,10 +6410,10 @@
         <v>68</v>
       </c>
       <c r="AA9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB9" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="AB9" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="AC9" s="7" t="s">
         <v>66</v>
@@ -6438,7 +6438,7 @@
         <v>75</v>
       </c>
       <c r="AK9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
@@ -6460,10 +6460,10 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>54</v>
@@ -6516,7 +6516,7 @@
         <v>56</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
@@ -6530,13 +6530,13 @@
         <v>68</v>
       </c>
       <c r="AA10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB10" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="AB10" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="AC10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7" t="s">
@@ -6558,7 +6558,7 @@
         <v>75</v>
       </c>
       <c r="AK10" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
@@ -6580,10 +6580,10 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>54</v>
@@ -6636,7 +6636,7 @@
         <v>56</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
@@ -6650,10 +6650,10 @@
         <v>68</v>
       </c>
       <c r="AA11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="AB11" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="AC11" s="7" t="s">
         <v>83</v>
@@ -6678,7 +6678,7 @@
         <v>75</v>
       </c>
       <c r="AK11" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
@@ -6700,10 +6700,10 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>54</v>
@@ -6756,7 +6756,7 @@
         <v>56</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -6770,10 +6770,10 @@
         <v>68</v>
       </c>
       <c r="AA12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB12" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>62</v>
@@ -6798,7 +6798,7 @@
         <v>75</v>
       </c>
       <c r="AK12" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
@@ -6820,10 +6820,10 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>54</v>
@@ -6876,7 +6876,7 @@
         <v>56</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
@@ -6890,10 +6890,10 @@
         <v>68</v>
       </c>
       <c r="AA13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB13" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="AC13" s="7" t="s">
         <v>66</v>
@@ -6918,7 +6918,7 @@
         <v>75</v>
       </c>
       <c r="AK13" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL13" s="7"/>
       <c r="AM13" s="7"/>
@@ -6940,10 +6940,10 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>54</v>
@@ -6996,7 +6996,7 @@
         <v>56</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
@@ -7010,13 +7010,13 @@
         <v>68</v>
       </c>
       <c r="AA14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AB14" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="AC14" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7" t="s">
@@ -7038,7 +7038,7 @@
         <v>75</v>
       </c>
       <c r="AK14" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AL14" s="7"/>
       <c r="AM14" s="7"/>
@@ -7060,10 +7060,10 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>54</v>
@@ -7116,7 +7116,7 @@
         <v>56</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
@@ -7130,10 +7130,10 @@
         <v>68</v>
       </c>
       <c r="AA15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB15" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="AB15" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="AC15" s="7" t="s">
         <v>83</v>
@@ -7158,7 +7158,7 @@
         <v>75</v>
       </c>
       <c r="AK15" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
@@ -7180,10 +7180,10 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>54</v>
@@ -7236,7 +7236,7 @@
         <v>56</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
@@ -7250,10 +7250,10 @@
         <v>68</v>
       </c>
       <c r="AA16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB16" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="AB16" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="AC16" s="7" t="s">
         <v>62</v>
@@ -7278,7 +7278,7 @@
         <v>75</v>
       </c>
       <c r="AK16" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
@@ -7300,10 +7300,10 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>54</v>
@@ -7356,7 +7356,7 @@
         <v>56</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
@@ -7370,10 +7370,10 @@
         <v>68</v>
       </c>
       <c r="AA17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB17" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="AB17" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="AC17" s="7" t="s">
         <v>66</v>
@@ -7398,7 +7398,7 @@
         <v>75</v>
       </c>
       <c r="AK17" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
@@ -7420,10 +7420,10 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A18" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>54</v>
@@ -7476,7 +7476,7 @@
         <v>56</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
@@ -7490,13 +7490,13 @@
         <v>68</v>
       </c>
       <c r="AA18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB18" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AB18" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="AC18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7" t="s">
@@ -7518,7 +7518,7 @@
         <v>75</v>
       </c>
       <c r="AK18" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
@@ -7540,10 +7540,10 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>54</v>
@@ -7596,7 +7596,7 @@
         <v>56</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
@@ -7610,10 +7610,10 @@
         <v>68</v>
       </c>
       <c r="AA19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB19" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="AB19" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="AC19" s="7" t="s">
         <v>83</v>
@@ -7638,7 +7638,7 @@
         <v>75</v>
       </c>
       <c r="AK19" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
@@ -7660,10 +7660,10 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>54</v>
@@ -7716,7 +7716,7 @@
         <v>56</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
@@ -7730,10 +7730,10 @@
         <v>68</v>
       </c>
       <c r="AA20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB20" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="AB20" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="AC20" s="7" t="s">
         <v>62</v>
@@ -7758,7 +7758,7 @@
         <v>75</v>
       </c>
       <c r="AK20" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
@@ -7780,10 +7780,10 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="69" customHeight="1" spans="1:44">
       <c r="A21" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>54</v>
@@ -7836,7 +7836,7 @@
         <v>56</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
@@ -7850,10 +7850,10 @@
         <v>68</v>
       </c>
       <c r="AA21" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB21" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="AB21" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="AC21" s="7" t="s">
         <v>66</v>
@@ -7878,7 +7878,7 @@
         <v>75</v>
       </c>
       <c r="AK21" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
@@ -7900,13 +7900,13 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="69" customHeight="1" spans="1:41">
       <c r="A22" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>56</v>
@@ -8011,7 +8011,7 @@
         <v>173</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>56</v>
@@ -8118,7 +8118,7 @@
         <v>177</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>56</v>

--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13100" activeTab="3"/>
+    <workbookView windowWidth="30240" windowHeight="13100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="230">
   <si>
     <t>tc_id</t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>AG_Kiểm tra booking 1 player có đặt caddie</t>
+  </si>
+  <si>
+    <t>NG_Kiểm tra booking none golf</t>
   </si>
   <si>
     <t>EB_VST_001</t>
@@ -8411,8 +8414,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
@@ -8940,7 +8943,9 @@
       <c r="A8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
@@ -9899,8 +9904,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
@@ -10078,10 +10083,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="50" customHeight="1" spans="1:52">
       <c r="A2" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -10136,10 +10141,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:52">
       <c r="A3" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="7"/>
@@ -10194,10 +10199,10 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:52">
       <c r="A4" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="7"/>
@@ -10252,10 +10257,10 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:52">
       <c r="A5" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="7"/>
@@ -10310,10 +10315,10 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:52">
       <c r="A6" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
@@ -10368,10 +10373,10 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="69" customHeight="1" spans="1:52">
       <c r="A7" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7"/>
@@ -10426,10 +10431,10 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="69" customHeight="1" spans="1:52">
       <c r="A8" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="7"/>
@@ -10484,10 +10489,10 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="80" customHeight="1" spans="1:52">
       <c r="A9" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="7"/>
@@ -10542,10 +10547,10 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="68" customHeight="1" spans="1:52">
       <c r="A10" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="7"/>
@@ -10600,10 +10605,10 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="86" customHeight="1" spans="1:52">
       <c r="A11" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="7"/>
@@ -10658,10 +10663,10 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="67" customHeight="1" spans="1:52">
       <c r="A12" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="7"/>
@@ -10716,10 +10721,10 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="58" customHeight="1" spans="1:52">
       <c r="A13" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="7"/>
@@ -10774,7 +10779,7 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="69" customHeight="1" spans="1:52">
       <c r="A14" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="8"/>
@@ -10830,7 +10835,7 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="69" customHeight="1" spans="1:52">
       <c r="A15" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="8"/>
@@ -10886,7 +10891,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="69" customHeight="1" spans="1:52">
       <c r="A16" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="8"/>
@@ -10942,7 +10947,7 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="69" customHeight="1" spans="1:52">
       <c r="A17" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="8"/>
@@ -10998,7 +11003,7 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="69" customHeight="1" spans="1:52">
       <c r="A18" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="8"/>
@@ -11054,7 +11059,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="69" customHeight="1" spans="1:52">
       <c r="A19" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="8"/>
@@ -11110,7 +11115,7 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="69" customHeight="1" spans="1:52">
       <c r="A20" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="8"/>
@@ -11166,7 +11171,7 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="69" customHeight="1" spans="1:52">
       <c r="A21" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="8"/>

--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460" firstSheet="4" activeTab="10"/>
+    <workbookView windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="quote_fee_1_player" sheetId="6" r:id="rId1"/>
@@ -4228,8 +4228,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -4439,11 +4439,11 @@
         <v>400000</v>
       </c>
       <c r="AH2" s="9">
-        <f>L2</f>
+        <f t="shared" ref="AH2:AH10" si="0">L2</f>
         <v>18</v>
       </c>
       <c r="AI2" s="9" t="str">
-        <f>H2</f>
+        <f t="shared" ref="AI2:AI10" si="1">H2</f>
         <v>4D</v>
       </c>
       <c r="AJ2" s="19">
@@ -4532,11 +4532,11 @@
         <v>400000</v>
       </c>
       <c r="AH3" s="58">
-        <f>L3</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AI3" s="58">
-        <f>H3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AJ3" s="74">
@@ -4625,11 +4625,11 @@
         <v>400000</v>
       </c>
       <c r="AH4" s="9">
-        <f>L4</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AI4" s="9">
-        <f>H4</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AJ4" s="19">
@@ -4717,11 +4717,11 @@
         <v>0</v>
       </c>
       <c r="AH5" s="9">
-        <f>L5</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AI5" s="9">
-        <f>H5</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AJ5" s="19">
@@ -4810,11 +4810,11 @@
         <v>400000</v>
       </c>
       <c r="AH6" s="58">
-        <f>L6</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AI6" s="58" t="str">
-        <f>H6</f>
+        <f t="shared" si="1"/>
         <v>5D</v>
       </c>
       <c r="AJ6" s="74">
@@ -4905,11 +4905,11 @@
         <v>400000</v>
       </c>
       <c r="AH7" s="9">
-        <f>L7</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AI7" s="9" t="str">
-        <f>H7</f>
+        <f t="shared" si="1"/>
         <v>4D</v>
       </c>
       <c r="AJ7" s="19">
@@ -5000,11 +5000,11 @@
         <v>400000</v>
       </c>
       <c r="AH8" s="58">
-        <f>L8</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AI8" s="58">
-        <f>H8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AJ8" s="74">
@@ -5095,11 +5095,11 @@
         <v>400000</v>
       </c>
       <c r="AH9" s="9">
-        <f>L9</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AI9" s="9">
-        <f>H9</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AJ9" s="19">
@@ -5190,11 +5190,11 @@
         <v>400000</v>
       </c>
       <c r="AH10" s="58">
-        <f>L10</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AI10" s="58" t="str">
-        <f>H10</f>
+        <f t="shared" si="1"/>
         <v>5D</v>
       </c>
       <c r="AJ10" s="74">
@@ -8654,7 +8654,7 @@
   <sheetPr/>
   <dimension ref="A1:AR24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460"/>
+    <workbookView windowWidth="28800" windowHeight="11460" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="quote_fee_1_player" sheetId="6" r:id="rId1"/>
@@ -2823,7 +2823,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2863,12 +2863,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3287,7 +3281,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3311,16 +3305,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3329,89 +3323,89 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3622,28 +3616,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4228,16 +4204,16 @@
   <sheetPr/>
   <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.7142857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.5333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6857142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.552380952381" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.2857142857143" style="1" customWidth="1"/>
     <col min="5" max="24" width="17.8380952380952" style="1" customWidth="1"/>
     <col min="25" max="25" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="26" max="30" width="18.9428571428571" style="1" customWidth="1"/>
@@ -4357,14 +4333,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="43" customHeight="1" spans="1:36">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="54" customFormat="1" ht="43" customHeight="1" spans="1:36">
+      <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="57" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -4386,7 +4362,7 @@
       <c r="J2" s="7">
         <v>1</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="69" t="s">
         <v>44</v>
       </c>
       <c r="L2" s="7">
@@ -4395,162 +4371,162 @@
       <c r="M2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="69">
         <v>100</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
       <c r="Y2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="9">
+      <c r="Z2" s="26">
         <v>200</v>
       </c>
-      <c r="AA2" s="9">
+      <c r="AA2" s="26">
         <v>1</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AB2" s="26">
         <v>2000000</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AC2" s="26">
         <v>2000000</v>
       </c>
-      <c r="AD2" s="9">
+      <c r="AD2" s="26">
         <f>AE2+AF2</f>
         <v>1600000</v>
       </c>
-      <c r="AE2" s="19">
+      <c r="AE2" s="65">
         <v>1000000</v>
       </c>
-      <c r="AF2" s="9">
+      <c r="AF2" s="26">
         <v>600000</v>
       </c>
-      <c r="AG2" s="9">
+      <c r="AG2" s="26">
         <v>400000</v>
       </c>
-      <c r="AH2" s="9">
+      <c r="AH2" s="26">
         <f t="shared" ref="AH2:AH10" si="0">L2</f>
         <v>18</v>
       </c>
-      <c r="AI2" s="9" t="str">
+      <c r="AI2" s="26" t="str">
         <f t="shared" ref="AI2:AI10" si="1">H2</f>
         <v>4D</v>
       </c>
-      <c r="AJ2" s="19">
+      <c r="AJ2" s="65">
         <v>23456</v>
       </c>
     </row>
-    <row r="3" s="66" customFormat="1" ht="43" customHeight="1" spans="1:36">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="54" customFormat="1" ht="43" customHeight="1" spans="1:36">
+      <c r="A3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7">
         <v>1</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="7">
         <v>18</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="56">
+      <c r="N3" s="7">
         <v>102</v>
       </c>
-      <c r="O3" s="56" t="s">
+      <c r="O3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56" t="s">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="58">
+      <c r="Z3" s="26">
         <v>200</v>
       </c>
-      <c r="AA3" s="58">
+      <c r="AA3" s="26">
         <v>1</v>
       </c>
-      <c r="AB3" s="58">
+      <c r="AB3" s="26">
         <v>2000000</v>
       </c>
-      <c r="AC3" s="58">
+      <c r="AC3" s="26">
         <v>2000000</v>
       </c>
-      <c r="AD3" s="58">
+      <c r="AD3" s="26">
         <f>AE3+AF3</f>
         <v>1600000</v>
       </c>
-      <c r="AE3" s="74">
+      <c r="AE3" s="65">
         <v>1000000</v>
       </c>
-      <c r="AF3" s="58">
+      <c r="AF3" s="26">
         <v>600000</v>
       </c>
-      <c r="AG3" s="58">
+      <c r="AG3" s="26">
         <v>400000</v>
       </c>
-      <c r="AH3" s="58">
+      <c r="AH3" s="26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AI3" s="58">
+      <c r="AI3" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ3" s="74">
+      <c r="AJ3" s="65">
         <v>23456</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="43" customHeight="1" spans="1:36">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="54" customFormat="1" ht="43" customHeight="1" spans="1:36">
+      <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="57" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -4568,11 +4544,11 @@
       <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="69" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="7">
@@ -4587,63 +4563,63 @@
       <c r="O4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
       <c r="Y4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="26">
         <v>200</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AA4" s="26">
         <v>1</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AB4" s="26">
         <v>2000000</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AC4" s="26">
         <v>2000000</v>
       </c>
-      <c r="AD4" s="9">
+      <c r="AD4" s="26">
         <f>AE4+AF4</f>
         <v>1600000</v>
       </c>
-      <c r="AE4" s="19">
+      <c r="AE4" s="65">
         <v>1000000</v>
       </c>
-      <c r="AF4" s="9">
+      <c r="AF4" s="26">
         <v>600000</v>
       </c>
-      <c r="AG4" s="9">
+      <c r="AG4" s="26">
         <v>400000</v>
       </c>
-      <c r="AH4" s="9">
+      <c r="AH4" s="26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AI4" s="9">
+      <c r="AI4" s="26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ4" s="19">
+      <c r="AJ4" s="65">
         <v>23456</v>
       </c>
     </row>
-    <row r="5" s="66" customFormat="1" ht="43" customHeight="1" spans="1:36">
-      <c r="A5" s="4" t="s">
+    <row r="5" s="54" customFormat="1" ht="43" customHeight="1" spans="1:36">
+      <c r="A5" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="57" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -4661,11 +4637,11 @@
       <c r="H5" s="7">
         <v>7</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="7">
         <v>1</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="69" t="s">
         <v>54</v>
       </c>
       <c r="L5" s="7">
@@ -4680,155 +4656,155 @@
       <c r="O5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
       <c r="Y5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="26">
         <v>200</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AA5" s="26">
         <v>1</v>
       </c>
-      <c r="AB5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="9">
+      <c r="AB5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AI5" s="9">
+      <c r="AI5" s="26">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AJ5" s="19">
+      <c r="AJ5" s="65">
         <v>23456710</v>
       </c>
     </row>
-    <row r="6" s="66" customFormat="1" ht="43" customHeight="1" spans="1:36">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="54" customFormat="1" ht="43" customHeight="1" spans="1:36">
+      <c r="A6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="56">
+      <c r="I6" s="26"/>
+      <c r="J6" s="7">
         <v>1</v>
       </c>
-      <c r="K6" s="72" t="s">
+      <c r="K6" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="56">
+      <c r="L6" s="7">
         <v>18</v>
       </c>
-      <c r="M6" s="56" t="s">
+      <c r="M6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="56">
+      <c r="N6" s="7">
         <v>106</v>
       </c>
-      <c r="O6" s="56" t="s">
+      <c r="O6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="56" t="s">
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z6" s="58">
+      <c r="Z6" s="26">
         <v>200</v>
       </c>
-      <c r="AA6" s="58">
+      <c r="AA6" s="26">
         <v>1</v>
       </c>
-      <c r="AB6" s="58">
+      <c r="AB6" s="26">
         <v>2000000</v>
       </c>
-      <c r="AC6" s="58">
+      <c r="AC6" s="26">
         <v>2000000</v>
       </c>
-      <c r="AD6" s="58">
+      <c r="AD6" s="26">
         <f>AE6+AF6</f>
         <v>1600000</v>
       </c>
-      <c r="AE6" s="74">
+      <c r="AE6" s="65">
         <v>1000000</v>
       </c>
-      <c r="AF6" s="58">
+      <c r="AF6" s="26">
         <v>600000</v>
       </c>
-      <c r="AG6" s="58">
+      <c r="AG6" s="26">
         <v>400000</v>
       </c>
-      <c r="AH6" s="58">
+      <c r="AH6" s="26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AI6" s="58" t="str">
+      <c r="AI6" s="26" t="str">
         <f t="shared" si="1"/>
         <v>5D</v>
       </c>
-      <c r="AJ6" s="74">
+      <c r="AJ6" s="65">
         <v>23456</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="43" customHeight="1" spans="1:36">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="54" customFormat="1" ht="43" customHeight="1" spans="1:36">
+      <c r="A7" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="57" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -4846,13 +4822,13 @@
       <c r="H7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="70" t="s">
         <v>60</v>
       </c>
       <c r="J7" s="7">
         <v>1</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="69" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="7">
@@ -4867,158 +4843,158 @@
       <c r="O7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
       <c r="Y7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="26">
         <v>200</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AA7" s="26">
         <v>1</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AB7" s="26">
         <v>2000000</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AC7" s="26">
         <v>2000000</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AD7" s="26">
         <f>AE7+AF7</f>
         <v>1600000</v>
       </c>
-      <c r="AE7" s="19">
+      <c r="AE7" s="65">
         <v>1000000</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AF7" s="26">
         <v>600000</v>
       </c>
-      <c r="AG7" s="9">
+      <c r="AG7" s="26">
         <v>400000</v>
       </c>
-      <c r="AH7" s="9">
+      <c r="AH7" s="26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AI7" s="9" t="str">
+      <c r="AI7" s="26" t="str">
         <f t="shared" si="1"/>
         <v>4D</v>
       </c>
-      <c r="AJ7" s="19">
+      <c r="AJ7" s="65">
         <v>23456</v>
       </c>
     </row>
-    <row r="8" s="66" customFormat="1" ht="43" customHeight="1" spans="1:36">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="54" customFormat="1" ht="43" customHeight="1" spans="1:36">
+      <c r="A8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="7">
         <v>1</v>
       </c>
-      <c r="K8" s="72" t="s">
+      <c r="K8" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="56">
+      <c r="L8" s="7">
         <v>18</v>
       </c>
-      <c r="M8" s="56" t="s">
+      <c r="M8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="56">
+      <c r="N8" s="7">
         <v>103</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="O8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="56" t="s">
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z8" s="58">
+      <c r="Z8" s="26">
         <v>200</v>
       </c>
-      <c r="AA8" s="58">
+      <c r="AA8" s="26">
         <v>1</v>
       </c>
-      <c r="AB8" s="58">
+      <c r="AB8" s="26">
         <v>2000000</v>
       </c>
-      <c r="AC8" s="58">
+      <c r="AC8" s="26">
         <v>2000000</v>
       </c>
-      <c r="AD8" s="58">
+      <c r="AD8" s="26">
         <f>AE8+AF8</f>
         <v>1600000</v>
       </c>
-      <c r="AE8" s="74">
+      <c r="AE8" s="65">
         <v>1000000</v>
       </c>
-      <c r="AF8" s="58">
+      <c r="AF8" s="26">
         <v>600000</v>
       </c>
-      <c r="AG8" s="58">
+      <c r="AG8" s="26">
         <v>400000</v>
       </c>
-      <c r="AH8" s="58">
+      <c r="AH8" s="26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AI8" s="58">
+      <c r="AI8" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ8" s="74">
+      <c r="AJ8" s="65">
         <v>23456</v>
       </c>
     </row>
-    <row r="9" ht="43" customHeight="1" spans="1:36">
-      <c r="A9" s="4" t="s">
+    <row r="9" s="54" customFormat="1" ht="43" customHeight="1" spans="1:36">
+      <c r="A9" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="57" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -5036,13 +5012,13 @@
       <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="69" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="7">
@@ -5057,147 +5033,147 @@
       <c r="O9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
       <c r="Y9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z9" s="26">
         <v>200</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AA9" s="26">
         <v>1</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AB9" s="26">
         <v>2000000</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AC9" s="26">
         <v>2000000</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AD9" s="26">
         <f>AE9+AF9</f>
         <v>1600000</v>
       </c>
-      <c r="AE9" s="19">
+      <c r="AE9" s="65">
         <v>1000000</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AF9" s="26">
         <v>600000</v>
       </c>
-      <c r="AG9" s="9">
+      <c r="AG9" s="26">
         <v>400000</v>
       </c>
-      <c r="AH9" s="9">
+      <c r="AH9" s="26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AI9" s="9">
+      <c r="AI9" s="26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ9" s="19">
+      <c r="AJ9" s="65">
         <v>23456</v>
       </c>
     </row>
-    <row r="10" s="66" customFormat="1" ht="43" customHeight="1" spans="1:36">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="54" customFormat="1" ht="43" customHeight="1" spans="1:36">
+      <c r="A10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="76" t="s">
+      <c r="I10" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="7">
         <v>1</v>
       </c>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="56">
+      <c r="L10" s="7">
         <v>18</v>
       </c>
-      <c r="M10" s="56" t="s">
+      <c r="M10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="56">
+      <c r="N10" s="7">
         <v>107</v>
       </c>
-      <c r="O10" s="56" t="s">
+      <c r="O10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="56" t="s">
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z10" s="58">
+      <c r="Z10" s="26">
         <v>200</v>
       </c>
-      <c r="AA10" s="58">
+      <c r="AA10" s="26">
         <v>1</v>
       </c>
-      <c r="AB10" s="58">
+      <c r="AB10" s="26">
         <v>2000000</v>
       </c>
-      <c r="AC10" s="58">
+      <c r="AC10" s="26">
         <v>2000000</v>
       </c>
-      <c r="AD10" s="58">
+      <c r="AD10" s="26">
         <f>AE10+AF10</f>
         <v>1600000</v>
       </c>
-      <c r="AE10" s="74">
+      <c r="AE10" s="65">
         <v>1000000</v>
       </c>
-      <c r="AF10" s="58">
+      <c r="AF10" s="26">
         <v>600000</v>
       </c>
-      <c r="AG10" s="58">
+      <c r="AG10" s="26">
         <v>400000</v>
       </c>
-      <c r="AH10" s="58">
+      <c r="AH10" s="26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AI10" s="58" t="str">
+      <c r="AI10" s="26" t="str">
         <f t="shared" si="1"/>
         <v>5D</v>
       </c>
-      <c r="AJ10" s="74">
+      <c r="AJ10" s="65">
         <v>23456</v>
       </c>
     </row>
@@ -11543,9 +11519,9 @@
   <dimension ref="A1:BL13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A6"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -12423,7 +12399,7 @@
       <c r="I6" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="70" t="s">
         <v>168</v>
       </c>
       <c r="K6" s="32" t="s">
@@ -12641,10 +12617,10 @@
       <c r="AE7" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="AF7" s="75" t="s">
+      <c r="AF7" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="70" t="s">
         <v>60</v>
       </c>
       <c r="AH7" s="7" t="s">
@@ -12799,10 +12775,10 @@
       <c r="AE8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AF8" s="75" t="s">
+      <c r="AF8" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="AG8" s="75" t="s">
+      <c r="AG8" s="70" t="s">
         <v>63</v>
       </c>
       <c r="AH8" s="7" t="s">
@@ -12967,10 +12943,10 @@
       <c r="AE9" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="AF9" s="75" t="s">
+      <c r="AF9" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="AG9" s="75" t="s">
+      <c r="AG9" s="70" t="s">
         <v>66</v>
       </c>
       <c r="AH9" s="7" t="s">
@@ -13093,7 +13069,7 @@
       <c r="I10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="75" t="s">
+      <c r="J10" s="70" t="s">
         <v>168</v>
       </c>
       <c r="K10" s="32" t="s">
@@ -13157,10 +13133,10 @@
       <c r="AE10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="AF10" s="75" t="s">
+      <c r="AF10" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="AG10" s="75" t="s">
+      <c r="AG10" s="70" t="s">
         <v>69</v>
       </c>
       <c r="AH10" s="7" t="s">
@@ -13275,7 +13251,7 @@
       <c r="I11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="70" t="s">
         <v>168</v>
       </c>
       <c r="K11" s="32" t="s">
@@ -13453,7 +13429,7 @@
       <c r="I12" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="70" t="s">
         <v>168</v>
       </c>
       <c r="K12" s="32" t="s">
@@ -13631,7 +13607,7 @@
       <c r="I13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J13" s="75" t="s">
+      <c r="J13" s="70" t="s">
         <v>168</v>
       </c>
       <c r="K13" s="32" t="s">
@@ -20142,7 +20118,7 @@
       <c r="I6" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="70" t="s">
         <v>168</v>
       </c>
       <c r="K6" s="32" t="s">
@@ -20273,7 +20249,7 @@
         <f t="shared" si="4"/>
         <v>VNPAY</v>
       </c>
-      <c r="BF6" s="75" t="str">
+      <c r="BF6" s="70" t="str">
         <f t="shared" si="5"/>
         <v>0355653300</v>
       </c>
@@ -20408,7 +20384,7 @@
       <c r="DA6" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="DB6" s="75" t="s">
+      <c r="DB6" s="70" t="s">
         <v>168</v>
       </c>
       <c r="DC6" s="32" t="s">
@@ -20534,7 +20510,7 @@
       <c r="EW6" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="EX6" s="75" t="s">
+      <c r="EX6" s="70" t="s">
         <v>168</v>
       </c>
       <c r="EY6" s="32" t="s">
@@ -20839,10 +20815,10 @@
       <c r="AE7" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="AF7" s="75" t="s">
+      <c r="AF7" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="70" t="s">
         <v>60</v>
       </c>
       <c r="AH7" s="7" t="s">
@@ -21404,10 +21380,10 @@
       <c r="AE8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AF8" s="75" t="s">
+      <c r="AF8" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="AG8" s="75" t="s">
+      <c r="AG8" s="70" t="s">
         <v>63</v>
       </c>
       <c r="AH8" s="7" t="s">
@@ -22009,10 +21985,10 @@
       <c r="AE9" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="AF9" s="75" t="s">
+      <c r="AF9" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="AG9" s="75" t="s">
+      <c r="AG9" s="70" t="s">
         <v>66</v>
       </c>
       <c r="AH9" s="7" t="s">
@@ -22566,7 +22542,7 @@
       <c r="I10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="75" t="s">
+      <c r="J10" s="70" t="s">
         <v>168</v>
       </c>
       <c r="K10" s="32" t="s">
@@ -22630,10 +22606,10 @@
       <c r="AE10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="AF10" s="75" t="s">
+      <c r="AF10" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="AG10" s="75" t="s">
+      <c r="AG10" s="70" t="s">
         <v>69</v>
       </c>
       <c r="AH10" s="7" t="s">
@@ -22701,7 +22677,7 @@
         <f t="shared" si="4"/>
         <v>VNPAY</v>
       </c>
-      <c r="BF10" s="75" t="str">
+      <c r="BF10" s="70" t="str">
         <f t="shared" si="5"/>
         <v>0355653300</v>
       </c>
@@ -22836,7 +22812,7 @@
       <c r="DA10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="DB10" s="75" t="s">
+      <c r="DB10" s="70" t="s">
         <v>168</v>
       </c>
       <c r="DC10" s="32" t="s">
@@ -22962,7 +22938,7 @@
       <c r="EW10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="EX10" s="75" t="s">
+      <c r="EX10" s="70" t="s">
         <v>168</v>
       </c>
       <c r="EY10" s="32" t="s">
@@ -23227,7 +23203,7 @@
       <c r="I11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="70" t="s">
         <v>168</v>
       </c>
       <c r="K11" s="32" t="s">
@@ -23358,7 +23334,7 @@
         <f t="shared" si="4"/>
         <v>VNPAY</v>
       </c>
-      <c r="BF11" s="75" t="str">
+      <c r="BF11" s="70" t="str">
         <f t="shared" si="5"/>
         <v>0355653300</v>
       </c>
@@ -23493,7 +23469,7 @@
       <c r="DA11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="DB11" s="75" t="s">
+      <c r="DB11" s="70" t="s">
         <v>168</v>
       </c>
       <c r="DC11" s="32" t="s">
@@ -23619,7 +23595,7 @@
       <c r="EW11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="EX11" s="75" t="s">
+      <c r="EX11" s="70" t="s">
         <v>168</v>
       </c>
       <c r="EY11" s="32" t="s">
@@ -23884,7 +23860,7 @@
       <c r="I12" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="70" t="s">
         <v>168</v>
       </c>
       <c r="K12" s="32" t="s">
@@ -24015,7 +23991,7 @@
         <f t="shared" si="4"/>
         <v>VNPAY</v>
       </c>
-      <c r="BF12" s="75" t="str">
+      <c r="BF12" s="70" t="str">
         <f t="shared" si="5"/>
         <v>0355653300</v>
       </c>
@@ -24150,7 +24126,7 @@
       <c r="DA12" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="DB12" s="75" t="s">
+      <c r="DB12" s="70" t="s">
         <v>168</v>
       </c>
       <c r="DC12" s="32" t="s">
@@ -24276,7 +24252,7 @@
       <c r="EW12" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="EX12" s="75" t="s">
+      <c r="EX12" s="70" t="s">
         <v>168</v>
       </c>
       <c r="EY12" s="32" t="s">
@@ -24541,7 +24517,7 @@
       <c r="I13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J13" s="75" t="s">
+      <c r="J13" s="70" t="s">
         <v>168</v>
       </c>
       <c r="K13" s="32" t="s">
@@ -24672,7 +24648,7 @@
         <f t="shared" si="4"/>
         <v>VNPAY</v>
       </c>
-      <c r="BF13" s="75" t="str">
+      <c r="BF13" s="70" t="str">
         <f t="shared" si="5"/>
         <v>0355653300</v>
       </c>
@@ -24807,7 +24783,7 @@
       <c r="DA13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="DB13" s="75" t="s">
+      <c r="DB13" s="70" t="s">
         <v>168</v>
       </c>
       <c r="DC13" s="32" t="s">
@@ -24933,7 +24909,7 @@
       <c r="EW13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="EX13" s="75" t="s">
+      <c r="EX13" s="70" t="s">
         <v>168</v>
       </c>
       <c r="EY13" s="32" t="s">
@@ -25199,8 +25175,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -25600,8 +25576,8 @@
   <sheetPr/>
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -25609,7 +25585,7 @@
     <col min="1" max="1" width="13.7142857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.952380952381" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="15" width="17.8380952380952" style="1" customWidth="1"/>
     <col min="16" max="16" width="17.8380952380952" style="28" customWidth="1"/>
     <col min="17" max="47" width="17.8380952380952" style="1" customWidth="1"/>
@@ -26014,10 +25990,10 @@
       <c r="Z3" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" s="75" t="s">
+      <c r="AA3" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="AB3" s="75" t="s">
+      <c r="AB3" s="70" t="s">
         <v>60</v>
       </c>
       <c r="AC3" s="7" t="s">
@@ -26326,10 +26302,10 @@
       <c r="Z5" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AA5" s="75" t="s">
+      <c r="AA5" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="AB5" s="75" t="s">
+      <c r="AB5" s="70" t="s">
         <v>63</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -26662,10 +26638,10 @@
       <c r="Z7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="AA7" s="75" t="s">
+      <c r="AA7" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="AB7" s="75" t="s">
+      <c r="AB7" s="70" t="s">
         <v>66</v>
       </c>
       <c r="AC7" s="7" t="s">
@@ -26784,7 +26760,7 @@
       <c r="I8" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J8" s="75" t="s">
+      <c r="J8" s="70" t="s">
         <v>168</v>
       </c>
       <c r="K8" s="32" t="s">
@@ -26943,7 +26919,7 @@
       <c r="I9" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="70" t="s">
         <v>168</v>
       </c>
       <c r="K9" s="32" t="s">
@@ -26992,10 +26968,10 @@
       <c r="Z9" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="AA9" s="75" t="s">
+      <c r="AA9" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="AB9" s="75" t="s">
+      <c r="AB9" s="70" t="s">
         <v>69</v>
       </c>
       <c r="AC9" s="7" t="s">

--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460" firstSheet="4" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="quote_fee_1_player" sheetId="6" r:id="rId1"/>
@@ -4186,7 +4186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4321,9 +4321,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5189,14 +5186,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="67" customFormat="1" ht="43" customHeight="1" spans="1:36">
+    <row r="2" s="66" customFormat="1" ht="43" customHeight="1" spans="1:36">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -5218,7 +5215,7 @@
       <c r="J2" s="7">
         <v>1</v>
       </c>
-      <c r="K2" s="93" t="s">
+      <c r="K2" s="92" t="s">
         <v>44</v>
       </c>
       <c r="L2" s="7">
@@ -5227,7 +5224,7 @@
       <c r="M2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="93">
+      <c r="N2" s="92">
         <v>100</v>
       </c>
       <c r="O2" s="7" t="s">
@@ -5261,7 +5258,7 @@
         <f>AE2+AF2</f>
         <v>1600000</v>
       </c>
-      <c r="AE2" s="46">
+      <c r="AE2" s="45">
         <v>1000000</v>
       </c>
       <c r="AF2" s="26">
@@ -5278,18 +5275,18 @@
         <f t="shared" ref="AI2:AI10" si="1">H2</f>
         <v>4D</v>
       </c>
-      <c r="AJ2" s="46">
+      <c r="AJ2" s="45">
         <v>23456</v>
       </c>
     </row>
-    <row r="3" s="67" customFormat="1" ht="43" customHeight="1" spans="1:36">
+    <row r="3" s="66" customFormat="1" ht="43" customHeight="1" spans="1:36">
       <c r="A3" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -5311,7 +5308,7 @@
       <c r="J3" s="7">
         <v>1</v>
       </c>
-      <c r="K3" s="93" t="s">
+      <c r="K3" s="92" t="s">
         <v>44</v>
       </c>
       <c r="L3" s="7">
@@ -5354,7 +5351,7 @@
         <f>AE3+AF3</f>
         <v>1600000</v>
       </c>
-      <c r="AE3" s="46">
+      <c r="AE3" s="45">
         <v>1000000</v>
       </c>
       <c r="AF3" s="26">
@@ -5371,18 +5368,18 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ3" s="46">
+      <c r="AJ3" s="45">
         <v>23456</v>
       </c>
     </row>
-    <row r="4" s="67" customFormat="1" ht="43" customHeight="1" spans="1:36">
+    <row r="4" s="66" customFormat="1" ht="43" customHeight="1" spans="1:36">
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -5404,7 +5401,7 @@
       <c r="J4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="92" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="7">
@@ -5447,7 +5444,7 @@
         <f>AE4+AF4</f>
         <v>1600000</v>
       </c>
-      <c r="AE4" s="46">
+      <c r="AE4" s="45">
         <v>1000000</v>
       </c>
       <c r="AF4" s="26">
@@ -5464,18 +5461,18 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ4" s="46">
+      <c r="AJ4" s="45">
         <v>23456</v>
       </c>
     </row>
-    <row r="5" s="67" customFormat="1" ht="43" customHeight="1" spans="1:36">
+    <row r="5" s="66" customFormat="1" ht="43" customHeight="1" spans="1:36">
       <c r="A5" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -5497,7 +5494,7 @@
       <c r="J5" s="7">
         <v>1</v>
       </c>
-      <c r="K5" s="93" t="s">
+      <c r="K5" s="92" t="s">
         <v>54</v>
       </c>
       <c r="L5" s="7">
@@ -5539,7 +5536,7 @@
       <c r="AD5" s="26">
         <v>0</v>
       </c>
-      <c r="AE5" s="46">
+      <c r="AE5" s="45">
         <v>0</v>
       </c>
       <c r="AF5" s="26">
@@ -5556,18 +5553,18 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AJ5" s="46">
+      <c r="AJ5" s="45">
         <v>23456710</v>
       </c>
     </row>
-    <row r="6" s="67" customFormat="1" ht="43" customHeight="1" spans="1:36">
+    <row r="6" s="66" customFormat="1" ht="43" customHeight="1" spans="1:36">
       <c r="A6" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -5589,7 +5586,7 @@
       <c r="J6" s="7">
         <v>1</v>
       </c>
-      <c r="K6" s="93" t="s">
+      <c r="K6" s="92" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="7">
@@ -5632,7 +5629,7 @@
         <f>AE6+AF6</f>
         <v>1600000</v>
       </c>
-      <c r="AE6" s="46">
+      <c r="AE6" s="45">
         <v>1000000</v>
       </c>
       <c r="AF6" s="26">
@@ -5649,18 +5646,18 @@
         <f t="shared" si="1"/>
         <v>5D</v>
       </c>
-      <c r="AJ6" s="46">
+      <c r="AJ6" s="45">
         <v>23456</v>
       </c>
     </row>
-    <row r="7" s="67" customFormat="1" ht="43" customHeight="1" spans="1:36">
+    <row r="7" s="66" customFormat="1" ht="43" customHeight="1" spans="1:36">
       <c r="A7" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -5678,13 +5675,13 @@
       <c r="H7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="94" t="s">
+      <c r="I7" s="93" t="s">
         <v>60</v>
       </c>
       <c r="J7" s="7">
         <v>1</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="92" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="7">
@@ -5727,7 +5724,7 @@
         <f>AE7+AF7</f>
         <v>1600000</v>
       </c>
-      <c r="AE7" s="46">
+      <c r="AE7" s="45">
         <v>1000000</v>
       </c>
       <c r="AF7" s="26">
@@ -5744,18 +5741,18 @@
         <f t="shared" si="1"/>
         <v>4D</v>
       </c>
-      <c r="AJ7" s="46">
+      <c r="AJ7" s="45">
         <v>23456</v>
       </c>
     </row>
-    <row r="8" s="67" customFormat="1" ht="43" customHeight="1" spans="1:36">
+    <row r="8" s="66" customFormat="1" ht="43" customHeight="1" spans="1:36">
       <c r="A8" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -5773,13 +5770,13 @@
       <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="95" t="s">
+      <c r="I8" s="94" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
       </c>
-      <c r="K8" s="93" t="s">
+      <c r="K8" s="92" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="7">
@@ -5822,7 +5819,7 @@
         <f>AE8+AF8</f>
         <v>1600000</v>
       </c>
-      <c r="AE8" s="46">
+      <c r="AE8" s="45">
         <v>1000000</v>
       </c>
       <c r="AF8" s="26">
@@ -5839,18 +5836,18 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ8" s="46">
+      <c r="AJ8" s="45">
         <v>23456</v>
       </c>
     </row>
-    <row r="9" s="67" customFormat="1" ht="43" customHeight="1" spans="1:36">
+    <row r="9" s="66" customFormat="1" ht="43" customHeight="1" spans="1:36">
       <c r="A9" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -5868,13 +5865,13 @@
       <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="94" t="s">
         <v>66</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="93" t="s">
+      <c r="K9" s="92" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="7">
@@ -5917,7 +5914,7 @@
         <f>AE9+AF9</f>
         <v>1600000</v>
       </c>
-      <c r="AE9" s="46">
+      <c r="AE9" s="45">
         <v>1000000</v>
       </c>
       <c r="AF9" s="26">
@@ -5934,18 +5931,18 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ9" s="46">
+      <c r="AJ9" s="45">
         <v>23456</v>
       </c>
     </row>
-    <row r="10" s="67" customFormat="1" ht="43" customHeight="1" spans="1:36">
+    <row r="10" s="66" customFormat="1" ht="43" customHeight="1" spans="1:36">
       <c r="A10" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -5963,13 +5960,13 @@
       <c r="H10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="95" t="s">
+      <c r="I10" s="94" t="s">
         <v>69</v>
       </c>
       <c r="J10" s="7">
         <v>1</v>
       </c>
-      <c r="K10" s="93" t="s">
+      <c r="K10" s="92" t="s">
         <v>54</v>
       </c>
       <c r="L10" s="7">
@@ -6012,7 +6009,7 @@
         <f>AE10+AF10</f>
         <v>1600000</v>
       </c>
-      <c r="AE10" s="46">
+      <c r="AE10" s="45">
         <v>1000000</v>
       </c>
       <c r="AF10" s="26">
@@ -6029,7 +6026,7 @@
         <f t="shared" si="1"/>
         <v>5D</v>
       </c>
-      <c r="AJ10" s="46">
+      <c r="AJ10" s="45">
         <v>23456</v>
       </c>
     </row>
@@ -6044,7 +6041,7 @@
   <sheetPr/>
   <dimension ref="A1:EN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -30515,37 +30512,37 @@
       <c r="K1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="L1" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="90" t="s">
+      <c r="N1" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="O1" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="89" t="s">
+      <c r="P1" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="89" t="s">
+      <c r="Q1" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="89" t="s">
+      <c r="R1" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="89" t="s">
+      <c r="S1" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="90" t="s">
+      <c r="T1" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="89" t="s">
+      <c r="U1" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="90" t="s">
+      <c r="V1" s="89" t="s">
         <v>87</v>
       </c>
       <c r="W1" s="3" t="s">
@@ -30584,7 +30581,7 @@
       <c r="AH1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AI1" s="89" t="s">
+      <c r="AI1" s="88" t="s">
         <v>100</v>
       </c>
       <c r="AJ1" s="37" t="s">
@@ -30620,19 +30617,19 @@
       <c r="AT1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AU1" s="92" t="s">
+      <c r="AU1" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="AV1" s="92" t="s">
+      <c r="AV1" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="AW1" s="92" t="s">
+      <c r="AW1" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="AX1" s="92" t="s">
+      <c r="AX1" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="AY1" s="92" t="s">
+      <c r="AY1" s="91" t="s">
         <v>116</v>
       </c>
       <c r="AZ1" s="3" t="s">
@@ -30675,14 +30672,14 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" s="67" customFormat="1" ht="50" customHeight="1" spans="1:64">
+    <row r="2" s="66" customFormat="1" ht="50" customHeight="1" spans="1:64">
       <c r="A2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -30708,16 +30705,16 @@
         <v>133</v>
       </c>
       <c r="L2" s="7"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="80"/>
+      <c r="T2" s="79"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="80"/>
+      <c r="V2" s="79"/>
       <c r="W2" s="7" t="s">
         <v>134</v>
       </c>
@@ -30751,7 +30748,7 @@
       <c r="AI2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AJ2" s="93" t="s">
+      <c r="AJ2" s="92" t="s">
         <v>140</v>
       </c>
       <c r="AK2" s="24" t="s">
@@ -30790,7 +30787,7 @@
       <c r="AZ2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BA2" s="75" t="s">
+      <c r="BA2" s="74" t="s">
         <v>144</v>
       </c>
       <c r="BB2" s="26">
@@ -30810,7 +30807,7 @@
         <f t="shared" ref="BF2:BF13" si="1">AQ2</f>
         <v>4D</v>
       </c>
-      <c r="BG2" s="46" t="b">
+      <c r="BG2" s="45" t="b">
         <v>0</v>
       </c>
       <c r="BH2" s="26" t="s">
@@ -30825,18 +30822,18 @@
       <c r="BK2" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="BL2" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="67" customFormat="1" ht="69" customHeight="1" spans="1:64">
+      <c r="BL2" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="66" customFormat="1" ht="69" customHeight="1" spans="1:64">
       <c r="A3" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -30862,16 +30859,16 @@
         <v>133</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="80"/>
+      <c r="T3" s="79"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="80"/>
+      <c r="V3" s="79"/>
       <c r="W3" s="7" t="s">
         <v>134</v>
       </c>
@@ -30905,7 +30902,7 @@
       <c r="AI3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AJ3" s="93" t="s">
+      <c r="AJ3" s="92" t="s">
         <v>140</v>
       </c>
       <c r="AK3" s="24" t="s">
@@ -30954,7 +30951,7 @@
       <c r="AZ3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BA3" s="75" t="s">
+      <c r="BA3" s="74" t="s">
         <v>144</v>
       </c>
       <c r="BB3" s="26">
@@ -30974,7 +30971,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BG3" s="46" t="b">
+      <c r="BG3" s="45" t="b">
         <v>0</v>
       </c>
       <c r="BH3" s="26" t="s">
@@ -30989,18 +30986,18 @@
       <c r="BK3" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="BL3" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="67" customFormat="1" ht="69" customHeight="1" spans="1:64">
+      <c r="BL3" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="66" customFormat="1" ht="69" customHeight="1" spans="1:64">
       <c r="A4" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -31026,8 +31023,8 @@
         <v>133</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -31069,7 +31066,7 @@
       <c r="AI4" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AJ4" s="93" t="s">
+      <c r="AJ4" s="92" t="s">
         <v>140</v>
       </c>
       <c r="AK4" s="24" t="s">
@@ -31116,7 +31113,7 @@
       <c r="AZ4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BA4" s="75" t="s">
+      <c r="BA4" s="74" t="s">
         <v>144</v>
       </c>
       <c r="BB4" s="26">
@@ -31136,7 +31133,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BG4" s="46" t="b">
+      <c r="BG4" s="45" t="b">
         <v>0</v>
       </c>
       <c r="BH4" s="26" t="s">
@@ -31151,18 +31148,18 @@
       <c r="BK4" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="BL4" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="67" customFormat="1" ht="70" customHeight="1" spans="1:64">
+      <c r="BL4" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="66" customFormat="1" ht="70" customHeight="1" spans="1:64">
       <c r="A5" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -31188,8 +31185,8 @@
         <v>133</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -31231,7 +31228,7 @@
       <c r="AI5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AJ5" s="93" t="s">
+      <c r="AJ5" s="92" t="s">
         <v>140</v>
       </c>
       <c r="AK5" s="24" t="s">
@@ -31270,7 +31267,7 @@
       <c r="AZ5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BA5" s="75" t="s">
+      <c r="BA5" s="74" t="s">
         <v>144</v>
       </c>
       <c r="BB5" s="26">
@@ -31290,7 +31287,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="BG5" s="46" t="b">
+      <c r="BG5" s="45" t="b">
         <v>0</v>
       </c>
       <c r="BH5" s="26" t="s">
@@ -31305,18 +31302,18 @@
       <c r="BK5" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="BL5" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="67" customFormat="1" ht="70" customHeight="1" spans="1:64">
+      <c r="BL5" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="66" customFormat="1" ht="70" customHeight="1" spans="1:64">
       <c r="A6" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -31337,19 +31334,19 @@
       <c r="I6" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="80" t="s">
         <v>168</v>
       </c>
       <c r="L6" s="7">
         <v>378</v>
       </c>
-      <c r="M6" s="80" t="s">
+      <c r="M6" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="N6" s="80" t="s">
+      <c r="N6" s="79" t="s">
         <v>134</v>
       </c>
       <c r="O6" s="7">
@@ -31367,7 +31364,7 @@
       <c r="S6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="T6" s="80" t="s">
+      <c r="T6" s="79" t="s">
         <v>169</v>
       </c>
       <c r="U6" s="7" t="s">
@@ -31409,7 +31406,7 @@
       <c r="AI6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AJ6" s="93" t="s">
+      <c r="AJ6" s="92" t="s">
         <v>140</v>
       </c>
       <c r="AK6" s="24" t="s">
@@ -31448,7 +31445,7 @@
       <c r="AZ6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BA6" s="75" t="s">
+      <c r="BA6" s="74" t="s">
         <v>144</v>
       </c>
       <c r="BB6" s="26">
@@ -31468,7 +31465,7 @@
         <f t="shared" si="1"/>
         <v>5D</v>
       </c>
-      <c r="BG6" s="46" t="b">
+      <c r="BG6" s="45" t="b">
         <v>0</v>
       </c>
       <c r="BH6" s="26" t="s">
@@ -31483,18 +31480,18 @@
       <c r="BK6" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="BL6" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="67" customFormat="1" ht="69" customHeight="1" spans="1:64">
+      <c r="BL6" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="66" customFormat="1" ht="69" customHeight="1" spans="1:64">
       <c r="A7" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -31520,16 +31517,16 @@
         <v>133</v>
       </c>
       <c r="L7" s="7"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="80"/>
+      <c r="T7" s="79"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="79"/>
       <c r="W7" s="7" t="s">
         <v>134</v>
       </c>
@@ -31555,10 +31552,10 @@
       <c r="AE7" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="AF7" s="94" t="s">
+      <c r="AF7" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="AG7" s="94" t="s">
+      <c r="AG7" s="93" t="s">
         <v>60</v>
       </c>
       <c r="AH7" s="7" t="s">
@@ -31567,7 +31564,7 @@
       <c r="AI7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AJ7" s="93" t="s">
+      <c r="AJ7" s="92" t="s">
         <v>140</v>
       </c>
       <c r="AK7" s="24" t="s">
@@ -31606,7 +31603,7 @@
       <c r="AZ7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BA7" s="75" t="s">
+      <c r="BA7" s="74" t="s">
         <v>144</v>
       </c>
       <c r="BB7" s="26">
@@ -31626,7 +31623,7 @@
         <f t="shared" si="1"/>
         <v>4D</v>
       </c>
-      <c r="BG7" s="46" t="b">
+      <c r="BG7" s="45" t="b">
         <v>0</v>
       </c>
       <c r="BH7" s="26" t="s">
@@ -31641,18 +31638,18 @@
       <c r="BK7" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="BL7" s="46" t="b">
+      <c r="BL7" s="45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="67" customFormat="1" ht="69" customHeight="1" spans="1:64">
+    <row r="8" s="66" customFormat="1" ht="69" customHeight="1" spans="1:64">
       <c r="A8" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -31678,16 +31675,16 @@
         <v>133</v>
       </c>
       <c r="L8" s="7"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="80"/>
+      <c r="T8" s="79"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="79"/>
       <c r="W8" s="7" t="s">
         <v>134</v>
       </c>
@@ -31713,10 +31710,10 @@
       <c r="AE8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AF8" s="94" t="s">
+      <c r="AF8" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="AG8" s="94" t="s">
+      <c r="AG8" s="93" t="s">
         <v>63</v>
       </c>
       <c r="AH8" s="7" t="s">
@@ -31725,7 +31722,7 @@
       <c r="AI8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AJ8" s="93" t="s">
+      <c r="AJ8" s="92" t="s">
         <v>140</v>
       </c>
       <c r="AK8" s="24" t="s">
@@ -31774,7 +31771,7 @@
       <c r="AZ8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BA8" s="75" t="s">
+      <c r="BA8" s="74" t="s">
         <v>144</v>
       </c>
       <c r="BB8" s="26">
@@ -31794,7 +31791,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BG8" s="46" t="b">
+      <c r="BG8" s="45" t="b">
         <v>0</v>
       </c>
       <c r="BH8" s="26" t="s">
@@ -31809,18 +31806,18 @@
       <c r="BK8" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="BL8" s="46" t="b">
+      <c r="BL8" s="45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="67" customFormat="1" ht="69" customHeight="1" spans="1:64">
+    <row r="9" s="66" customFormat="1" ht="69" customHeight="1" spans="1:64">
       <c r="A9" s="7" t="s">
         <v>178</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -31846,8 +31843,8 @@
         <v>133</v>
       </c>
       <c r="L9" s="7"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -31881,10 +31878,10 @@
       <c r="AE9" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="AF9" s="94" t="s">
+      <c r="AF9" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="AG9" s="94" t="s">
+      <c r="AG9" s="93" t="s">
         <v>66</v>
       </c>
       <c r="AH9" s="7" t="s">
@@ -31893,7 +31890,7 @@
       <c r="AI9" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AJ9" s="93" t="s">
+      <c r="AJ9" s="92" t="s">
         <v>140</v>
       </c>
       <c r="AK9" s="24" t="s">
@@ -31940,7 +31937,7 @@
       <c r="AZ9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BA9" s="75" t="s">
+      <c r="BA9" s="74" t="s">
         <v>144</v>
       </c>
       <c r="BB9" s="26">
@@ -31960,7 +31957,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BG9" s="46" t="b">
+      <c r="BG9" s="45" t="b">
         <v>0</v>
       </c>
       <c r="BH9" s="26" t="s">
@@ -31975,18 +31972,18 @@
       <c r="BK9" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="BL9" s="46" t="b">
+      <c r="BL9" s="45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="67" customFormat="1" ht="69" customHeight="1" spans="1:64">
+    <row r="10" s="66" customFormat="1" ht="69" customHeight="1" spans="1:64">
       <c r="A10" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -32007,19 +32004,19 @@
       <c r="I10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J10" s="94" t="s">
+      <c r="J10" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="80" t="s">
         <v>168</v>
       </c>
       <c r="L10" s="7">
         <v>378</v>
       </c>
-      <c r="M10" s="80" t="s">
+      <c r="M10" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="N10" s="80" t="s">
+      <c r="N10" s="79" t="s">
         <v>134</v>
       </c>
       <c r="O10" s="7">
@@ -32037,7 +32034,7 @@
       <c r="S10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="T10" s="80" t="s">
+      <c r="T10" s="79" t="s">
         <v>169</v>
       </c>
       <c r="U10" s="7" t="s">
@@ -32071,10 +32068,10 @@
       <c r="AE10" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="AF10" s="94" t="s">
+      <c r="AF10" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="AG10" s="94" t="s">
+      <c r="AG10" s="93" t="s">
         <v>69</v>
       </c>
       <c r="AH10" s="7" t="s">
@@ -32083,7 +32080,7 @@
       <c r="AI10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AJ10" s="93" t="s">
+      <c r="AJ10" s="92" t="s">
         <v>140</v>
       </c>
       <c r="AK10" s="24" t="s">
@@ -32122,7 +32119,7 @@
       <c r="AZ10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BA10" s="75" t="s">
+      <c r="BA10" s="74" t="s">
         <v>144</v>
       </c>
       <c r="BB10" s="26">
@@ -32142,7 +32139,7 @@
         <f t="shared" si="1"/>
         <v>5D</v>
       </c>
-      <c r="BG10" s="46" t="b">
+      <c r="BG10" s="45" t="b">
         <v>0</v>
       </c>
       <c r="BH10" s="26" t="s">
@@ -32157,18 +32154,18 @@
       <c r="BK10" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="BL10" s="46" t="b">
+      <c r="BL10" s="45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="67" customFormat="1" ht="69" customHeight="1" spans="1:64">
+    <row r="11" s="66" customFormat="1" ht="69" customHeight="1" spans="1:64">
       <c r="A11" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -32189,19 +32186,19 @@
       <c r="I11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J11" s="94" t="s">
+      <c r="J11" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="K11" s="81" t="s">
+      <c r="K11" s="80" t="s">
         <v>168</v>
       </c>
       <c r="L11" s="7">
         <v>378</v>
       </c>
-      <c r="M11" s="80" t="s">
+      <c r="M11" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="N11" s="80" t="s">
+      <c r="N11" s="79" t="s">
         <v>134</v>
       </c>
       <c r="O11" s="7">
@@ -32219,7 +32216,7 @@
       <c r="S11" s="7">
         <v>0</v>
       </c>
-      <c r="T11" s="80" t="s">
+      <c r="T11" s="79" t="s">
         <v>169</v>
       </c>
       <c r="U11" s="7">
@@ -32261,7 +32258,7 @@
       <c r="AI11" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AJ11" s="93" t="s">
+      <c r="AJ11" s="92" t="s">
         <v>140</v>
       </c>
       <c r="AK11" s="24" t="s">
@@ -32300,7 +32297,7 @@
       <c r="AZ11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BA11" s="75" t="s">
+      <c r="BA11" s="74" t="s">
         <v>144</v>
       </c>
       <c r="BB11" s="26">
@@ -32320,7 +32317,7 @@
         <f t="shared" si="1"/>
         <v>5D</v>
       </c>
-      <c r="BG11" s="46" t="b">
+      <c r="BG11" s="45" t="b">
         <v>0</v>
       </c>
       <c r="BH11" s="26" t="s">
@@ -32335,18 +32332,18 @@
       <c r="BK11" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="BL11" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="67" customFormat="1" ht="69" customHeight="1" spans="1:64">
+      <c r="BL11" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="66" customFormat="1" ht="69" customHeight="1" spans="1:64">
       <c r="A12" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -32367,19 +32364,19 @@
       <c r="I12" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="K12" s="81" t="s">
+      <c r="K12" s="80" t="s">
         <v>168</v>
       </c>
       <c r="L12" s="7">
         <v>378</v>
       </c>
-      <c r="M12" s="80" t="s">
+      <c r="M12" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="N12" s="80" t="s">
+      <c r="N12" s="79" t="s">
         <v>169</v>
       </c>
       <c r="O12" s="7">
@@ -32397,7 +32394,7 @@
       <c r="S12" s="7">
         <v>0</v>
       </c>
-      <c r="T12" s="80" t="s">
+      <c r="T12" s="79" t="s">
         <v>169</v>
       </c>
       <c r="U12" s="7">
@@ -32439,7 +32436,7 @@
       <c r="AI12" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AJ12" s="93" t="s">
+      <c r="AJ12" s="92" t="s">
         <v>140</v>
       </c>
       <c r="AK12" s="24" t="s">
@@ -32478,7 +32475,7 @@
       <c r="AZ12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BA12" s="75" t="s">
+      <c r="BA12" s="74" t="s">
         <v>144</v>
       </c>
       <c r="BB12" s="26">
@@ -32498,7 +32495,7 @@
         <f t="shared" si="1"/>
         <v>5D</v>
       </c>
-      <c r="BG12" s="46" t="b">
+      <c r="BG12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="BH12" s="26" t="s">
@@ -32513,18 +32510,18 @@
       <c r="BK12" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="BL12" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="67" customFormat="1" ht="69" customHeight="1" spans="1:64">
+      <c r="BL12" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="66" customFormat="1" ht="69" customHeight="1" spans="1:64">
       <c r="A13" s="7" t="s">
         <v>189</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -32545,19 +32542,19 @@
       <c r="I13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J13" s="94" t="s">
+      <c r="J13" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="K13" s="81" t="s">
+      <c r="K13" s="80" t="s">
         <v>168</v>
       </c>
       <c r="L13" s="7">
         <v>378</v>
       </c>
-      <c r="M13" s="80" t="s">
+      <c r="M13" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="N13" s="80" t="s">
+      <c r="N13" s="79" t="s">
         <v>134</v>
       </c>
       <c r="O13" s="7">
@@ -32575,7 +32572,7 @@
       <c r="S13" s="7">
         <v>0</v>
       </c>
-      <c r="T13" s="80" t="s">
+      <c r="T13" s="79" t="s">
         <v>169</v>
       </c>
       <c r="U13" s="7">
@@ -32617,7 +32614,7 @@
       <c r="AI13" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AJ13" s="93" t="s">
+      <c r="AJ13" s="92" t="s">
         <v>140</v>
       </c>
       <c r="AK13" s="24" t="s">
@@ -32656,7 +32653,7 @@
       <c r="AZ13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BA13" s="75" t="s">
+      <c r="BA13" s="74" t="s">
         <v>144</v>
       </c>
       <c r="BB13" s="26">
@@ -32676,7 +32673,7 @@
         <f t="shared" si="1"/>
         <v>5D</v>
       </c>
-      <c r="BG13" s="46" t="b">
+      <c r="BG13" s="45" t="b">
         <v>0</v>
       </c>
       <c r="BH13" s="26" t="s">
@@ -32691,7 +32688,7 @@
       <c r="BK13" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="BL13" s="46" t="b">
+      <c r="BL13" s="45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -32774,37 +32771,37 @@
       <c r="K1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="L1" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="90" t="s">
+      <c r="N1" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="O1" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="89" t="s">
+      <c r="P1" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="89" t="s">
+      <c r="Q1" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="89" t="s">
+      <c r="R1" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="89" t="s">
+      <c r="S1" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="90" t="s">
+      <c r="T1" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="89" t="s">
+      <c r="U1" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="90" t="s">
+      <c r="V1" s="89" t="s">
         <v>87</v>
       </c>
       <c r="W1" s="3" t="s">
@@ -32843,7 +32840,7 @@
       <c r="AH1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AI1" s="89" t="s">
+      <c r="AI1" s="88" t="s">
         <v>100</v>
       </c>
       <c r="AJ1" s="37" t="s">
@@ -32879,19 +32876,19 @@
       <c r="AT1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AU1" s="92" t="s">
+      <c r="AU1" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="AV1" s="92" t="s">
+      <c r="AV1" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="AW1" s="92" t="s">
+      <c r="AW1" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="AX1" s="92" t="s">
+      <c r="AX1" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="AY1" s="92" t="s">
+      <c r="AY1" s="91" t="s">
         <v>116</v>
       </c>
       <c r="AZ1" s="3" t="s">
@@ -32967,16 +32964,16 @@
         <v>133</v>
       </c>
       <c r="L2" s="7"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="80"/>
+      <c r="T2" s="79"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="80"/>
+      <c r="V2" s="79"/>
       <c r="W2" s="7" t="s">
         <v>134</v>
       </c>
@@ -33007,7 +33004,7 @@
       <c r="AH2" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI2" s="91" t="s">
+      <c r="AI2" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ2" s="24" t="s">
@@ -33121,16 +33118,16 @@
         <v>133</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="80"/>
+      <c r="T3" s="79"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="80"/>
+      <c r="V3" s="79"/>
       <c r="W3" s="7" t="s">
         <v>134</v>
       </c>
@@ -33161,7 +33158,7 @@
       <c r="AH3" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI3" s="91" t="s">
+      <c r="AI3" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ3" s="24" t="s">
@@ -33242,7 +33239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="87" customFormat="1" ht="106" customHeight="1" spans="1:65">
+    <row r="4" s="86" customFormat="1" ht="106" customHeight="1" spans="1:65">
       <c r="A4" s="4" t="s">
         <v>198</v>
       </c>
@@ -33275,16 +33272,16 @@
         <v>133</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="80"/>
+      <c r="T4" s="79"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="80"/>
+      <c r="V4" s="79"/>
       <c r="W4" s="7" t="s">
         <v>134</v>
       </c>
@@ -33315,7 +33312,7 @@
       <c r="AH4" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI4" s="91" t="s">
+      <c r="AI4" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ4" s="24" t="s">
@@ -33395,9 +33392,9 @@
       <c r="BL4" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="BM4" s="67"/>
-    </row>
-    <row r="5" s="87" customFormat="1" ht="106" customHeight="1" spans="1:65">
+      <c r="BM4" s="66"/>
+    </row>
+    <row r="5" s="86" customFormat="1" ht="106" customHeight="1" spans="1:65">
       <c r="A5" s="4" t="s">
         <v>202</v>
       </c>
@@ -33430,16 +33427,16 @@
         <v>133</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="80"/>
+      <c r="T5" s="79"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="80"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="7" t="s">
         <v>134</v>
       </c>
@@ -33470,7 +33467,7 @@
       <c r="AH5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI5" s="91" t="s">
+      <c r="AI5" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ5" s="24" t="s">
@@ -33550,9 +33547,9 @@
       <c r="BL5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="BM5" s="67"/>
-    </row>
-    <row r="6" s="87" customFormat="1" ht="106" customHeight="1" spans="1:65">
+      <c r="BM5" s="66"/>
+    </row>
+    <row r="6" s="86" customFormat="1" ht="106" customHeight="1" spans="1:65">
       <c r="A6" s="4" t="s">
         <v>205</v>
       </c>
@@ -33585,16 +33582,16 @@
         <v>133</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="80"/>
+      <c r="T6" s="79"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="80"/>
+      <c r="V6" s="79"/>
       <c r="W6" s="7" t="s">
         <v>134</v>
       </c>
@@ -33625,7 +33622,7 @@
       <c r="AH6" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI6" s="91" t="s">
+      <c r="AI6" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ6" s="24" t="s">
@@ -33705,7 +33702,7 @@
       <c r="BL6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="BM6" s="67"/>
+      <c r="BM6" s="66"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="106" customHeight="1" spans="1:65">
       <c r="A7" s="4" t="s">
@@ -33740,16 +33737,16 @@
         <v>133</v>
       </c>
       <c r="L7" s="7"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="80"/>
+      <c r="T7" s="79"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="79"/>
       <c r="W7" s="7" t="s">
         <v>134</v>
       </c>
@@ -33780,7 +33777,7 @@
       <c r="AH7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI7" s="91" t="s">
+      <c r="AI7" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ7" s="24" t="s">
@@ -33860,7 +33857,7 @@
       <c r="BL7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="BM7" s="67"/>
+      <c r="BM7" s="66"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="106" customHeight="1" spans="1:65">
       <c r="A8" s="4" t="s">
@@ -33895,16 +33892,16 @@
         <v>133</v>
       </c>
       <c r="L8" s="7"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="80"/>
+      <c r="T8" s="79"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="79"/>
       <c r="W8" s="7" t="s">
         <v>134</v>
       </c>
@@ -33935,7 +33932,7 @@
       <c r="AH8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI8" s="91" t="s">
+      <c r="AI8" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ8" s="24" t="s">
@@ -34015,9 +34012,9 @@
       <c r="BL8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="BM8" s="67"/>
-    </row>
-    <row r="9" s="87" customFormat="1" ht="106" customHeight="1" spans="1:65">
+      <c r="BM8" s="66"/>
+    </row>
+    <row r="9" s="86" customFormat="1" ht="106" customHeight="1" spans="1:65">
       <c r="A9" s="4" t="s">
         <v>217</v>
       </c>
@@ -34050,16 +34047,16 @@
         <v>133</v>
       </c>
       <c r="L9" s="7"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="80"/>
+      <c r="T9" s="79"/>
       <c r="U9" s="7"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="79"/>
       <c r="W9" s="7" t="s">
         <v>134</v>
       </c>
@@ -34090,7 +34087,7 @@
       <c r="AH9" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI9" s="91" t="s">
+      <c r="AI9" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ9" s="24" t="s">
@@ -34170,9 +34167,9 @@
       <c r="BL9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="BM9" s="67"/>
-    </row>
-    <row r="10" s="87" customFormat="1" ht="106" customHeight="1" spans="1:65">
+      <c r="BM9" s="66"/>
+    </row>
+    <row r="10" s="86" customFormat="1" ht="106" customHeight="1" spans="1:65">
       <c r="A10" s="4" t="s">
         <v>217</v>
       </c>
@@ -34205,16 +34202,16 @@
         <v>133</v>
       </c>
       <c r="L10" s="7"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="80"/>
+      <c r="T10" s="79"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="79"/>
       <c r="W10" s="7" t="s">
         <v>134</v>
       </c>
@@ -34245,7 +34242,7 @@
       <c r="AH10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI10" s="91" t="s">
+      <c r="AI10" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ10" s="24" t="s">
@@ -34325,9 +34322,9 @@
       <c r="BL10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="BM10" s="67"/>
-    </row>
-    <row r="11" s="67" customFormat="1" ht="106" customHeight="1" spans="1:64">
+      <c r="BM10" s="66"/>
+    </row>
+    <row r="11" s="66" customFormat="1" ht="106" customHeight="1" spans="1:64">
       <c r="A11" s="4" t="s">
         <v>223</v>
       </c>
@@ -34360,16 +34357,16 @@
         <v>133</v>
       </c>
       <c r="L11" s="7"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="80"/>
+      <c r="T11" s="79"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="79"/>
       <c r="W11" s="7" t="s">
         <v>134</v>
       </c>
@@ -34400,7 +34397,7 @@
       <c r="AH11" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI11" s="91" t="s">
+      <c r="AI11" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ11" s="24" t="s">
@@ -34481,7 +34478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="67" customFormat="1" ht="106" customHeight="1" spans="1:64">
+    <row r="12" s="66" customFormat="1" ht="106" customHeight="1" spans="1:64">
       <c r="A12" s="4" t="s">
         <v>227</v>
       </c>
@@ -34514,16 +34511,16 @@
         <v>133</v>
       </c>
       <c r="L12" s="7"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="80"/>
+      <c r="T12" s="79"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="80"/>
+      <c r="V12" s="79"/>
       <c r="W12" s="7" t="s">
         <v>134</v>
       </c>
@@ -34554,7 +34551,7 @@
       <c r="AH12" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI12" s="91" t="s">
+      <c r="AI12" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ12" s="24" t="s">
@@ -34635,7 +34632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="67" customFormat="1" ht="106" customHeight="1" spans="1:64">
+    <row r="13" s="66" customFormat="1" ht="106" customHeight="1" spans="1:64">
       <c r="A13" s="4" t="s">
         <v>231</v>
       </c>
@@ -34668,16 +34665,16 @@
         <v>133</v>
       </c>
       <c r="L13" s="7"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="80"/>
+      <c r="T13" s="79"/>
       <c r="U13" s="7"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="79"/>
       <c r="W13" s="7" t="s">
         <v>134</v>
       </c>
@@ -34708,7 +34705,7 @@
       <c r="AH13" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI13" s="91" t="s">
+      <c r="AI13" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ13" s="24" t="s">
@@ -34789,7 +34786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="67" customFormat="1" ht="106" customHeight="1" spans="1:64">
+    <row r="14" s="66" customFormat="1" ht="106" customHeight="1" spans="1:64">
       <c r="A14" s="4" t="s">
         <v>235</v>
       </c>
@@ -34822,16 +34819,16 @@
         <v>133</v>
       </c>
       <c r="L14" s="7"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="80"/>
+      <c r="T14" s="79"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="79"/>
       <c r="W14" s="7" t="s">
         <v>134</v>
       </c>
@@ -34862,7 +34859,7 @@
       <c r="AH14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI14" s="91" t="s">
+      <c r="AI14" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ14" s="24" t="s">
@@ -34943,7 +34940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="67" customFormat="1" ht="106" customHeight="1" spans="1:64">
+    <row r="15" s="66" customFormat="1" ht="106" customHeight="1" spans="1:64">
       <c r="A15" s="4" t="s">
         <v>240</v>
       </c>
@@ -34976,16 +34973,16 @@
         <v>133</v>
       </c>
       <c r="L15" s="7"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="80"/>
+      <c r="T15" s="79"/>
       <c r="U15" s="7"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="79"/>
       <c r="W15" s="7" t="s">
         <v>134</v>
       </c>
@@ -35016,7 +35013,7 @@
       <c r="AH15" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI15" s="91" t="s">
+      <c r="AI15" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ15" s="24" t="s">
@@ -35104,7 +35101,7 @@
       <c r="B16" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="87" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="17" t="s">
@@ -35130,16 +35127,16 @@
         <v>133</v>
       </c>
       <c r="L16" s="7"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="80"/>
+      <c r="T16" s="79"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="80"/>
+      <c r="V16" s="79"/>
       <c r="W16" s="7" t="s">
         <v>134</v>
       </c>
@@ -35170,7 +35167,7 @@
       <c r="AH16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI16" s="91" t="s">
+      <c r="AI16" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ16" s="24" t="s">
@@ -35258,7 +35255,7 @@
       <c r="B17" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="87" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -35284,16 +35281,16 @@
         <v>133</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="80"/>
+      <c r="T17" s="79"/>
       <c r="U17" s="7"/>
-      <c r="V17" s="80"/>
+      <c r="V17" s="79"/>
       <c r="W17" s="7" t="s">
         <v>134</v>
       </c>
@@ -35324,7 +35321,7 @@
       <c r="AH17" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI17" s="91" t="s">
+      <c r="AI17" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ17" s="24" t="s">
@@ -35412,7 +35409,7 @@
       <c r="B18" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="87" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -35438,16 +35435,16 @@
         <v>133</v>
       </c>
       <c r="L18" s="7"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
-      <c r="T18" s="80"/>
+      <c r="T18" s="79"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="80"/>
+      <c r="V18" s="79"/>
       <c r="W18" s="7" t="s">
         <v>134</v>
       </c>
@@ -35478,7 +35475,7 @@
       <c r="AH18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI18" s="91" t="s">
+      <c r="AI18" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ18" s="24" t="s">
@@ -35566,7 +35563,7 @@
       <c r="B19" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="87" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="17" t="s">
@@ -35592,16 +35589,16 @@
         <v>133</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="80"/>
+      <c r="T19" s="79"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="80"/>
+      <c r="V19" s="79"/>
       <c r="W19" s="7" t="s">
         <v>134</v>
       </c>
@@ -35632,7 +35629,7 @@
       <c r="AH19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AI19" s="91" t="s">
+      <c r="AI19" s="90" t="s">
         <v>193</v>
       </c>
       <c r="AJ19" s="24" t="s">
@@ -35725,10 +35722,10 @@
   <sheetPr/>
   <dimension ref="A1:IA13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AV1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomLeft" activeCell="BF18" sqref="BF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -35742,23 +35739,23 @@
     <col min="15" max="21" width="17.8380952380952" style="1" customWidth="1"/>
     <col min="22" max="22" width="17.8380952380952" style="28" customWidth="1"/>
     <col min="23" max="36" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="37" max="38" width="17.8380952380952" style="76" customWidth="1"/>
+    <col min="37" max="38" width="17.8380952380952" style="75" customWidth="1"/>
     <col min="39" max="52" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="53" max="60" width="17.8380952380952" style="67" customWidth="1"/>
-    <col min="61" max="62" width="17.8380952380952" style="77" customWidth="1"/>
-    <col min="63" max="69" width="17.8380952380952" style="67" customWidth="1"/>
-    <col min="70" max="70" width="17.8380952380952" style="77" customWidth="1"/>
-    <col min="71" max="100" width="17.8380952380952" style="67" customWidth="1"/>
+    <col min="53" max="60" width="17.8380952380952" style="66" customWidth="1"/>
+    <col min="61" max="62" width="17.8380952380952" style="76" customWidth="1"/>
+    <col min="63" max="69" width="17.8380952380952" style="66" customWidth="1"/>
+    <col min="70" max="70" width="17.8380952380952" style="76" customWidth="1"/>
+    <col min="71" max="100" width="17.8380952380952" style="66" customWidth="1"/>
     <col min="101" max="108" width="17.8380952380952" style="1" customWidth="1"/>
     <col min="109" max="110" width="17.8380952380952" style="28" customWidth="1"/>
     <col min="111" max="117" width="17.8380952380952" style="1" customWidth="1"/>
     <col min="118" max="118" width="17.8380952380952" style="28" customWidth="1"/>
     <col min="119" max="148" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="149" max="156" width="17.8380952380952" style="67" customWidth="1"/>
-    <col min="157" max="158" width="17.8380952380952" style="77" customWidth="1"/>
-    <col min="159" max="165" width="17.8380952380952" style="67" customWidth="1"/>
-    <col min="166" max="166" width="17.8380952380952" style="77" customWidth="1"/>
-    <col min="167" max="196" width="17.8380952380952" style="67" customWidth="1"/>
+    <col min="149" max="156" width="17.8380952380952" style="66" customWidth="1"/>
+    <col min="157" max="158" width="17.8380952380952" style="76" customWidth="1"/>
+    <col min="159" max="165" width="17.8380952380952" style="66" customWidth="1"/>
+    <col min="166" max="166" width="17.8380952380952" style="76" customWidth="1"/>
+    <col min="167" max="196" width="17.8380952380952" style="66" customWidth="1"/>
     <col min="197" max="197" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="198" max="202" width="18.9428571428571" style="1" customWidth="1"/>
     <col min="203" max="203" width="18.9428571428571" style="16" customWidth="1"/>
@@ -35816,10 +35813,10 @@
       <c r="L1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="79" t="s">
+      <c r="N1" s="78" t="s">
         <v>79</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -35837,13 +35834,13 @@
       <c r="S1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="79" t="s">
+      <c r="T1" s="78" t="s">
         <v>85</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="79" t="s">
+      <c r="V1" s="78" t="s">
         <v>87</v>
       </c>
       <c r="W1" s="3" t="s">
@@ -35888,10 +35885,10 @@
       <c r="AJ1" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="AK1" s="82" t="s">
+      <c r="AK1" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="AL1" s="82" t="s">
+      <c r="AL1" s="81" t="s">
         <v>103</v>
       </c>
       <c r="AM1" s="34" t="s">
@@ -35936,97 +35933,97 @@
       <c r="AZ1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="BA1" s="85" t="s">
+      <c r="BA1" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="BB1" s="85" t="s">
+      <c r="BB1" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="BC1" s="85" t="s">
+      <c r="BC1" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="BD1" s="85" t="s">
+      <c r="BD1" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="BE1" s="85" t="s">
+      <c r="BE1" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="BF1" s="85" t="s">
+      <c r="BF1" s="84" t="s">
         <v>261</v>
       </c>
-      <c r="BG1" s="85" t="s">
+      <c r="BG1" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="BH1" s="85" t="s">
+      <c r="BH1" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="BI1" s="86" t="s">
+      <c r="BI1" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="BJ1" s="86" t="s">
+      <c r="BJ1" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="BK1" s="85" t="s">
+      <c r="BK1" s="84" t="s">
         <v>266</v>
       </c>
-      <c r="BL1" s="85" t="s">
+      <c r="BL1" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="BM1" s="85" t="s">
+      <c r="BM1" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="BN1" s="85" t="s">
+      <c r="BN1" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="BO1" s="85" t="s">
+      <c r="BO1" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="BP1" s="86" t="s">
+      <c r="BP1" s="85" t="s">
         <v>271</v>
       </c>
-      <c r="BQ1" s="85" t="s">
+      <c r="BQ1" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="BR1" s="86" t="s">
+      <c r="BR1" s="85" t="s">
         <v>273</v>
       </c>
-      <c r="BS1" s="85" t="s">
+      <c r="BS1" s="84" t="s">
         <v>274</v>
       </c>
-      <c r="BT1" s="85" t="s">
+      <c r="BT1" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="BU1" s="85" t="s">
+      <c r="BU1" s="84" t="s">
         <v>276</v>
       </c>
-      <c r="BV1" s="85" t="s">
+      <c r="BV1" s="84" t="s">
         <v>277</v>
       </c>
-      <c r="BW1" s="85" t="s">
+      <c r="BW1" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="BX1" s="85" t="s">
+      <c r="BX1" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="BY1" s="85" t="s">
+      <c r="BY1" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="BZ1" s="85" t="s">
+      <c r="BZ1" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="CA1" s="85" t="s">
+      <c r="CA1" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="CB1" s="85" t="s">
+      <c r="CB1" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="CC1" s="85" t="s">
+      <c r="CC1" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="CD1" s="85" t="s">
+      <c r="CD1" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="CE1" s="85" t="s">
+      <c r="CE1" s="84" t="s">
         <v>286</v>
       </c>
       <c r="CF1" s="39" t="s">
@@ -36041,43 +36038,43 @@
       <c r="CI1" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="CJ1" s="85" t="s">
+      <c r="CJ1" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="CK1" s="85" t="s">
+      <c r="CK1" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="CL1" s="85" t="s">
+      <c r="CL1" s="84" t="s">
         <v>293</v>
       </c>
-      <c r="CM1" s="85" t="s">
+      <c r="CM1" s="84" t="s">
         <v>294</v>
       </c>
-      <c r="CN1" s="85" t="s">
+      <c r="CN1" s="84" t="s">
         <v>295</v>
       </c>
-      <c r="CO1" s="85" t="s">
+      <c r="CO1" s="84" t="s">
         <v>296</v>
       </c>
-      <c r="CP1" s="85" t="s">
+      <c r="CP1" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="CQ1" s="85" t="s">
+      <c r="CQ1" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="CR1" s="85" t="s">
+      <c r="CR1" s="84" t="s">
         <v>299</v>
       </c>
-      <c r="CS1" s="85" t="s">
+      <c r="CS1" s="84" t="s">
         <v>300</v>
       </c>
-      <c r="CT1" s="85" t="s">
+      <c r="CT1" s="84" t="s">
         <v>301</v>
       </c>
-      <c r="CU1" s="85" t="s">
+      <c r="CU1" s="84" t="s">
         <v>302</v>
       </c>
-      <c r="CV1" s="85" t="s">
+      <c r="CV1" s="84" t="s">
         <v>303</v>
       </c>
       <c r="CW1" s="3" t="s">
@@ -36104,10 +36101,10 @@
       <c r="DD1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="DE1" s="79" t="s">
+      <c r="DE1" s="78" t="s">
         <v>312</v>
       </c>
-      <c r="DF1" s="79" t="s">
+      <c r="DF1" s="78" t="s">
         <v>313</v>
       </c>
       <c r="DG1" s="3" t="s">
@@ -36125,13 +36122,13 @@
       <c r="DK1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="DL1" s="79" t="s">
+      <c r="DL1" s="78" t="s">
         <v>319</v>
       </c>
       <c r="DM1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="DN1" s="79" t="s">
+      <c r="DN1" s="78" t="s">
         <v>321</v>
       </c>
       <c r="DO1" s="3" t="s">
@@ -36224,97 +36221,97 @@
       <c r="ER1" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="ES1" s="85" t="s">
+      <c r="ES1" s="84" t="s">
         <v>352</v>
       </c>
-      <c r="ET1" s="85" t="s">
+      <c r="ET1" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="EU1" s="85" t="s">
+      <c r="EU1" s="84" t="s">
         <v>354</v>
       </c>
-      <c r="EV1" s="85" t="s">
+      <c r="EV1" s="84" t="s">
         <v>355</v>
       </c>
-      <c r="EW1" s="85" t="s">
+      <c r="EW1" s="84" t="s">
         <v>356</v>
       </c>
-      <c r="EX1" s="85" t="s">
+      <c r="EX1" s="84" t="s">
         <v>357</v>
       </c>
-      <c r="EY1" s="85" t="s">
+      <c r="EY1" s="84" t="s">
         <v>358</v>
       </c>
-      <c r="EZ1" s="85" t="s">
+      <c r="EZ1" s="84" t="s">
         <v>359</v>
       </c>
-      <c r="FA1" s="86" t="s">
+      <c r="FA1" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="FB1" s="86" t="s">
+      <c r="FB1" s="85" t="s">
         <v>361</v>
       </c>
-      <c r="FC1" s="85" t="s">
+      <c r="FC1" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="FD1" s="85" t="s">
+      <c r="FD1" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="FE1" s="85" t="s">
+      <c r="FE1" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="FF1" s="85" t="s">
+      <c r="FF1" s="84" t="s">
         <v>365</v>
       </c>
-      <c r="FG1" s="85" t="s">
+      <c r="FG1" s="84" t="s">
         <v>366</v>
       </c>
-      <c r="FH1" s="86" t="s">
+      <c r="FH1" s="85" t="s">
         <v>367</v>
       </c>
-      <c r="FI1" s="85" t="s">
+      <c r="FI1" s="84" t="s">
         <v>368</v>
       </c>
-      <c r="FJ1" s="86" t="s">
+      <c r="FJ1" s="85" t="s">
         <v>369</v>
       </c>
-      <c r="FK1" s="85" t="s">
+      <c r="FK1" s="84" t="s">
         <v>370</v>
       </c>
-      <c r="FL1" s="85" t="s">
+      <c r="FL1" s="84" t="s">
         <v>371</v>
       </c>
-      <c r="FM1" s="85" t="s">
+      <c r="FM1" s="84" t="s">
         <v>372</v>
       </c>
-      <c r="FN1" s="85" t="s">
+      <c r="FN1" s="84" t="s">
         <v>373</v>
       </c>
-      <c r="FO1" s="85" t="s">
+      <c r="FO1" s="84" t="s">
         <v>374</v>
       </c>
-      <c r="FP1" s="85" t="s">
+      <c r="FP1" s="84" t="s">
         <v>375</v>
       </c>
-      <c r="FQ1" s="85" t="s">
+      <c r="FQ1" s="84" t="s">
         <v>376</v>
       </c>
-      <c r="FR1" s="85" t="s">
+      <c r="FR1" s="84" t="s">
         <v>377</v>
       </c>
-      <c r="FS1" s="85" t="s">
+      <c r="FS1" s="84" t="s">
         <v>378</v>
       </c>
-      <c r="FT1" s="85" t="s">
+      <c r="FT1" s="84" t="s">
         <v>379</v>
       </c>
-      <c r="FU1" s="85" t="s">
+      <c r="FU1" s="84" t="s">
         <v>380</v>
       </c>
-      <c r="FV1" s="85" t="s">
+      <c r="FV1" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="FW1" s="85" t="s">
+      <c r="FW1" s="84" t="s">
         <v>382</v>
       </c>
       <c r="FX1" s="39" t="s">
@@ -36329,43 +36326,43 @@
       <c r="GA1" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="GB1" s="85" t="s">
+      <c r="GB1" s="84" t="s">
         <v>387</v>
       </c>
-      <c r="GC1" s="85" t="s">
+      <c r="GC1" s="84" t="s">
         <v>388</v>
       </c>
-      <c r="GD1" s="85" t="s">
+      <c r="GD1" s="84" t="s">
         <v>389</v>
       </c>
-      <c r="GE1" s="85" t="s">
+      <c r="GE1" s="84" t="s">
         <v>390</v>
       </c>
-      <c r="GF1" s="85" t="s">
+      <c r="GF1" s="84" t="s">
         <v>391</v>
       </c>
-      <c r="GG1" s="85" t="s">
+      <c r="GG1" s="84" t="s">
         <v>392</v>
       </c>
-      <c r="GH1" s="85" t="s">
+      <c r="GH1" s="84" t="s">
         <v>393</v>
       </c>
-      <c r="GI1" s="85" t="s">
+      <c r="GI1" s="84" t="s">
         <v>394</v>
       </c>
-      <c r="GJ1" s="85" t="s">
+      <c r="GJ1" s="84" t="s">
         <v>395</v>
       </c>
-      <c r="GK1" s="85" t="s">
+      <c r="GK1" s="84" t="s">
         <v>396</v>
       </c>
-      <c r="GL1" s="85" t="s">
+      <c r="GL1" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="GM1" s="85" t="s">
+      <c r="GM1" s="84" t="s">
         <v>398</v>
       </c>
-      <c r="GN1" s="85" t="s">
+      <c r="GN1" s="84" t="s">
         <v>399</v>
       </c>
       <c r="GO1" s="12" t="s">
@@ -36413,7 +36410,7 @@
       <c r="HC1" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="HD1" s="46" t="s">
+      <c r="HD1" s="45" t="s">
         <v>403</v>
       </c>
       <c r="HE1" s="26" t="s">
@@ -36428,7 +36425,7 @@
       <c r="HH1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="HI1" s="46" t="s">
+      <c r="HI1" s="45" t="s">
         <v>408</v>
       </c>
       <c r="HJ1" s="10" t="s">
@@ -36467,7 +36464,7 @@
       <c r="HU1" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="HV1" s="46" t="s">
+      <c r="HV1" s="45" t="s">
         <v>421</v>
       </c>
       <c r="HW1" s="26" t="s">
@@ -36482,18 +36479,18 @@
       <c r="HZ1" s="26" t="s">
         <v>425</v>
       </c>
-      <c r="IA1" s="46" t="s">
+      <c r="IA1" s="45" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="2" s="67" customFormat="1" ht="50" customHeight="1" spans="1:235">
+    <row r="2" s="66" customFormat="1" ht="50" customHeight="1" spans="1:235">
       <c r="A2" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="67" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -36519,16 +36516,16 @@
         <v>133</v>
       </c>
       <c r="L2" s="7"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="80"/>
+      <c r="T2" s="79"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="80"/>
+      <c r="V2" s="79"/>
       <c r="W2" s="7" t="s">
         <v>134</v>
       </c>
@@ -36565,10 +36562,10 @@
       <c r="AJ2" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AK2" s="83" t="s">
+      <c r="AK2" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="AL2" s="83" t="s">
+      <c r="AL2" s="82" t="s">
         <v>141</v>
       </c>
       <c r="AM2" s="24">
@@ -36621,12 +36618,9 @@
         <f t="shared" ref="BE2:BE13" si="4">I2</f>
         <v>PhuongTT</v>
       </c>
-      <c r="BF2" s="7">
-        <f t="shared" ref="BF2:BF13" si="5">J2</f>
-        <v>0</v>
-      </c>
+      <c r="BF2" s="7"/>
       <c r="BG2" s="7" t="str">
-        <f t="shared" ref="BG2:BI2" si="6">K2</f>
+        <f t="shared" ref="BG2:BI2" si="5">K2</f>
         <v>phuongtt@caro.vn</v>
       </c>
       <c r="BH2" s="7"/>
@@ -36641,23 +36635,23 @@
       <c r="BQ2" s="7"/>
       <c r="BR2" s="7"/>
       <c r="BS2" s="7" t="str">
-        <f t="shared" ref="BS2:BS13" si="7">W2</f>
+        <f t="shared" ref="BS2:BS13" si="6">W2</f>
         <v>false</v>
       </c>
       <c r="BT2" s="7" t="str">
-        <f t="shared" ref="BT2:BT13" si="8">X2</f>
+        <f t="shared" ref="BT2:BT13" si="7">X2</f>
         <v>0</v>
       </c>
       <c r="BU2" s="7" t="str">
-        <f t="shared" ref="BU2:BU13" si="9">Y2</f>
+        <f t="shared" ref="BU2:BU13" si="8">Y2</f>
         <v>false</v>
       </c>
       <c r="BV2" s="7" t="str">
-        <f t="shared" ref="BV2:BV13" si="10">Z2</f>
+        <f t="shared" ref="BV2:BV13" si="9">Z2</f>
         <v>0</v>
       </c>
       <c r="BW2" s="7" t="str">
-        <f t="shared" ref="BW2:BW13" si="11">AA2</f>
+        <f t="shared" ref="BW2:BW13" si="10">AA2</f>
         <v>0</v>
       </c>
       <c r="BX2" s="7"/>
@@ -36685,10 +36679,10 @@
         <f>AJ2</f>
         <v>NIGHT</v>
       </c>
-      <c r="CG2" s="83" t="s">
+      <c r="CG2" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="CH2" s="83" t="s">
+      <c r="CH2" s="82" t="s">
         <v>141</v>
       </c>
       <c r="CI2" s="24">
@@ -36741,16 +36735,16 @@
         <v>133</v>
       </c>
       <c r="DD2" s="7"/>
-      <c r="DE2" s="80"/>
-      <c r="DF2" s="80"/>
+      <c r="DE2" s="79"/>
+      <c r="DF2" s="79"/>
       <c r="DG2" s="7"/>
       <c r="DH2" s="7"/>
       <c r="DI2" s="7"/>
       <c r="DJ2" s="7"/>
       <c r="DK2" s="7"/>
-      <c r="DL2" s="80"/>
+      <c r="DL2" s="79"/>
       <c r="DM2" s="7"/>
-      <c r="DN2" s="80"/>
+      <c r="DN2" s="79"/>
       <c r="DO2" s="7" t="s">
         <v>134</v>
       </c>
@@ -36787,10 +36781,10 @@
       <c r="EB2" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="EC2" s="83" t="s">
+      <c r="EC2" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="ED2" s="83" t="s">
+      <c r="ED2" s="82" t="s">
         <v>141</v>
       </c>
       <c r="EE2" s="24">
@@ -36843,16 +36837,16 @@
         <v>133</v>
       </c>
       <c r="EZ2" s="7"/>
-      <c r="FA2" s="80"/>
-      <c r="FB2" s="80"/>
+      <c r="FA2" s="79"/>
+      <c r="FB2" s="79"/>
       <c r="FC2" s="7"/>
       <c r="FD2" s="7"/>
       <c r="FE2" s="7"/>
       <c r="FF2" s="7"/>
       <c r="FG2" s="7"/>
-      <c r="FH2" s="80"/>
+      <c r="FH2" s="79"/>
       <c r="FI2" s="7"/>
-      <c r="FJ2" s="80"/>
+      <c r="FJ2" s="79"/>
       <c r="FK2" s="7" t="s">
         <v>134</v>
       </c>
@@ -36889,10 +36883,10 @@
       <c r="FX2" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="FY2" s="83" t="s">
+      <c r="FY2" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="FZ2" s="83" t="s">
+      <c r="FZ2" s="82" t="s">
         <v>141</v>
       </c>
       <c r="GA2" s="24">
@@ -36925,7 +36919,7 @@
       <c r="GN2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="GO2" s="75" t="s">
+      <c r="GO2" s="74" t="s">
         <v>431</v>
       </c>
       <c r="GP2" s="26">
@@ -36938,14 +36932,14 @@
         <v>145</v>
       </c>
       <c r="GS2" s="26" t="str">
-        <f t="shared" ref="GS2:GS13" si="12">I2</f>
+        <f t="shared" ref="GS2:GS13" si="11">I2</f>
         <v>PhuongTT</v>
       </c>
       <c r="GT2" s="26" t="str">
-        <f t="shared" ref="GT2:GT13" si="13">AQ2</f>
+        <f t="shared" ref="GT2:GT13" si="12">AQ2</f>
         <v>4D</v>
       </c>
-      <c r="GU2" s="46" t="b">
+      <c r="GU2" s="45" t="b">
         <v>0</v>
       </c>
       <c r="GV2" s="26" t="s">
@@ -36960,21 +36954,21 @@
       <c r="GY2" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="GZ2" s="46" t="b">
+      <c r="GZ2" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HA2" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HB2" s="26" t="str">
-        <f t="shared" ref="HB2:HB13" si="14">I2</f>
+        <f t="shared" ref="HB2:HB13" si="13">I2</f>
         <v>PhuongTT</v>
       </c>
       <c r="HC2" s="26" t="str">
-        <f t="shared" ref="HC2:HC13" si="15">AQ2</f>
+        <f t="shared" ref="HC2:HC13" si="14">AQ2</f>
         <v>4D</v>
       </c>
-      <c r="HD2" s="46" t="b">
+      <c r="HD2" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HE2" s="26" t="s">
@@ -36989,21 +36983,21 @@
       <c r="HH2" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="HI2" s="46" t="b">
+      <c r="HI2" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HJ2" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HK2" s="26" t="str">
-        <f t="shared" ref="HK2:HK13" si="16">I2</f>
+        <f t="shared" ref="HK2:HK13" si="15">I2</f>
         <v>PhuongTT</v>
       </c>
       <c r="HL2" s="26" t="str">
-        <f t="shared" ref="HL2:HL13" si="17">AQ2</f>
+        <f t="shared" ref="HL2:HL13" si="16">AQ2</f>
         <v>4D</v>
       </c>
-      <c r="HM2" s="46" t="b">
+      <c r="HM2" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HN2" s="26" t="s">
@@ -37018,21 +37012,21 @@
       <c r="HQ2" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="HR2" s="46" t="b">
+      <c r="HR2" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HS2" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HT2" s="26" t="str">
-        <f t="shared" ref="HT2:HT13" si="18">I2</f>
+        <f t="shared" ref="HT2:HT13" si="17">I2</f>
         <v>PhuongTT</v>
       </c>
       <c r="HU2" s="26" t="str">
-        <f t="shared" ref="HU2:HU13" si="19">AQ2</f>
+        <f t="shared" ref="HU2:HU13" si="18">AQ2</f>
         <v>4D</v>
       </c>
-      <c r="HV2" s="46" t="b">
+      <c r="HV2" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HW2" s="26" t="s">
@@ -37047,18 +37041,18 @@
       <c r="HZ2" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="IA2" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="67" customFormat="1" ht="69" customHeight="1" spans="1:235">
+      <c r="IA2" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="66" customFormat="1" ht="69" customHeight="1" spans="1:235">
       <c r="A3" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>433</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -37084,16 +37078,16 @@
         <v>133</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="80"/>
+      <c r="T3" s="79"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="80"/>
+      <c r="V3" s="79"/>
       <c r="W3" s="7" t="s">
         <v>134</v>
       </c>
@@ -37130,11 +37124,11 @@
       <c r="AJ3" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AK3" s="84">
+      <c r="AK3" s="83">
         <f>AK2+TIME(0,8,0)</f>
         <v>0.755555555555556</v>
       </c>
-      <c r="AL3" s="83">
+      <c r="AL3" s="82">
         <f>AL2+TIME(0,8,0)</f>
         <v>0.855555555555556</v>
       </c>
@@ -37198,43 +37192,40 @@
         <f t="shared" si="4"/>
         <v>Trần Phương MB</v>
       </c>
-      <c r="BF3" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="BF3" s="7"/>
       <c r="BG3" s="7" t="str">
-        <f t="shared" ref="BG2:BG13" si="20">K3</f>
+        <f t="shared" ref="BG2:BG13" si="19">K3</f>
         <v>phuongtt@caro.vn</v>
       </c>
       <c r="BH3" s="7"/>
       <c r="BI3" s="7"/>
-      <c r="BJ3" s="80"/>
+      <c r="BJ3" s="79"/>
       <c r="BK3" s="7"/>
       <c r="BL3" s="7"/>
       <c r="BM3" s="7"/>
       <c r="BN3" s="7"/>
       <c r="BO3" s="7"/>
-      <c r="BP3" s="80"/>
+      <c r="BP3" s="79"/>
       <c r="BQ3" s="7"/>
-      <c r="BR3" s="80"/>
+      <c r="BR3" s="79"/>
       <c r="BS3" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>false</v>
+      </c>
+      <c r="BT3" s="7" t="str">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BU3" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>false</v>
       </c>
-      <c r="BT3" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BU3" s="7" t="str">
+      <c r="BV3" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>false</v>
-      </c>
-      <c r="BV3" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BW3" s="7" t="str">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BX3" s="7"/>
@@ -37258,12 +37249,12 @@
       <c r="CF3" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="CG3" s="84">
-        <f t="shared" ref="CG3:CG13" si="21">CG2+TIME(0,8,0)</f>
+      <c r="CG3" s="83">
+        <f t="shared" ref="CG3:CG13" si="20">CG2+TIME(0,8,0)</f>
         <v>0.755555555555556</v>
       </c>
-      <c r="CH3" s="83">
-        <f t="shared" ref="CH3:CH13" si="22">CH2+TIME(0,8,0)</f>
+      <c r="CH3" s="82">
+        <f t="shared" ref="CH3:CH13" si="21">CH2+TIME(0,8,0)</f>
         <v>0.855555555555556</v>
       </c>
       <c r="CI3" s="24">
@@ -37326,16 +37317,16 @@
         <v>133</v>
       </c>
       <c r="DD3" s="7"/>
-      <c r="DE3" s="80"/>
-      <c r="DF3" s="80"/>
+      <c r="DE3" s="79"/>
+      <c r="DF3" s="79"/>
       <c r="DG3" s="7"/>
       <c r="DH3" s="7"/>
       <c r="DI3" s="7"/>
       <c r="DJ3" s="7"/>
       <c r="DK3" s="7"/>
-      <c r="DL3" s="80"/>
+      <c r="DL3" s="79"/>
       <c r="DM3" s="7"/>
-      <c r="DN3" s="80"/>
+      <c r="DN3" s="79"/>
       <c r="DO3" s="7" t="s">
         <v>134</v>
       </c>
@@ -37372,12 +37363,12 @@
       <c r="EB3" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="EC3" s="84">
-        <f t="shared" ref="EC3:EC13" si="23">EC2+TIME(0,8,0)</f>
+      <c r="EC3" s="83">
+        <f t="shared" ref="EC3:EC13" si="22">EC2+TIME(0,8,0)</f>
         <v>0.755555555555556</v>
       </c>
-      <c r="ED3" s="83">
-        <f t="shared" ref="ED3:ED13" si="24">ED2+TIME(0,8,0)</f>
+      <c r="ED3" s="82">
+        <f t="shared" ref="ED3:ED13" si="23">ED2+TIME(0,8,0)</f>
         <v>0.855555555555556</v>
       </c>
       <c r="EE3" s="24">
@@ -37440,16 +37431,16 @@
         <v>133</v>
       </c>
       <c r="EZ3" s="7"/>
-      <c r="FA3" s="80"/>
-      <c r="FB3" s="80"/>
+      <c r="FA3" s="79"/>
+      <c r="FB3" s="79"/>
       <c r="FC3" s="7"/>
       <c r="FD3" s="7"/>
       <c r="FE3" s="7"/>
       <c r="FF3" s="7"/>
       <c r="FG3" s="7"/>
-      <c r="FH3" s="80"/>
+      <c r="FH3" s="79"/>
       <c r="FI3" s="7"/>
-      <c r="FJ3" s="80"/>
+      <c r="FJ3" s="79"/>
       <c r="FK3" s="7" t="s">
         <v>134</v>
       </c>
@@ -37486,12 +37477,12 @@
       <c r="FX3" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="FY3" s="84">
-        <f t="shared" ref="FY3:FY13" si="25">FY2+TIME(0,8,0)</f>
+      <c r="FY3" s="83">
+        <f t="shared" ref="FY3:FY13" si="24">FY2+TIME(0,8,0)</f>
         <v>0.755555555555556</v>
       </c>
-      <c r="FZ3" s="83">
-        <f t="shared" ref="FZ3:FZ13" si="26">FZ2+TIME(0,8,0)</f>
+      <c r="FZ3" s="82">
+        <f t="shared" ref="FZ3:FZ13" si="25">FZ2+TIME(0,8,0)</f>
         <v>0.855555555555556</v>
       </c>
       <c r="GA3" s="24">
@@ -37534,7 +37525,7 @@
       <c r="GN3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="GO3" s="75" t="s">
+      <c r="GO3" s="74" t="s">
         <v>431</v>
       </c>
       <c r="GP3" s="26">
@@ -37547,14 +37538,14 @@
         <v>145</v>
       </c>
       <c r="GS3" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="GT3" s="26">
         <f t="shared" si="12"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="GT3" s="26">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="GU3" s="46" t="b">
+      <c r="GU3" s="45" t="b">
         <v>0</v>
       </c>
       <c r="GV3" s="26" t="s">
@@ -37569,21 +37560,21 @@
       <c r="GY3" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="GZ3" s="46" t="b">
+      <c r="GZ3" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HA3" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HB3" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="HC3" s="26">
         <f t="shared" si="14"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="HC3" s="26">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="HD3" s="46" t="b">
+      <c r="HD3" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HE3" s="26" t="s">
@@ -37598,21 +37589,21 @@
       <c r="HH3" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="HI3" s="46" t="b">
+      <c r="HI3" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HJ3" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HK3" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="HL3" s="26">
         <f t="shared" si="16"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="HL3" s="26">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="HM3" s="46" t="b">
+      <c r="HM3" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HN3" s="26" t="s">
@@ -37627,21 +37618,21 @@
       <c r="HQ3" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="HR3" s="46" t="b">
+      <c r="HR3" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HS3" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HT3" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="HU3" s="26">
         <f t="shared" si="18"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="HU3" s="26">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="HV3" s="46" t="b">
+      <c r="HV3" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HW3" s="26" t="s">
@@ -37656,18 +37647,18 @@
       <c r="HZ3" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="IA3" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="67" customFormat="1" ht="69" customHeight="1" spans="1:235">
+      <c r="IA3" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="66" customFormat="1" ht="69" customHeight="1" spans="1:235">
       <c r="A4" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="67" t="s">
         <v>435</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -37693,8 +37684,8 @@
         <v>133</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -37739,12 +37730,12 @@
       <c r="AJ4" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AK4" s="84">
-        <f t="shared" ref="AK4:AK13" si="27">AK3+TIME(0,8,0)</f>
+      <c r="AK4" s="83">
+        <f t="shared" ref="AK4:AK13" si="26">AK3+TIME(0,8,0)</f>
         <v>0.761111111111111</v>
       </c>
-      <c r="AL4" s="83">
-        <f t="shared" ref="AL4:AL13" si="28">AL3+TIME(0,8,0)</f>
+      <c r="AL4" s="82">
+        <f t="shared" ref="AL4:AL13" si="27">AL3+TIME(0,8,0)</f>
         <v>0.861111111111111</v>
       </c>
       <c r="AM4" s="24">
@@ -37805,17 +37796,14 @@
         <f t="shared" si="4"/>
         <v>Trần Phương MB</v>
       </c>
-      <c r="BF4" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="BF4" s="7"/>
       <c r="BG4" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>phuongtt@caro.vn</v>
       </c>
       <c r="BH4" s="7"/>
       <c r="BI4" s="7"/>
-      <c r="BJ4" s="80"/>
+      <c r="BJ4" s="79"/>
       <c r="BK4" s="7"/>
       <c r="BL4" s="7"/>
       <c r="BM4" s="7"/>
@@ -37825,23 +37813,23 @@
       <c r="BQ4" s="7"/>
       <c r="BR4" s="7"/>
       <c r="BS4" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>false</v>
+      </c>
+      <c r="BT4" s="7" t="str">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BU4" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>false</v>
       </c>
-      <c r="BT4" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BU4" s="7" t="str">
+      <c r="BV4" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>false</v>
-      </c>
-      <c r="BV4" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BW4" s="7" t="str">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BX4" s="7"/>
@@ -37865,12 +37853,12 @@
       <c r="CF4" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="CG4" s="84">
+      <c r="CG4" s="83">
+        <f t="shared" si="20"/>
+        <v>0.761111111111111</v>
+      </c>
+      <c r="CH4" s="82">
         <f t="shared" si="21"/>
-        <v>0.761111111111111</v>
-      </c>
-      <c r="CH4" s="83">
-        <f t="shared" si="22"/>
         <v>0.861111111111111</v>
       </c>
       <c r="CI4" s="24">
@@ -37931,8 +37919,8 @@
         <v>133</v>
       </c>
       <c r="DD4" s="7"/>
-      <c r="DE4" s="80"/>
-      <c r="DF4" s="80"/>
+      <c r="DE4" s="79"/>
+      <c r="DF4" s="79"/>
       <c r="DG4" s="7"/>
       <c r="DH4" s="7"/>
       <c r="DI4" s="7"/>
@@ -37977,12 +37965,12 @@
       <c r="EB4" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="EC4" s="84">
+      <c r="EC4" s="83">
+        <f t="shared" si="22"/>
+        <v>0.761111111111111</v>
+      </c>
+      <c r="ED4" s="82">
         <f t="shared" si="23"/>
-        <v>0.761111111111111</v>
-      </c>
-      <c r="ED4" s="83">
-        <f t="shared" si="24"/>
         <v>0.861111111111111</v>
       </c>
       <c r="EE4" s="24">
@@ -38043,8 +38031,8 @@
         <v>133</v>
       </c>
       <c r="EZ4" s="7"/>
-      <c r="FA4" s="80"/>
-      <c r="FB4" s="80"/>
+      <c r="FA4" s="79"/>
+      <c r="FB4" s="79"/>
       <c r="FC4" s="7"/>
       <c r="FD4" s="7"/>
       <c r="FE4" s="7"/>
@@ -38089,12 +38077,12 @@
       <c r="FX4" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="FY4" s="84">
+      <c r="FY4" s="83">
+        <f t="shared" si="24"/>
+        <v>0.761111111111111</v>
+      </c>
+      <c r="FZ4" s="82">
         <f t="shared" si="25"/>
-        <v>0.761111111111111</v>
-      </c>
-      <c r="FZ4" s="83">
-        <f t="shared" si="26"/>
         <v>0.861111111111111</v>
       </c>
       <c r="GA4" s="24">
@@ -38135,7 +38123,7 @@
       <c r="GN4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="GO4" s="75" t="s">
+      <c r="GO4" s="74" t="s">
         <v>431</v>
       </c>
       <c r="GP4" s="26">
@@ -38148,14 +38136,14 @@
         <v>145</v>
       </c>
       <c r="GS4" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="GT4" s="26">
         <f t="shared" si="12"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="GT4" s="26">
-        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="GU4" s="46" t="b">
+      <c r="GU4" s="45" t="b">
         <v>0</v>
       </c>
       <c r="GV4" s="26" t="s">
@@ -38170,21 +38158,21 @@
       <c r="GY4" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="GZ4" s="46" t="b">
+      <c r="GZ4" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HA4" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HB4" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="HC4" s="26">
         <f t="shared" si="14"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="HC4" s="26">
-        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="HD4" s="46" t="b">
+      <c r="HD4" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HE4" s="26" t="s">
@@ -38199,21 +38187,21 @@
       <c r="HH4" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="HI4" s="46" t="b">
+      <c r="HI4" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HJ4" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HK4" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="HL4" s="26">
         <f t="shared" si="16"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="HL4" s="26">
-        <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="HM4" s="46" t="b">
+      <c r="HM4" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HN4" s="26" t="s">
@@ -38228,21 +38216,21 @@
       <c r="HQ4" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="HR4" s="46" t="b">
+      <c r="HR4" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HS4" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HT4" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="HU4" s="26">
         <f t="shared" si="18"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="HU4" s="26">
-        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="HV4" s="46" t="b">
+      <c r="HV4" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HW4" s="26" t="s">
@@ -38257,18 +38245,18 @@
       <c r="HZ4" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="IA4" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="67" customFormat="1" ht="70" customHeight="1" spans="1:235">
+      <c r="IA4" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="66" customFormat="1" ht="70" customHeight="1" spans="1:235">
       <c r="A5" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>437</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -38294,8 +38282,8 @@
         <v>133</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -38340,12 +38328,12 @@
       <c r="AJ5" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AK5" s="84">
+      <c r="AK5" s="83">
+        <f t="shared" si="26"/>
+        <v>0.766666666666667</v>
+      </c>
+      <c r="AL5" s="82">
         <f t="shared" si="27"/>
-        <v>0.766666666666667</v>
-      </c>
-      <c r="AL5" s="83">
-        <f t="shared" si="28"/>
         <v>0.866666666666667</v>
       </c>
       <c r="AM5" s="24">
@@ -38398,17 +38386,14 @@
         <f t="shared" si="4"/>
         <v>Khách None Golf</v>
       </c>
-      <c r="BF5" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="BF5" s="7"/>
       <c r="BG5" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>phuongtt@caro.vn</v>
       </c>
       <c r="BH5" s="7"/>
       <c r="BI5" s="7"/>
-      <c r="BJ5" s="80"/>
+      <c r="BJ5" s="79"/>
       <c r="BK5" s="7"/>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
@@ -38418,23 +38403,23 @@
       <c r="BQ5" s="7"/>
       <c r="BR5" s="7"/>
       <c r="BS5" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>false</v>
+      </c>
+      <c r="BT5" s="7" t="str">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BU5" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>false</v>
       </c>
-      <c r="BT5" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BU5" s="7" t="str">
+      <c r="BV5" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>false</v>
-      </c>
-      <c r="BV5" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BW5" s="7" t="str">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BX5" s="7"/>
@@ -38458,12 +38443,12 @@
       <c r="CF5" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="CG5" s="84">
+      <c r="CG5" s="83">
+        <f t="shared" si="20"/>
+        <v>0.766666666666667</v>
+      </c>
+      <c r="CH5" s="82">
         <f t="shared" si="21"/>
-        <v>0.766666666666667</v>
-      </c>
-      <c r="CH5" s="83">
-        <f t="shared" si="22"/>
         <v>0.866666666666667</v>
       </c>
       <c r="CI5" s="24">
@@ -38516,8 +38501,8 @@
         <v>133</v>
       </c>
       <c r="DD5" s="7"/>
-      <c r="DE5" s="80"/>
-      <c r="DF5" s="80"/>
+      <c r="DE5" s="79"/>
+      <c r="DF5" s="79"/>
       <c r="DG5" s="7"/>
       <c r="DH5" s="7"/>
       <c r="DI5" s="7"/>
@@ -38562,12 +38547,12 @@
       <c r="EB5" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="EC5" s="84">
+      <c r="EC5" s="83">
+        <f t="shared" si="22"/>
+        <v>0.766666666666667</v>
+      </c>
+      <c r="ED5" s="82">
         <f t="shared" si="23"/>
-        <v>0.766666666666667</v>
-      </c>
-      <c r="ED5" s="83">
-        <f t="shared" si="24"/>
         <v>0.866666666666667</v>
       </c>
       <c r="EE5" s="24">
@@ -38620,8 +38605,8 @@
         <v>133</v>
       </c>
       <c r="EZ5" s="7"/>
-      <c r="FA5" s="80"/>
-      <c r="FB5" s="80"/>
+      <c r="FA5" s="79"/>
+      <c r="FB5" s="79"/>
       <c r="FC5" s="7"/>
       <c r="FD5" s="7"/>
       <c r="FE5" s="7"/>
@@ -38666,12 +38651,12 @@
       <c r="FX5" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="FY5" s="84">
+      <c r="FY5" s="83">
+        <f t="shared" si="24"/>
+        <v>0.766666666666667</v>
+      </c>
+      <c r="FZ5" s="82">
         <f t="shared" si="25"/>
-        <v>0.766666666666667</v>
-      </c>
-      <c r="FZ5" s="83">
-        <f t="shared" si="26"/>
         <v>0.866666666666667</v>
       </c>
       <c r="GA5" s="24">
@@ -38704,7 +38689,7 @@
       <c r="GN5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="GO5" s="75" t="s">
+      <c r="GO5" s="74" t="s">
         <v>431</v>
       </c>
       <c r="GP5" s="26">
@@ -38717,14 +38702,14 @@
         <v>145</v>
       </c>
       <c r="GS5" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>Khách None Golf</v>
+      </c>
+      <c r="GT5" s="26">
         <f t="shared" si="12"/>
-        <v>Khách None Golf</v>
-      </c>
-      <c r="GT5" s="26">
-        <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="GU5" s="46" t="b">
+      <c r="GU5" s="45" t="b">
         <v>0</v>
       </c>
       <c r="GV5" s="26" t="s">
@@ -38739,21 +38724,21 @@
       <c r="GY5" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="GZ5" s="46" t="b">
+      <c r="GZ5" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HA5" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HB5" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Khách None Golf</v>
+      </c>
+      <c r="HC5" s="26">
         <f t="shared" si="14"/>
-        <v>Khách None Golf</v>
-      </c>
-      <c r="HC5" s="26">
-        <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="HD5" s="46" t="b">
+      <c r="HD5" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HE5" s="26" t="s">
@@ -38768,21 +38753,21 @@
       <c r="HH5" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="HI5" s="46" t="b">
+      <c r="HI5" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HJ5" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HK5" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>Khách None Golf</v>
+      </c>
+      <c r="HL5" s="26">
         <f t="shared" si="16"/>
-        <v>Khách None Golf</v>
-      </c>
-      <c r="HL5" s="26">
-        <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="HM5" s="46" t="b">
+      <c r="HM5" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HN5" s="26" t="s">
@@ -38797,21 +38782,21 @@
       <c r="HQ5" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="HR5" s="46" t="b">
+      <c r="HR5" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HS5" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HT5" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v>Khách None Golf</v>
+      </c>
+      <c r="HU5" s="26">
         <f t="shared" si="18"/>
-        <v>Khách None Golf</v>
-      </c>
-      <c r="HU5" s="26">
-        <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="HV5" s="46" t="b">
+      <c r="HV5" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HW5" s="26" t="s">
@@ -38826,18 +38811,18 @@
       <c r="HZ5" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="IA5" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="67" customFormat="1" ht="70" customHeight="1" spans="1:235">
+      <c r="IA5" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="66" customFormat="1" ht="70" customHeight="1" spans="1:235">
       <c r="A6" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="67" t="s">
         <v>439</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -38858,19 +38843,19 @@
       <c r="I6" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="80" t="s">
         <v>168</v>
       </c>
       <c r="L6" s="7">
         <v>378</v>
       </c>
-      <c r="M6" s="80" t="s">
+      <c r="M6" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="N6" s="80" t="s">
+      <c r="N6" s="79" t="s">
         <v>134</v>
       </c>
       <c r="O6" s="7">
@@ -38888,7 +38873,7 @@
       <c r="S6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="T6" s="80" t="s">
+      <c r="T6" s="79" t="s">
         <v>169</v>
       </c>
       <c r="U6" s="7" t="s">
@@ -38933,12 +38918,12 @@
       <c r="AJ6" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AK6" s="84">
+      <c r="AK6" s="83">
+        <f t="shared" si="26"/>
+        <v>0.772222222222222</v>
+      </c>
+      <c r="AL6" s="82">
         <f t="shared" si="27"/>
-        <v>0.772222222222222</v>
-      </c>
-      <c r="AL6" s="83">
-        <f t="shared" si="28"/>
         <v>0.872222222222222</v>
       </c>
       <c r="AM6" s="24">
@@ -38991,23 +38976,23 @@
         <f t="shared" si="4"/>
         <v>VNPAY</v>
       </c>
-      <c r="BF6" s="94" t="str">
-        <f t="shared" si="5"/>
+      <c r="BF6" s="93" t="str">
+        <f>J6</f>
         <v>0355653300</v>
       </c>
       <c r="BG6" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>vnpay00@vnpay.vn</v>
       </c>
       <c r="BH6" s="7">
-        <f t="shared" ref="BH3:BH13" si="29">L6</f>
+        <f t="shared" ref="BH3:BH13" si="28">L6</f>
         <v>378</v>
       </c>
       <c r="BI6" s="7" t="str">
-        <f t="shared" ref="BI3:BI13" si="30">M6</f>
+        <f t="shared" ref="BI3:BI13" si="29">M6</f>
         <v>false</v>
       </c>
-      <c r="BJ6" s="80" t="s">
+      <c r="BJ6" s="79" t="s">
         <v>134</v>
       </c>
       <c r="BK6" s="7">
@@ -39025,7 +39010,7 @@
       <c r="BO6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="BP6" s="80" t="s">
+      <c r="BP6" s="79" t="s">
         <v>169</v>
       </c>
       <c r="BQ6" s="7" t="s">
@@ -39035,23 +39020,23 @@
         <v>142</v>
       </c>
       <c r="BS6" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>false</v>
+      </c>
+      <c r="BT6" s="7" t="str">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BU6" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>false</v>
       </c>
-      <c r="BT6" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BU6" s="7" t="str">
+      <c r="BV6" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>false</v>
-      </c>
-      <c r="BV6" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BW6" s="7" t="str">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BX6" s="7"/>
@@ -39075,12 +39060,12 @@
       <c r="CF6" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="CG6" s="84">
+      <c r="CG6" s="83">
+        <f t="shared" si="20"/>
+        <v>0.772222222222222</v>
+      </c>
+      <c r="CH6" s="82">
         <f t="shared" si="21"/>
-        <v>0.772222222222222</v>
-      </c>
-      <c r="CH6" s="83">
-        <f t="shared" si="22"/>
         <v>0.872222222222222</v>
       </c>
       <c r="CI6" s="24">
@@ -39128,19 +39113,19 @@
       <c r="DA6" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="DB6" s="94" t="s">
+      <c r="DB6" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="DC6" s="81" t="s">
+      <c r="DC6" s="80" t="s">
         <v>168</v>
       </c>
       <c r="DD6" s="7">
         <v>378</v>
       </c>
-      <c r="DE6" s="80" t="s">
+      <c r="DE6" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="DF6" s="80" t="s">
+      <c r="DF6" s="79" t="s">
         <v>134</v>
       </c>
       <c r="DG6" s="7">
@@ -39158,7 +39143,7 @@
       <c r="DK6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="DL6" s="80" t="s">
+      <c r="DL6" s="79" t="s">
         <v>169</v>
       </c>
       <c r="DM6" s="7" t="s">
@@ -39203,12 +39188,12 @@
       <c r="EB6" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="EC6" s="84">
+      <c r="EC6" s="83">
+        <f t="shared" si="22"/>
+        <v>0.772222222222222</v>
+      </c>
+      <c r="ED6" s="82">
         <f t="shared" si="23"/>
-        <v>0.772222222222222</v>
-      </c>
-      <c r="ED6" s="83">
-        <f t="shared" si="24"/>
         <v>0.872222222222222</v>
       </c>
       <c r="EE6" s="24">
@@ -39256,19 +39241,19 @@
       <c r="EW6" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="EX6" s="94" t="s">
+      <c r="EX6" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="EY6" s="81" t="s">
+      <c r="EY6" s="80" t="s">
         <v>168</v>
       </c>
       <c r="EZ6" s="7">
         <v>378</v>
       </c>
-      <c r="FA6" s="80" t="s">
+      <c r="FA6" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="FB6" s="80" t="s">
+      <c r="FB6" s="79" t="s">
         <v>134</v>
       </c>
       <c r="FC6" s="7">
@@ -39286,7 +39271,7 @@
       <c r="FG6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="FH6" s="80" t="s">
+      <c r="FH6" s="79" t="s">
         <v>169</v>
       </c>
       <c r="FI6" s="7" t="s">
@@ -39331,12 +39316,12 @@
       <c r="FX6" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="FY6" s="84">
+      <c r="FY6" s="83">
+        <f t="shared" si="24"/>
+        <v>0.772222222222222</v>
+      </c>
+      <c r="FZ6" s="82">
         <f t="shared" si="25"/>
-        <v>0.772222222222222</v>
-      </c>
-      <c r="FZ6" s="83">
-        <f t="shared" si="26"/>
         <v>0.872222222222222</v>
       </c>
       <c r="GA6" s="24">
@@ -39369,7 +39354,7 @@
       <c r="GN6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="GO6" s="75" t="s">
+      <c r="GO6" s="74" t="s">
         <v>431</v>
       </c>
       <c r="GP6" s="26">
@@ -39382,14 +39367,14 @@
         <v>145</v>
       </c>
       <c r="GS6" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="GT6" s="26" t="str">
         <f t="shared" si="12"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="GT6" s="26" t="str">
-        <f t="shared" si="13"/>
         <v>5D</v>
       </c>
-      <c r="GU6" s="46" t="b">
+      <c r="GU6" s="45" t="b">
         <v>0</v>
       </c>
       <c r="GV6" s="26" t="s">
@@ -39404,21 +39389,21 @@
       <c r="GY6" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="GZ6" s="46" t="b">
+      <c r="GZ6" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HA6" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HB6" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="HC6" s="26" t="str">
         <f t="shared" si="14"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="HC6" s="26" t="str">
-        <f t="shared" si="15"/>
         <v>5D</v>
       </c>
-      <c r="HD6" s="46" t="b">
+      <c r="HD6" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HE6" s="26" t="s">
@@ -39433,21 +39418,21 @@
       <c r="HH6" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="HI6" s="46" t="b">
+      <c r="HI6" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HJ6" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HK6" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="HL6" s="26" t="str">
         <f t="shared" si="16"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="HL6" s="26" t="str">
-        <f t="shared" si="17"/>
         <v>5D</v>
       </c>
-      <c r="HM6" s="46" t="b">
+      <c r="HM6" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HN6" s="26" t="s">
@@ -39462,21 +39447,21 @@
       <c r="HQ6" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="HR6" s="46" t="b">
+      <c r="HR6" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HS6" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HT6" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="HU6" s="26" t="str">
         <f t="shared" si="18"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="HU6" s="26" t="str">
-        <f t="shared" si="19"/>
         <v>5D</v>
       </c>
-      <c r="HV6" s="46" t="b">
+      <c r="HV6" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HW6" s="26" t="s">
@@ -39491,18 +39476,18 @@
       <c r="HZ6" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="IA6" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="67" customFormat="1" ht="69" customHeight="1" spans="1:235">
+      <c r="IA6" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="66" customFormat="1" ht="69" customHeight="1" spans="1:235">
       <c r="A7" s="7" t="s">
         <v>441</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -39528,16 +39513,16 @@
         <v>133</v>
       </c>
       <c r="L7" s="7"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="80"/>
+      <c r="T7" s="79"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="79"/>
       <c r="W7" s="7" t="s">
         <v>134</v>
       </c>
@@ -39563,10 +39548,10 @@
       <c r="AE7" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="AF7" s="94" t="s">
+      <c r="AF7" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="AG7" s="94" t="s">
+      <c r="AG7" s="93" t="s">
         <v>60</v>
       </c>
       <c r="AH7" s="7" t="s">
@@ -39578,12 +39563,12 @@
       <c r="AJ7" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AK7" s="84">
+      <c r="AK7" s="83">
+        <f t="shared" si="26"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="AL7" s="82">
         <f t="shared" si="27"/>
-        <v>0.777777777777778</v>
-      </c>
-      <c r="AL7" s="83">
-        <f t="shared" si="28"/>
         <v>0.877777777777778</v>
       </c>
       <c r="AM7" s="24">
@@ -39636,43 +39621,40 @@
         <f t="shared" si="4"/>
         <v>PhuongTT</v>
       </c>
-      <c r="BF7" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="BF7" s="7"/>
       <c r="BG7" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>phuongtt@caro.vn</v>
       </c>
       <c r="BH7" s="7"/>
       <c r="BI7" s="7"/>
-      <c r="BJ7" s="80"/>
+      <c r="BJ7" s="79"/>
       <c r="BK7" s="7"/>
       <c r="BL7" s="7"/>
       <c r="BM7" s="7"/>
       <c r="BN7" s="7"/>
       <c r="BO7" s="7"/>
-      <c r="BP7" s="80"/>
+      <c r="BP7" s="79"/>
       <c r="BQ7" s="7"/>
-      <c r="BR7" s="80"/>
+      <c r="BR7" s="79"/>
       <c r="BS7" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>false</v>
+      </c>
+      <c r="BT7" s="7" t="str">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BU7" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>false</v>
       </c>
-      <c r="BT7" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BU7" s="7" t="str">
+      <c r="BV7" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>false</v>
-      </c>
-      <c r="BV7" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BW7" s="7" t="str">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BX7" s="7"/>
@@ -39696,12 +39678,12 @@
       <c r="CF7" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="CG7" s="84">
+      <c r="CG7" s="83">
+        <f t="shared" si="20"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="CH7" s="82">
         <f t="shared" si="21"/>
-        <v>0.777777777777778</v>
-      </c>
-      <c r="CH7" s="83">
-        <f t="shared" si="22"/>
         <v>0.877777777777778</v>
       </c>
       <c r="CI7" s="24">
@@ -39754,16 +39736,16 @@
         <v>133</v>
       </c>
       <c r="DD7" s="7"/>
-      <c r="DE7" s="80"/>
-      <c r="DF7" s="80"/>
+      <c r="DE7" s="79"/>
+      <c r="DF7" s="79"/>
       <c r="DG7" s="7"/>
       <c r="DH7" s="7"/>
       <c r="DI7" s="7"/>
       <c r="DJ7" s="7"/>
       <c r="DK7" s="7"/>
-      <c r="DL7" s="80"/>
+      <c r="DL7" s="79"/>
       <c r="DM7" s="7"/>
-      <c r="DN7" s="80"/>
+      <c r="DN7" s="79"/>
       <c r="DO7" s="7" t="s">
         <v>134</v>
       </c>
@@ -39800,12 +39782,12 @@
       <c r="EB7" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="EC7" s="84">
+      <c r="EC7" s="83">
+        <f t="shared" si="22"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="ED7" s="82">
         <f t="shared" si="23"/>
-        <v>0.777777777777778</v>
-      </c>
-      <c r="ED7" s="83">
-        <f t="shared" si="24"/>
         <v>0.877777777777778</v>
       </c>
       <c r="EE7" s="24">
@@ -39858,16 +39840,16 @@
         <v>133</v>
       </c>
       <c r="EZ7" s="7"/>
-      <c r="FA7" s="80"/>
-      <c r="FB7" s="80"/>
+      <c r="FA7" s="79"/>
+      <c r="FB7" s="79"/>
       <c r="FC7" s="7"/>
       <c r="FD7" s="7"/>
       <c r="FE7" s="7"/>
       <c r="FF7" s="7"/>
       <c r="FG7" s="7"/>
-      <c r="FH7" s="80"/>
+      <c r="FH7" s="79"/>
       <c r="FI7" s="7"/>
-      <c r="FJ7" s="80"/>
+      <c r="FJ7" s="79"/>
       <c r="FK7" s="7" t="s">
         <v>134</v>
       </c>
@@ -39904,12 +39886,12 @@
       <c r="FX7" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="FY7" s="84">
+      <c r="FY7" s="83">
+        <f t="shared" si="24"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="FZ7" s="82">
         <f t="shared" si="25"/>
-        <v>0.777777777777778</v>
-      </c>
-      <c r="FZ7" s="83">
-        <f t="shared" si="26"/>
         <v>0.877777777777778</v>
       </c>
       <c r="GA7" s="24">
@@ -39942,7 +39924,7 @@
       <c r="GN7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="GO7" s="75" t="s">
+      <c r="GO7" s="74" t="s">
         <v>431</v>
       </c>
       <c r="GP7" s="26">
@@ -39955,14 +39937,14 @@
         <v>145</v>
       </c>
       <c r="GS7" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>PhuongTT</v>
+      </c>
+      <c r="GT7" s="26" t="str">
         <f t="shared" si="12"/>
-        <v>PhuongTT</v>
-      </c>
-      <c r="GT7" s="26" t="str">
-        <f t="shared" si="13"/>
         <v>4D</v>
       </c>
-      <c r="GU7" s="46" t="b">
+      <c r="GU7" s="45" t="b">
         <v>0</v>
       </c>
       <c r="GV7" s="26" t="s">
@@ -39977,21 +39959,21 @@
       <c r="GY7" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="GZ7" s="46" t="b">
+      <c r="GZ7" s="45" t="b">
         <v>1</v>
       </c>
       <c r="HA7" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HB7" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>PhuongTT</v>
+      </c>
+      <c r="HC7" s="26" t="str">
         <f t="shared" si="14"/>
-        <v>PhuongTT</v>
-      </c>
-      <c r="HC7" s="26" t="str">
-        <f t="shared" si="15"/>
         <v>4D</v>
       </c>
-      <c r="HD7" s="46" t="b">
+      <c r="HD7" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HE7" s="26" t="s">
@@ -40006,21 +39988,21 @@
       <c r="HH7" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="HI7" s="46" t="b">
+      <c r="HI7" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HJ7" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HK7" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>PhuongTT</v>
+      </c>
+      <c r="HL7" s="26" t="str">
         <f t="shared" si="16"/>
-        <v>PhuongTT</v>
-      </c>
-      <c r="HL7" s="26" t="str">
-        <f t="shared" si="17"/>
         <v>4D</v>
       </c>
-      <c r="HM7" s="46" t="b">
+      <c r="HM7" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HN7" s="26" t="s">
@@ -40035,21 +40017,21 @@
       <c r="HQ7" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="HR7" s="46" t="b">
+      <c r="HR7" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HS7" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HT7" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v>PhuongTT</v>
+      </c>
+      <c r="HU7" s="26" t="str">
         <f t="shared" si="18"/>
-        <v>PhuongTT</v>
-      </c>
-      <c r="HU7" s="26" t="str">
-        <f t="shared" si="19"/>
         <v>4D</v>
       </c>
-      <c r="HV7" s="46" t="b">
+      <c r="HV7" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HW7" s="26" t="s">
@@ -40064,18 +40046,18 @@
       <c r="HZ7" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="IA7" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="67" customFormat="1" ht="69" customHeight="1" spans="1:235">
+      <c r="IA7" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="66" customFormat="1" ht="69" customHeight="1" spans="1:235">
       <c r="A8" s="7" t="s">
         <v>443</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -40101,16 +40083,16 @@
         <v>133</v>
       </c>
       <c r="L8" s="7"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="80"/>
+      <c r="T8" s="79"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="79"/>
       <c r="W8" s="7" t="s">
         <v>134</v>
       </c>
@@ -40136,10 +40118,10 @@
       <c r="AE8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AF8" s="94" t="s">
+      <c r="AF8" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="AG8" s="94" t="s">
+      <c r="AG8" s="93" t="s">
         <v>63</v>
       </c>
       <c r="AH8" s="7" t="s">
@@ -40151,12 +40133,12 @@
       <c r="AJ8" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AK8" s="84">
+      <c r="AK8" s="83">
+        <f t="shared" si="26"/>
+        <v>0.783333333333333</v>
+      </c>
+      <c r="AL8" s="82">
         <f t="shared" si="27"/>
-        <v>0.783333333333333</v>
-      </c>
-      <c r="AL8" s="83">
-        <f t="shared" si="28"/>
         <v>0.883333333333333</v>
       </c>
       <c r="AM8" s="24">
@@ -40219,43 +40201,40 @@
         <f t="shared" si="4"/>
         <v>Trần Phương MB</v>
       </c>
-      <c r="BF8" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="BF8" s="7"/>
       <c r="BG8" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>phuongtt@caro.vn</v>
       </c>
       <c r="BH8" s="7"/>
       <c r="BI8" s="7"/>
-      <c r="BJ8" s="80"/>
+      <c r="BJ8" s="79"/>
       <c r="BK8" s="7"/>
       <c r="BL8" s="7"/>
       <c r="BM8" s="7"/>
       <c r="BN8" s="7"/>
       <c r="BO8" s="7"/>
-      <c r="BP8" s="80"/>
+      <c r="BP8" s="79"/>
       <c r="BQ8" s="7"/>
-      <c r="BR8" s="80"/>
+      <c r="BR8" s="79"/>
       <c r="BS8" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>false</v>
+      </c>
+      <c r="BT8" s="7" t="str">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BU8" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>false</v>
       </c>
-      <c r="BT8" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BU8" s="7" t="str">
+      <c r="BV8" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>false</v>
-      </c>
-      <c r="BV8" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BW8" s="7" t="str">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BX8" s="7"/>
@@ -40279,12 +40258,12 @@
       <c r="CF8" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="CG8" s="84">
+      <c r="CG8" s="83">
+        <f t="shared" si="20"/>
+        <v>0.783333333333333</v>
+      </c>
+      <c r="CH8" s="82">
         <f t="shared" si="21"/>
-        <v>0.783333333333333</v>
-      </c>
-      <c r="CH8" s="83">
-        <f t="shared" si="22"/>
         <v>0.883333333333333</v>
       </c>
       <c r="CI8" s="24">
@@ -40347,16 +40326,16 @@
         <v>133</v>
       </c>
       <c r="DD8" s="7"/>
-      <c r="DE8" s="80"/>
-      <c r="DF8" s="80"/>
+      <c r="DE8" s="79"/>
+      <c r="DF8" s="79"/>
       <c r="DG8" s="7"/>
       <c r="DH8" s="7"/>
       <c r="DI8" s="7"/>
       <c r="DJ8" s="7"/>
       <c r="DK8" s="7"/>
-      <c r="DL8" s="80"/>
+      <c r="DL8" s="79"/>
       <c r="DM8" s="7"/>
-      <c r="DN8" s="80"/>
+      <c r="DN8" s="79"/>
       <c r="DO8" s="7" t="s">
         <v>134</v>
       </c>
@@ -40393,12 +40372,12 @@
       <c r="EB8" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="EC8" s="84">
+      <c r="EC8" s="83">
+        <f t="shared" si="22"/>
+        <v>0.783333333333333</v>
+      </c>
+      <c r="ED8" s="82">
         <f t="shared" si="23"/>
-        <v>0.783333333333333</v>
-      </c>
-      <c r="ED8" s="83">
-        <f t="shared" si="24"/>
         <v>0.883333333333333</v>
       </c>
       <c r="EE8" s="24">
@@ -40461,16 +40440,16 @@
         <v>133</v>
       </c>
       <c r="EZ8" s="7"/>
-      <c r="FA8" s="80"/>
-      <c r="FB8" s="80"/>
+      <c r="FA8" s="79"/>
+      <c r="FB8" s="79"/>
       <c r="FC8" s="7"/>
       <c r="FD8" s="7"/>
       <c r="FE8" s="7"/>
       <c r="FF8" s="7"/>
       <c r="FG8" s="7"/>
-      <c r="FH8" s="80"/>
+      <c r="FH8" s="79"/>
       <c r="FI8" s="7"/>
-      <c r="FJ8" s="80"/>
+      <c r="FJ8" s="79"/>
       <c r="FK8" s="7" t="s">
         <v>134</v>
       </c>
@@ -40507,12 +40486,12 @@
       <c r="FX8" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="FY8" s="84">
+      <c r="FY8" s="83">
+        <f t="shared" si="24"/>
+        <v>0.783333333333333</v>
+      </c>
+      <c r="FZ8" s="82">
         <f t="shared" si="25"/>
-        <v>0.783333333333333</v>
-      </c>
-      <c r="FZ8" s="83">
-        <f t="shared" si="26"/>
         <v>0.883333333333333</v>
       </c>
       <c r="GA8" s="24">
@@ -40555,7 +40534,7 @@
       <c r="GN8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="GO8" s="75" t="s">
+      <c r="GO8" s="74" t="s">
         <v>431</v>
       </c>
       <c r="GP8" s="26">
@@ -40568,14 +40547,14 @@
         <v>145</v>
       </c>
       <c r="GS8" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="GT8" s="26">
         <f t="shared" si="12"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="GT8" s="26">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="GU8" s="46" t="b">
+      <c r="GU8" s="45" t="b">
         <v>0</v>
       </c>
       <c r="GV8" s="26" t="s">
@@ -40590,21 +40569,21 @@
       <c r="GY8" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="GZ8" s="46" t="b">
+      <c r="GZ8" s="45" t="b">
         <v>1</v>
       </c>
       <c r="HA8" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HB8" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="HC8" s="26">
         <f t="shared" si="14"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="HC8" s="26">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="HD8" s="46" t="b">
+      <c r="HD8" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HE8" s="26" t="s">
@@ -40619,21 +40598,21 @@
       <c r="HH8" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="HI8" s="46" t="b">
+      <c r="HI8" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HJ8" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HK8" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="HL8" s="26">
         <f t="shared" si="16"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="HL8" s="26">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="HM8" s="46" t="b">
+      <c r="HM8" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HN8" s="26" t="s">
@@ -40648,21 +40627,21 @@
       <c r="HQ8" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="HR8" s="46" t="b">
+      <c r="HR8" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HS8" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HT8" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="HU8" s="26">
         <f t="shared" si="18"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="HU8" s="26">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="HV8" s="46" t="b">
+      <c r="HV8" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HW8" s="26" t="s">
@@ -40677,18 +40656,18 @@
       <c r="HZ8" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="IA8" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="67" customFormat="1" ht="69" customHeight="1" spans="1:235">
+      <c r="IA8" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="66" customFormat="1" ht="69" customHeight="1" spans="1:235">
       <c r="A9" s="7" t="s">
         <v>445</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -40714,8 +40693,8 @@
         <v>133</v>
       </c>
       <c r="L9" s="7"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -40749,10 +40728,10 @@
       <c r="AE9" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="AF9" s="94" t="s">
+      <c r="AF9" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="AG9" s="94" t="s">
+      <c r="AG9" s="93" t="s">
         <v>66</v>
       </c>
       <c r="AH9" s="7" t="s">
@@ -40764,12 +40743,12 @@
       <c r="AJ9" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AK9" s="84">
+      <c r="AK9" s="83">
+        <f t="shared" si="26"/>
+        <v>0.788888888888889</v>
+      </c>
+      <c r="AL9" s="82">
         <f t="shared" si="27"/>
-        <v>0.788888888888889</v>
-      </c>
-      <c r="AL9" s="83">
-        <f t="shared" si="28"/>
         <v>0.888888888888889</v>
       </c>
       <c r="AM9" s="24">
@@ -40830,17 +40809,14 @@
         <f t="shared" si="4"/>
         <v>Trần Phương MB</v>
       </c>
-      <c r="BF9" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="BF9" s="7"/>
       <c r="BG9" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>phuongtt@caro.vn</v>
       </c>
       <c r="BH9" s="7"/>
       <c r="BI9" s="7"/>
-      <c r="BJ9" s="80"/>
+      <c r="BJ9" s="79"/>
       <c r="BK9" s="7"/>
       <c r="BL9" s="7"/>
       <c r="BM9" s="7"/>
@@ -40850,23 +40826,23 @@
       <c r="BQ9" s="7"/>
       <c r="BR9" s="7"/>
       <c r="BS9" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>false</v>
+      </c>
+      <c r="BT9" s="7" t="str">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BU9" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>false</v>
       </c>
-      <c r="BT9" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BU9" s="7" t="str">
+      <c r="BV9" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>false</v>
-      </c>
-      <c r="BV9" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BW9" s="7" t="str">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BX9" s="7"/>
@@ -40890,12 +40866,12 @@
       <c r="CF9" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="CG9" s="84">
+      <c r="CG9" s="83">
+        <f t="shared" si="20"/>
+        <v>0.788888888888889</v>
+      </c>
+      <c r="CH9" s="82">
         <f t="shared" si="21"/>
-        <v>0.788888888888889</v>
-      </c>
-      <c r="CH9" s="83">
-        <f t="shared" si="22"/>
         <v>0.888888888888889</v>
       </c>
       <c r="CI9" s="24">
@@ -40956,8 +40932,8 @@
         <v>133</v>
       </c>
       <c r="DD9" s="7"/>
-      <c r="DE9" s="80"/>
-      <c r="DF9" s="80"/>
+      <c r="DE9" s="79"/>
+      <c r="DF9" s="79"/>
       <c r="DG9" s="7"/>
       <c r="DH9" s="7"/>
       <c r="DI9" s="7"/>
@@ -41002,12 +40978,12 @@
       <c r="EB9" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="EC9" s="84">
+      <c r="EC9" s="83">
+        <f t="shared" si="22"/>
+        <v>0.788888888888889</v>
+      </c>
+      <c r="ED9" s="82">
         <f t="shared" si="23"/>
-        <v>0.788888888888889</v>
-      </c>
-      <c r="ED9" s="83">
-        <f t="shared" si="24"/>
         <v>0.888888888888889</v>
       </c>
       <c r="EE9" s="24">
@@ -41068,8 +41044,8 @@
         <v>133</v>
       </c>
       <c r="EZ9" s="7"/>
-      <c r="FA9" s="80"/>
-      <c r="FB9" s="80"/>
+      <c r="FA9" s="79"/>
+      <c r="FB9" s="79"/>
       <c r="FC9" s="7"/>
       <c r="FD9" s="7"/>
       <c r="FE9" s="7"/>
@@ -41114,12 +41090,12 @@
       <c r="FX9" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="FY9" s="84">
+      <c r="FY9" s="83">
+        <f t="shared" si="24"/>
+        <v>0.788888888888889</v>
+      </c>
+      <c r="FZ9" s="82">
         <f t="shared" si="25"/>
-        <v>0.788888888888889</v>
-      </c>
-      <c r="FZ9" s="83">
-        <f t="shared" si="26"/>
         <v>0.888888888888889</v>
       </c>
       <c r="GA9" s="24">
@@ -41160,7 +41136,7 @@
       <c r="GN9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="GO9" s="75" t="s">
+      <c r="GO9" s="74" t="s">
         <v>431</v>
       </c>
       <c r="GP9" s="26">
@@ -41173,14 +41149,14 @@
         <v>145</v>
       </c>
       <c r="GS9" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="GT9" s="26">
         <f t="shared" si="12"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="GT9" s="26">
-        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="GU9" s="46" t="b">
+      <c r="GU9" s="45" t="b">
         <v>0</v>
       </c>
       <c r="GV9" s="26" t="s">
@@ -41195,21 +41171,21 @@
       <c r="GY9" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="GZ9" s="46" t="b">
+      <c r="GZ9" s="45" t="b">
         <v>1</v>
       </c>
       <c r="HA9" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HB9" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="HC9" s="26">
         <f t="shared" si="14"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="HC9" s="26">
-        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="HD9" s="46" t="b">
+      <c r="HD9" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HE9" s="26" t="s">
@@ -41224,21 +41200,21 @@
       <c r="HH9" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="HI9" s="46" t="b">
+      <c r="HI9" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HJ9" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HK9" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="HL9" s="26">
         <f t="shared" si="16"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="HL9" s="26">
-        <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="HM9" s="46" t="b">
+      <c r="HM9" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HN9" s="26" t="s">
@@ -41253,21 +41229,21 @@
       <c r="HQ9" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="HR9" s="46" t="b">
+      <c r="HR9" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HS9" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HT9" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v>Trần Phương MB</v>
+      </c>
+      <c r="HU9" s="26">
         <f t="shared" si="18"/>
-        <v>Trần Phương MB</v>
-      </c>
-      <c r="HU9" s="26">
-        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="HV9" s="46" t="b">
+      <c r="HV9" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HW9" s="26" t="s">
@@ -41282,18 +41258,18 @@
       <c r="HZ9" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="IA9" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="67" customFormat="1" ht="69" customHeight="1" spans="1:235">
+      <c r="IA9" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="66" customFormat="1" ht="69" customHeight="1" spans="1:235">
       <c r="A10" s="7" t="s">
         <v>447</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -41314,19 +41290,19 @@
       <c r="I10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J10" s="94" t="s">
+      <c r="J10" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="80" t="s">
         <v>168</v>
       </c>
       <c r="L10" s="7">
         <v>378</v>
       </c>
-      <c r="M10" s="80" t="s">
+      <c r="M10" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="N10" s="80" t="s">
+      <c r="N10" s="79" t="s">
         <v>134</v>
       </c>
       <c r="O10" s="7">
@@ -41344,7 +41320,7 @@
       <c r="S10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="T10" s="80" t="s">
+      <c r="T10" s="79" t="s">
         <v>169</v>
       </c>
       <c r="U10" s="7" t="s">
@@ -41378,10 +41354,10 @@
       <c r="AE10" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="AF10" s="94" t="s">
+      <c r="AF10" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="AG10" s="94" t="s">
+      <c r="AG10" s="93" t="s">
         <v>69</v>
       </c>
       <c r="AH10" s="7" t="s">
@@ -41393,12 +41369,12 @@
       <c r="AJ10" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AK10" s="84">
+      <c r="AK10" s="83">
+        <f t="shared" si="26"/>
+        <v>0.794444444444444</v>
+      </c>
+      <c r="AL10" s="82">
         <f t="shared" si="27"/>
-        <v>0.794444444444444</v>
-      </c>
-      <c r="AL10" s="83">
-        <f t="shared" si="28"/>
         <v>0.894444444444444</v>
       </c>
       <c r="AM10" s="24">
@@ -41451,23 +41427,23 @@
         <f t="shared" si="4"/>
         <v>VNPAY</v>
       </c>
-      <c r="BF10" s="94" t="str">
-        <f t="shared" si="5"/>
+      <c r="BF10" s="93" t="str">
+        <f>J10</f>
         <v>0355653300</v>
       </c>
       <c r="BG10" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>vnpay00@vnpay.vn</v>
       </c>
       <c r="BH10" s="7">
+        <f t="shared" si="28"/>
+        <v>378</v>
+      </c>
+      <c r="BI10" s="7" t="str">
         <f t="shared" si="29"/>
-        <v>378</v>
-      </c>
-      <c r="BI10" s="7" t="str">
-        <f t="shared" si="30"/>
         <v>false</v>
       </c>
-      <c r="BJ10" s="80" t="s">
+      <c r="BJ10" s="79" t="s">
         <v>134</v>
       </c>
       <c r="BK10" s="7">
@@ -41485,7 +41461,7 @@
       <c r="BO10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="BP10" s="80" t="s">
+      <c r="BP10" s="79" t="s">
         <v>169</v>
       </c>
       <c r="BQ10" s="7" t="s">
@@ -41495,23 +41471,23 @@
         <v>142</v>
       </c>
       <c r="BS10" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>false</v>
+      </c>
+      <c r="BT10" s="7" t="str">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BU10" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>false</v>
       </c>
-      <c r="BT10" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BU10" s="7" t="str">
+      <c r="BV10" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>false</v>
-      </c>
-      <c r="BV10" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BW10" s="7" t="str">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BX10" s="7"/>
@@ -41535,12 +41511,12 @@
       <c r="CF10" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="CG10" s="84">
+      <c r="CG10" s="83">
+        <f t="shared" si="20"/>
+        <v>0.794444444444444</v>
+      </c>
+      <c r="CH10" s="82">
         <f t="shared" si="21"/>
-        <v>0.794444444444444</v>
-      </c>
-      <c r="CH10" s="83">
-        <f t="shared" si="22"/>
         <v>0.894444444444444</v>
       </c>
       <c r="CI10" s="24">
@@ -41588,19 +41564,19 @@
       <c r="DA10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="DB10" s="94" t="s">
+      <c r="DB10" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="DC10" s="81" t="s">
+      <c r="DC10" s="80" t="s">
         <v>168</v>
       </c>
       <c r="DD10" s="7">
         <v>378</v>
       </c>
-      <c r="DE10" s="80" t="s">
+      <c r="DE10" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="DF10" s="80" t="s">
+      <c r="DF10" s="79" t="s">
         <v>134</v>
       </c>
       <c r="DG10" s="7">
@@ -41618,7 +41594,7 @@
       <c r="DK10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="DL10" s="80" t="s">
+      <c r="DL10" s="79" t="s">
         <v>169</v>
       </c>
       <c r="DM10" s="7" t="s">
@@ -41663,12 +41639,12 @@
       <c r="EB10" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="EC10" s="84">
+      <c r="EC10" s="83">
+        <f t="shared" si="22"/>
+        <v>0.794444444444444</v>
+      </c>
+      <c r="ED10" s="82">
         <f t="shared" si="23"/>
-        <v>0.794444444444444</v>
-      </c>
-      <c r="ED10" s="83">
-        <f t="shared" si="24"/>
         <v>0.894444444444444</v>
       </c>
       <c r="EE10" s="24">
@@ -41716,19 +41692,19 @@
       <c r="EW10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="EX10" s="94" t="s">
+      <c r="EX10" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="EY10" s="81" t="s">
+      <c r="EY10" s="80" t="s">
         <v>168</v>
       </c>
       <c r="EZ10" s="7">
         <v>378</v>
       </c>
-      <c r="FA10" s="80" t="s">
+      <c r="FA10" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="FB10" s="80" t="s">
+      <c r="FB10" s="79" t="s">
         <v>134</v>
       </c>
       <c r="FC10" s="7">
@@ -41746,7 +41722,7 @@
       <c r="FG10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="FH10" s="80" t="s">
+      <c r="FH10" s="79" t="s">
         <v>169</v>
       </c>
       <c r="FI10" s="7" t="s">
@@ -41791,12 +41767,12 @@
       <c r="FX10" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="FY10" s="84">
+      <c r="FY10" s="83">
+        <f t="shared" si="24"/>
+        <v>0.794444444444444</v>
+      </c>
+      <c r="FZ10" s="82">
         <f t="shared" si="25"/>
-        <v>0.794444444444444</v>
-      </c>
-      <c r="FZ10" s="83">
-        <f t="shared" si="26"/>
         <v>0.894444444444444</v>
       </c>
       <c r="GA10" s="24">
@@ -41829,7 +41805,7 @@
       <c r="GN10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="GO10" s="75" t="s">
+      <c r="GO10" s="74" t="s">
         <v>431</v>
       </c>
       <c r="GP10" s="26">
@@ -41842,14 +41818,14 @@
         <v>145</v>
       </c>
       <c r="GS10" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="GT10" s="26" t="str">
         <f t="shared" si="12"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="GT10" s="26" t="str">
-        <f t="shared" si="13"/>
         <v>5D</v>
       </c>
-      <c r="GU10" s="46" t="b">
+      <c r="GU10" s="45" t="b">
         <v>0</v>
       </c>
       <c r="GV10" s="26" t="s">
@@ -41864,21 +41840,21 @@
       <c r="GY10" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="GZ10" s="46" t="b">
+      <c r="GZ10" s="45" t="b">
         <v>1</v>
       </c>
       <c r="HA10" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HB10" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="HC10" s="26" t="str">
         <f t="shared" si="14"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="HC10" s="26" t="str">
-        <f t="shared" si="15"/>
         <v>5D</v>
       </c>
-      <c r="HD10" s="46" t="b">
+      <c r="HD10" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HE10" s="26" t="s">
@@ -41893,21 +41869,21 @@
       <c r="HH10" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="HI10" s="46" t="b">
+      <c r="HI10" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HJ10" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HK10" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="HL10" s="26" t="str">
         <f t="shared" si="16"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="HL10" s="26" t="str">
-        <f t="shared" si="17"/>
         <v>5D</v>
       </c>
-      <c r="HM10" s="46" t="b">
+      <c r="HM10" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HN10" s="26" t="s">
@@ -41922,21 +41898,21 @@
       <c r="HQ10" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="HR10" s="46" t="b">
+      <c r="HR10" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HS10" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HT10" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="HU10" s="26" t="str">
         <f t="shared" si="18"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="HU10" s="26" t="str">
-        <f t="shared" si="19"/>
         <v>5D</v>
       </c>
-      <c r="HV10" s="46" t="b">
+      <c r="HV10" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HW10" s="26" t="s">
@@ -41951,18 +41927,18 @@
       <c r="HZ10" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="IA10" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="67" customFormat="1" ht="69" customHeight="1" spans="1:235">
+      <c r="IA10" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="66" customFormat="1" ht="69" customHeight="1" spans="1:235">
       <c r="A11" s="7" t="s">
         <v>449</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -41983,19 +41959,19 @@
       <c r="I11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J11" s="94" t="s">
+      <c r="J11" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="K11" s="81" t="s">
+      <c r="K11" s="80" t="s">
         <v>168</v>
       </c>
       <c r="L11" s="7">
         <v>378</v>
       </c>
-      <c r="M11" s="80" t="s">
+      <c r="M11" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="N11" s="80" t="s">
+      <c r="N11" s="79" t="s">
         <v>134</v>
       </c>
       <c r="O11" s="7">
@@ -42013,7 +41989,7 @@
       <c r="S11" s="7">
         <v>0</v>
       </c>
-      <c r="T11" s="80" t="s">
+      <c r="T11" s="79" t="s">
         <v>169</v>
       </c>
       <c r="U11" s="7">
@@ -42058,12 +42034,12 @@
       <c r="AJ11" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AK11" s="84">
+      <c r="AK11" s="83">
+        <f t="shared" si="26"/>
+        <v>0.8</v>
+      </c>
+      <c r="AL11" s="82">
         <f t="shared" si="27"/>
-        <v>0.8</v>
-      </c>
-      <c r="AL11" s="83">
-        <f t="shared" si="28"/>
         <v>0.9</v>
       </c>
       <c r="AM11" s="24">
@@ -42116,23 +42092,23 @@
         <f t="shared" si="4"/>
         <v>VNPAY</v>
       </c>
-      <c r="BF11" s="94" t="str">
-        <f t="shared" si="5"/>
+      <c r="BF11" s="93" t="str">
+        <f>J11</f>
         <v>0355653300</v>
       </c>
       <c r="BG11" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>vnpay00@vnpay.vn</v>
       </c>
       <c r="BH11" s="7">
+        <f t="shared" si="28"/>
+        <v>378</v>
+      </c>
+      <c r="BI11" s="7" t="str">
         <f t="shared" si="29"/>
-        <v>378</v>
-      </c>
-      <c r="BI11" s="7" t="str">
-        <f t="shared" si="30"/>
         <v>false</v>
       </c>
-      <c r="BJ11" s="80" t="s">
+      <c r="BJ11" s="79" t="s">
         <v>134</v>
       </c>
       <c r="BK11" s="7">
@@ -42150,7 +42126,7 @@
       <c r="BO11" s="7">
         <v>0</v>
       </c>
-      <c r="BP11" s="80" t="s">
+      <c r="BP11" s="79" t="s">
         <v>169</v>
       </c>
       <c r="BQ11" s="7">
@@ -42160,23 +42136,23 @@
         <v>0</v>
       </c>
       <c r="BS11" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>false</v>
+      </c>
+      <c r="BT11" s="7" t="str">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BU11" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>false</v>
       </c>
-      <c r="BT11" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BU11" s="7" t="str">
+      <c r="BV11" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>false</v>
-      </c>
-      <c r="BV11" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BW11" s="7" t="str">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BX11" s="7"/>
@@ -42200,12 +42176,12 @@
       <c r="CF11" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="CG11" s="84">
+      <c r="CG11" s="83">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="CH11" s="82">
         <f t="shared" si="21"/>
-        <v>0.8</v>
-      </c>
-      <c r="CH11" s="83">
-        <f t="shared" si="22"/>
         <v>0.9</v>
       </c>
       <c r="CI11" s="24">
@@ -42253,19 +42229,19 @@
       <c r="DA11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="DB11" s="94" t="s">
+      <c r="DB11" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="DC11" s="81" t="s">
+      <c r="DC11" s="80" t="s">
         <v>168</v>
       </c>
       <c r="DD11" s="7">
         <v>378</v>
       </c>
-      <c r="DE11" s="80" t="s">
+      <c r="DE11" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="DF11" s="80" t="s">
+      <c r="DF11" s="79" t="s">
         <v>134</v>
       </c>
       <c r="DG11" s="7">
@@ -42283,7 +42259,7 @@
       <c r="DK11" s="7">
         <v>0</v>
       </c>
-      <c r="DL11" s="80" t="s">
+      <c r="DL11" s="79" t="s">
         <v>169</v>
       </c>
       <c r="DM11" s="7">
@@ -42328,12 +42304,12 @@
       <c r="EB11" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="EC11" s="84">
+      <c r="EC11" s="83">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="ED11" s="82">
         <f t="shared" si="23"/>
-        <v>0.8</v>
-      </c>
-      <c r="ED11" s="83">
-        <f t="shared" si="24"/>
         <v>0.9</v>
       </c>
       <c r="EE11" s="24">
@@ -42381,19 +42357,19 @@
       <c r="EW11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="EX11" s="94" t="s">
+      <c r="EX11" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="EY11" s="81" t="s">
+      <c r="EY11" s="80" t="s">
         <v>168</v>
       </c>
       <c r="EZ11" s="7">
         <v>378</v>
       </c>
-      <c r="FA11" s="80" t="s">
+      <c r="FA11" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="FB11" s="80" t="s">
+      <c r="FB11" s="79" t="s">
         <v>134</v>
       </c>
       <c r="FC11" s="7">
@@ -42411,7 +42387,7 @@
       <c r="FG11" s="7">
         <v>0</v>
       </c>
-      <c r="FH11" s="80" t="s">
+      <c r="FH11" s="79" t="s">
         <v>169</v>
       </c>
       <c r="FI11" s="7">
@@ -42456,12 +42432,12 @@
       <c r="FX11" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="FY11" s="84">
+      <c r="FY11" s="83">
+        <f t="shared" si="24"/>
+        <v>0.8</v>
+      </c>
+      <c r="FZ11" s="82">
         <f t="shared" si="25"/>
-        <v>0.8</v>
-      </c>
-      <c r="FZ11" s="83">
-        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="GA11" s="24">
@@ -42494,7 +42470,7 @@
       <c r="GN11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="GO11" s="75" t="s">
+      <c r="GO11" s="74" t="s">
         <v>431</v>
       </c>
       <c r="GP11" s="26">
@@ -42507,14 +42483,14 @@
         <v>145</v>
       </c>
       <c r="GS11" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="GT11" s="26" t="str">
         <f t="shared" si="12"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="GT11" s="26" t="str">
-        <f t="shared" si="13"/>
         <v>5D</v>
       </c>
-      <c r="GU11" s="46" t="b">
+      <c r="GU11" s="45" t="b">
         <v>0</v>
       </c>
       <c r="GV11" s="26" t="s">
@@ -42529,21 +42505,21 @@
       <c r="GY11" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="GZ11" s="46" t="b">
+      <c r="GZ11" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HA11" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HB11" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="HC11" s="26" t="str">
         <f t="shared" si="14"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="HC11" s="26" t="str">
-        <f t="shared" si="15"/>
         <v>5D</v>
       </c>
-      <c r="HD11" s="46" t="b">
+      <c r="HD11" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HE11" s="26" t="s">
@@ -42558,21 +42534,21 @@
       <c r="HH11" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="HI11" s="46" t="b">
+      <c r="HI11" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HJ11" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HK11" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="HL11" s="26" t="str">
         <f t="shared" si="16"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="HL11" s="26" t="str">
-        <f t="shared" si="17"/>
         <v>5D</v>
       </c>
-      <c r="HM11" s="46" t="b">
+      <c r="HM11" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HN11" s="26" t="s">
@@ -42587,21 +42563,21 @@
       <c r="HQ11" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="HR11" s="46" t="b">
+      <c r="HR11" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HS11" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HT11" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="HU11" s="26" t="str">
         <f t="shared" si="18"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="HU11" s="26" t="str">
-        <f t="shared" si="19"/>
         <v>5D</v>
       </c>
-      <c r="HV11" s="46" t="b">
+      <c r="HV11" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HW11" s="26" t="s">
@@ -42616,18 +42592,18 @@
       <c r="HZ11" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="IA11" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="67" customFormat="1" ht="69" customHeight="1" spans="1:235">
+      <c r="IA11" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="66" customFormat="1" ht="69" customHeight="1" spans="1:235">
       <c r="A12" s="7" t="s">
         <v>451</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -42648,19 +42624,19 @@
       <c r="I12" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="K12" s="81" t="s">
+      <c r="K12" s="80" t="s">
         <v>168</v>
       </c>
       <c r="L12" s="7">
         <v>378</v>
       </c>
-      <c r="M12" s="80" t="s">
+      <c r="M12" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="N12" s="80" t="s">
+      <c r="N12" s="79" t="s">
         <v>169</v>
       </c>
       <c r="O12" s="7">
@@ -42678,7 +42654,7 @@
       <c r="S12" s="7">
         <v>0</v>
       </c>
-      <c r="T12" s="80" t="s">
+      <c r="T12" s="79" t="s">
         <v>169</v>
       </c>
       <c r="U12" s="7">
@@ -42723,12 +42699,12 @@
       <c r="AJ12" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AK12" s="84">
+      <c r="AK12" s="83">
+        <f t="shared" si="26"/>
+        <v>0.805555555555555</v>
+      </c>
+      <c r="AL12" s="82">
         <f t="shared" si="27"/>
-        <v>0.805555555555555</v>
-      </c>
-      <c r="AL12" s="83">
-        <f t="shared" si="28"/>
         <v>0.905555555555555</v>
       </c>
       <c r="AM12" s="24">
@@ -42781,23 +42757,23 @@
         <f t="shared" si="4"/>
         <v>VNPAY</v>
       </c>
-      <c r="BF12" s="94" t="str">
-        <f t="shared" si="5"/>
+      <c r="BF12" s="93" t="str">
+        <f>J12</f>
         <v>0355653300</v>
       </c>
       <c r="BG12" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>vnpay00@vnpay.vn</v>
       </c>
       <c r="BH12" s="7">
+        <f t="shared" si="28"/>
+        <v>378</v>
+      </c>
+      <c r="BI12" s="7" t="str">
         <f t="shared" si="29"/>
-        <v>378</v>
-      </c>
-      <c r="BI12" s="7" t="str">
-        <f t="shared" si="30"/>
         <v>false</v>
       </c>
-      <c r="BJ12" s="80" t="s">
+      <c r="BJ12" s="79" t="s">
         <v>169</v>
       </c>
       <c r="BK12" s="7">
@@ -42815,7 +42791,7 @@
       <c r="BO12" s="7">
         <v>0</v>
       </c>
-      <c r="BP12" s="80" t="s">
+      <c r="BP12" s="79" t="s">
         <v>169</v>
       </c>
       <c r="BQ12" s="7">
@@ -42825,23 +42801,23 @@
         <v>0</v>
       </c>
       <c r="BS12" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>false</v>
+      </c>
+      <c r="BT12" s="7" t="str">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BU12" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>false</v>
       </c>
-      <c r="BT12" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BU12" s="7" t="str">
+      <c r="BV12" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>false</v>
-      </c>
-      <c r="BV12" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BW12" s="7" t="str">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BX12" s="7"/>
@@ -42865,12 +42841,12 @@
       <c r="CF12" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="CG12" s="84">
+      <c r="CG12" s="83">
+        <f t="shared" si="20"/>
+        <v>0.805555555555555</v>
+      </c>
+      <c r="CH12" s="82">
         <f t="shared" si="21"/>
-        <v>0.805555555555555</v>
-      </c>
-      <c r="CH12" s="83">
-        <f t="shared" si="22"/>
         <v>0.905555555555555</v>
       </c>
       <c r="CI12" s="24">
@@ -42918,19 +42894,19 @@
       <c r="DA12" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="DB12" s="94" t="s">
+      <c r="DB12" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="DC12" s="81" t="s">
+      <c r="DC12" s="80" t="s">
         <v>168</v>
       </c>
       <c r="DD12" s="7">
         <v>378</v>
       </c>
-      <c r="DE12" s="80" t="s">
+      <c r="DE12" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="DF12" s="80" t="s">
+      <c r="DF12" s="79" t="s">
         <v>169</v>
       </c>
       <c r="DG12" s="7">
@@ -42948,7 +42924,7 @@
       <c r="DK12" s="7">
         <v>0</v>
       </c>
-      <c r="DL12" s="80" t="s">
+      <c r="DL12" s="79" t="s">
         <v>169</v>
       </c>
       <c r="DM12" s="7">
@@ -42993,12 +42969,12 @@
       <c r="EB12" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="EC12" s="84">
+      <c r="EC12" s="83">
+        <f t="shared" si="22"/>
+        <v>0.805555555555555</v>
+      </c>
+      <c r="ED12" s="82">
         <f t="shared" si="23"/>
-        <v>0.805555555555555</v>
-      </c>
-      <c r="ED12" s="83">
-        <f t="shared" si="24"/>
         <v>0.905555555555555</v>
       </c>
       <c r="EE12" s="24">
@@ -43046,19 +43022,19 @@
       <c r="EW12" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="EX12" s="94" t="s">
+      <c r="EX12" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="EY12" s="81" t="s">
+      <c r="EY12" s="80" t="s">
         <v>168</v>
       </c>
       <c r="EZ12" s="7">
         <v>378</v>
       </c>
-      <c r="FA12" s="80" t="s">
+      <c r="FA12" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="FB12" s="80" t="s">
+      <c r="FB12" s="79" t="s">
         <v>169</v>
       </c>
       <c r="FC12" s="7">
@@ -43076,7 +43052,7 @@
       <c r="FG12" s="7">
         <v>0</v>
       </c>
-      <c r="FH12" s="80" t="s">
+      <c r="FH12" s="79" t="s">
         <v>169</v>
       </c>
       <c r="FI12" s="7">
@@ -43121,12 +43097,12 @@
       <c r="FX12" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="FY12" s="84">
+      <c r="FY12" s="83">
+        <f t="shared" si="24"/>
+        <v>0.805555555555555</v>
+      </c>
+      <c r="FZ12" s="82">
         <f t="shared" si="25"/>
-        <v>0.805555555555555</v>
-      </c>
-      <c r="FZ12" s="83">
-        <f t="shared" si="26"/>
         <v>0.905555555555555</v>
       </c>
       <c r="GA12" s="24">
@@ -43159,7 +43135,7 @@
       <c r="GN12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="GO12" s="75" t="s">
+      <c r="GO12" s="74" t="s">
         <v>431</v>
       </c>
       <c r="GP12" s="26">
@@ -43172,14 +43148,14 @@
         <v>145</v>
       </c>
       <c r="GS12" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="GT12" s="26" t="str">
         <f t="shared" si="12"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="GT12" s="26" t="str">
-        <f t="shared" si="13"/>
         <v>5D</v>
       </c>
-      <c r="GU12" s="46" t="b">
+      <c r="GU12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="GV12" s="26" t="s">
@@ -43194,21 +43170,21 @@
       <c r="GY12" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="GZ12" s="46" t="b">
+      <c r="GZ12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HA12" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HB12" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="HC12" s="26" t="str">
         <f t="shared" si="14"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="HC12" s="26" t="str">
-        <f t="shared" si="15"/>
         <v>5D</v>
       </c>
-      <c r="HD12" s="46" t="b">
+      <c r="HD12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HE12" s="26" t="s">
@@ -43223,21 +43199,21 @@
       <c r="HH12" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="HI12" s="46" t="b">
+      <c r="HI12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HJ12" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HK12" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="HL12" s="26" t="str">
         <f t="shared" si="16"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="HL12" s="26" t="str">
-        <f t="shared" si="17"/>
         <v>5D</v>
       </c>
-      <c r="HM12" s="46" t="b">
+      <c r="HM12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HN12" s="26" t="s">
@@ -43252,21 +43228,21 @@
       <c r="HQ12" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="HR12" s="46" t="b">
+      <c r="HR12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HS12" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HT12" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="HU12" s="26" t="str">
         <f t="shared" si="18"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="HU12" s="26" t="str">
-        <f t="shared" si="19"/>
         <v>5D</v>
       </c>
-      <c r="HV12" s="46" t="b">
+      <c r="HV12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HW12" s="26" t="s">
@@ -43281,18 +43257,18 @@
       <c r="HZ12" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="IA12" s="46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="67" customFormat="1" ht="69" customHeight="1" spans="1:235">
+      <c r="IA12" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="66" customFormat="1" ht="69" customHeight="1" spans="1:235">
       <c r="A13" s="7" t="s">
         <v>453</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -43313,19 +43289,19 @@
       <c r="I13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J13" s="94" t="s">
+      <c r="J13" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="K13" s="81" t="s">
+      <c r="K13" s="80" t="s">
         <v>168</v>
       </c>
       <c r="L13" s="7">
         <v>378</v>
       </c>
-      <c r="M13" s="80" t="s">
+      <c r="M13" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="N13" s="80" t="s">
+      <c r="N13" s="79" t="s">
         <v>134</v>
       </c>
       <c r="O13" s="7">
@@ -43343,7 +43319,7 @@
       <c r="S13" s="7">
         <v>0</v>
       </c>
-      <c r="T13" s="80" t="s">
+      <c r="T13" s="79" t="s">
         <v>169</v>
       </c>
       <c r="U13" s="7">
@@ -43388,12 +43364,12 @@
       <c r="AJ13" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AK13" s="84">
+      <c r="AK13" s="83">
+        <f t="shared" si="26"/>
+        <v>0.811111111111111</v>
+      </c>
+      <c r="AL13" s="82">
         <f t="shared" si="27"/>
-        <v>0.811111111111111</v>
-      </c>
-      <c r="AL13" s="83">
-        <f t="shared" si="28"/>
         <v>0.911111111111111</v>
       </c>
       <c r="AM13" s="24">
@@ -43446,23 +43422,23 @@
         <f t="shared" si="4"/>
         <v>VNPAY</v>
       </c>
-      <c r="BF13" s="94" t="str">
-        <f t="shared" si="5"/>
+      <c r="BF13" s="93" t="str">
+        <f>J13</f>
         <v>0355653300</v>
       </c>
       <c r="BG13" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>vnpay00@vnpay.vn</v>
       </c>
       <c r="BH13" s="7">
+        <f t="shared" si="28"/>
+        <v>378</v>
+      </c>
+      <c r="BI13" s="7" t="str">
         <f t="shared" si="29"/>
-        <v>378</v>
-      </c>
-      <c r="BI13" s="7" t="str">
-        <f t="shared" si="30"/>
         <v>true</v>
       </c>
-      <c r="BJ13" s="80" t="s">
+      <c r="BJ13" s="79" t="s">
         <v>134</v>
       </c>
       <c r="BK13" s="7">
@@ -43480,7 +43456,7 @@
       <c r="BO13" s="7">
         <v>0</v>
       </c>
-      <c r="BP13" s="80" t="s">
+      <c r="BP13" s="79" t="s">
         <v>169</v>
       </c>
       <c r="BQ13" s="7">
@@ -43490,23 +43466,23 @@
         <v>0</v>
       </c>
       <c r="BS13" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>false</v>
+      </c>
+      <c r="BT13" s="7" t="str">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BU13" s="7" t="str">
+        <f t="shared" si="8"/>
         <v>false</v>
       </c>
-      <c r="BT13" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BU13" s="7" t="str">
+      <c r="BV13" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>false</v>
-      </c>
-      <c r="BV13" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BW13" s="7" t="str">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BX13" s="7"/>
@@ -43530,12 +43506,12 @@
       <c r="CF13" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="CG13" s="84">
+      <c r="CG13" s="83">
+        <f t="shared" si="20"/>
+        <v>0.811111111111111</v>
+      </c>
+      <c r="CH13" s="82">
         <f t="shared" si="21"/>
-        <v>0.811111111111111</v>
-      </c>
-      <c r="CH13" s="83">
-        <f t="shared" si="22"/>
         <v>0.911111111111111</v>
       </c>
       <c r="CI13" s="24">
@@ -43583,19 +43559,19 @@
       <c r="DA13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="DB13" s="94" t="s">
+      <c r="DB13" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="DC13" s="81" t="s">
+      <c r="DC13" s="80" t="s">
         <v>168</v>
       </c>
       <c r="DD13" s="7">
         <v>378</v>
       </c>
-      <c r="DE13" s="80" t="s">
+      <c r="DE13" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="DF13" s="80" t="s">
+      <c r="DF13" s="79" t="s">
         <v>134</v>
       </c>
       <c r="DG13" s="7">
@@ -43613,7 +43589,7 @@
       <c r="DK13" s="7">
         <v>0</v>
       </c>
-      <c r="DL13" s="80" t="s">
+      <c r="DL13" s="79" t="s">
         <v>169</v>
       </c>
       <c r="DM13" s="7">
@@ -43658,12 +43634,12 @@
       <c r="EB13" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="EC13" s="84">
+      <c r="EC13" s="83">
+        <f t="shared" si="22"/>
+        <v>0.811111111111111</v>
+      </c>
+      <c r="ED13" s="82">
         <f t="shared" si="23"/>
-        <v>0.811111111111111</v>
-      </c>
-      <c r="ED13" s="83">
-        <f t="shared" si="24"/>
         <v>0.911111111111111</v>
       </c>
       <c r="EE13" s="24">
@@ -43711,19 +43687,19 @@
       <c r="EW13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="EX13" s="94" t="s">
+      <c r="EX13" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="EY13" s="81" t="s">
+      <c r="EY13" s="80" t="s">
         <v>168</v>
       </c>
       <c r="EZ13" s="7">
         <v>378</v>
       </c>
-      <c r="FA13" s="80" t="s">
+      <c r="FA13" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="FB13" s="80" t="s">
+      <c r="FB13" s="79" t="s">
         <v>134</v>
       </c>
       <c r="FC13" s="7">
@@ -43741,7 +43717,7 @@
       <c r="FG13" s="7">
         <v>0</v>
       </c>
-      <c r="FH13" s="80" t="s">
+      <c r="FH13" s="79" t="s">
         <v>169</v>
       </c>
       <c r="FI13" s="7">
@@ -43786,12 +43762,12 @@
       <c r="FX13" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="FY13" s="84">
+      <c r="FY13" s="83">
+        <f t="shared" si="24"/>
+        <v>0.811111111111111</v>
+      </c>
+      <c r="FZ13" s="82">
         <f t="shared" si="25"/>
-        <v>0.811111111111111</v>
-      </c>
-      <c r="FZ13" s="83">
-        <f t="shared" si="26"/>
         <v>0.911111111111111</v>
       </c>
       <c r="GA13" s="24">
@@ -43824,7 +43800,7 @@
       <c r="GN13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="GO13" s="75" t="s">
+      <c r="GO13" s="74" t="s">
         <v>431</v>
       </c>
       <c r="GP13" s="26">
@@ -43837,14 +43813,14 @@
         <v>145</v>
       </c>
       <c r="GS13" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="GT13" s="26" t="str">
         <f t="shared" si="12"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="GT13" s="26" t="str">
-        <f t="shared" si="13"/>
         <v>5D</v>
       </c>
-      <c r="GU13" s="46" t="b">
+      <c r="GU13" s="45" t="b">
         <v>0</v>
       </c>
       <c r="GV13" s="26" t="s">
@@ -43859,21 +43835,21 @@
       <c r="GY13" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="GZ13" s="46" t="b">
+      <c r="GZ13" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HA13" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HB13" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="HC13" s="26" t="str">
         <f t="shared" si="14"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="HC13" s="26" t="str">
-        <f t="shared" si="15"/>
         <v>5D</v>
       </c>
-      <c r="HD13" s="46" t="b">
+      <c r="HD13" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HE13" s="26" t="s">
@@ -43888,21 +43864,21 @@
       <c r="HH13" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="HI13" s="46" t="b">
+      <c r="HI13" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HJ13" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HK13" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="HL13" s="26" t="str">
         <f t="shared" si="16"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="HL13" s="26" t="str">
-        <f t="shared" si="17"/>
         <v>5D</v>
       </c>
-      <c r="HM13" s="46" t="b">
+      <c r="HM13" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HN13" s="26" t="s">
@@ -43917,21 +43893,21 @@
       <c r="HQ13" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="HR13" s="46" t="b">
+      <c r="HR13" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HS13" s="26" t="s">
         <v>145</v>
       </c>
       <c r="HT13" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v>VNPAY</v>
+      </c>
+      <c r="HU13" s="26" t="str">
         <f t="shared" si="18"/>
-        <v>VNPAY</v>
-      </c>
-      <c r="HU13" s="26" t="str">
-        <f t="shared" si="19"/>
         <v>5D</v>
       </c>
-      <c r="HV13" s="46" t="b">
+      <c r="HV13" s="45" t="b">
         <v>0</v>
       </c>
       <c r="HW13" s="26" t="s">
@@ -43946,7 +43922,7 @@
       <c r="HZ13" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="IA13" s="46" t="b">
+      <c r="IA13" s="45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -44098,14 +44074,14 @@
         <v>478</v>
       </c>
     </row>
-    <row r="2" s="67" customFormat="1" ht="50" customHeight="1" spans="1:32">
+    <row r="2" s="66" customFormat="1" ht="50" customHeight="1" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="67" t="s">
         <v>480</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -44152,7 +44128,7 @@
       <c r="U2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="75" t="s">
+      <c r="V2" s="74" t="s">
         <v>485</v>
       </c>
       <c r="W2" s="26">
@@ -44166,7 +44142,7 @@
         <v>PhuongTT</v>
       </c>
       <c r="Z2" s="26"/>
-      <c r="AA2" s="46" t="b">
+      <c r="AA2" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AB2" s="26" t="s">
@@ -44179,86 +44155,86 @@
         <v>145</v>
       </c>
       <c r="AE2" s="26"/>
-      <c r="AF2" s="46" t="b">
+      <c r="AF2" s="45" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="5:21">
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
     </row>
     <row r="5" customHeight="1" spans="6:20">
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
     </row>
     <row r="6" customHeight="1" spans="8:12">
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" customHeight="1" spans="8:12">
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="71"/>
     </row>
     <row r="8" customHeight="1" spans="8:12">
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
     </row>
     <row r="9" customHeight="1" spans="8:12">
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
     </row>
     <row r="10" customHeight="1" spans="8:12">
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
     </row>
     <row r="11" customHeight="1" spans="8:12">
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -44284,46 +44260,46 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:14">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="57" t="s">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>486</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="58" t="s">
         <v>487</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="61" t="s">
         <v>488</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="61" t="s">
         <v>489</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="64" t="s">
         <v>490</v>
       </c>
     </row>
@@ -44334,17 +44310,17 @@
       <c r="B2" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>493</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -44356,10 +44332,10 @@
       <c r="J2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="66" t="b">
+      <c r="K2" s="65" t="b">
         <v>1</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="51" t="s">
         <v>495</v>
       </c>
       <c r="M2" s="9">
@@ -44370,7 +44346,7 @@
       </c>
     </row>
     <row r="3" ht="49" customHeight="1" spans="1:14">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="59" t="s">
         <v>496</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -44379,14 +44355,14 @@
       <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="52" t="s">
         <v>493</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -44398,10 +44374,10 @@
       <c r="J3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="66" t="b">
+      <c r="K3" s="65" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="51" t="s">
         <v>495</v>
       </c>
       <c r="M3" s="9">
@@ -44421,14 +44397,14 @@
       <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="52" t="s">
         <v>493</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -44440,10 +44416,10 @@
       <c r="J4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="66" t="b">
+      <c r="K4" s="65" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="51" t="s">
         <v>495</v>
       </c>
       <c r="M4" s="9">
@@ -44491,25 +44467,25 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>469</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -44523,7 +44499,7 @@
       <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="9" t="s">
         <v>40</v>
       </c>
@@ -44533,10 +44509,10 @@
       <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="I2" s="55">
+      <c r="I2" s="54">
         <v>200</v>
       </c>
       <c r="J2" s="9" t="s">
@@ -44553,7 +44529,7 @@
       <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="9" t="s">
         <v>40</v>
       </c>
@@ -44563,10 +44539,10 @@
       <c r="G3" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="54">
         <v>200</v>
       </c>
       <c r="J3" s="9" t="s">
@@ -44583,7 +44559,7 @@
       <c r="C4" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="9" t="s">
         <v>40</v>
       </c>
@@ -44591,10 +44567,10 @@
         <v>41</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="51" t="s">
         <v>510</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="54">
         <v>400</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -44611,7 +44587,7 @@
       <c r="C5" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="9" t="s">
         <v>40</v>
       </c>
@@ -44621,10 +44597,10 @@
       <c r="G5" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="54">
         <v>200</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -44641,7 +44617,7 @@
       <c r="C6" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="4" t="s">
         <v>516</v>
       </c>
@@ -44651,10 +44627,10 @@
       <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="54">
         <v>200</v>
       </c>
       <c r="J6" s="9" t="s">
@@ -44673,7 +44649,7 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -44835,8 +44811,8 @@
       <c r="Q2" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
       <c r="T2" s="17" t="s">
         <v>535</v>
       </c>
@@ -44848,13 +44824,13 @@
       </c>
       <c r="W2" s="26"/>
       <c r="X2" s="26" t="str">
-        <f t="shared" ref="X2:X11" si="0">J2</f>
+        <f t="shared" ref="X2:X16" si="0">J2</f>
         <v>{{CTX:CUSTOMER_BOOKING_NAME_0}}</v>
       </c>
       <c r="Y2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="46" t="b">
+      <c r="Z2" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AA2" s="26" t="s">
@@ -44866,10 +44842,10 @@
       <c r="AC2" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="AD2" s="47" t="s">
+      <c r="AD2" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="AE2" s="46" t="b">
+      <c r="AE2" s="45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -44919,8 +44895,8 @@
       <c r="Q3" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
       <c r="T3" s="17" t="s">
         <v>535</v>
       </c>
@@ -44941,7 +44917,7 @@
       <c r="Y3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" s="46" t="b">
+      <c r="Z3" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AA3" s="26" t="s">
@@ -44953,10 +44929,10 @@
       <c r="AC3" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="AD3" s="47" t="s">
+      <c r="AD3" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="AE3" s="46" t="b">
+      <c r="AE3" s="45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -45006,8 +44982,8 @@
       <c r="Q4" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
       <c r="T4" s="17" t="s">
         <v>535</v>
       </c>
@@ -45025,7 +45001,7 @@
       <c r="Y4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="46" t="b">
+      <c r="Z4" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AA4" s="26" t="s">
@@ -45037,10 +45013,10 @@
       <c r="AC4" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="AD4" s="47" t="s">
+      <c r="AD4" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="AE4" s="46" t="b">
+      <c r="AE4" s="45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -45078,7 +45054,7 @@
       <c r="K5" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="L5" s="94" t="s">
+      <c r="L5" s="93" t="s">
         <v>60</v>
       </c>
       <c r="M5" s="7"/>
@@ -45090,8 +45066,8 @@
       <c r="Q5" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="17" t="s">
         <v>535</v>
       </c>
@@ -45109,7 +45085,7 @@
       <c r="Y5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="Z5" s="46" t="b">
+      <c r="Z5" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AA5" s="26" t="s">
@@ -45121,10 +45097,10 @@
       <c r="AC5" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="AD5" s="47" t="s">
+      <c r="AD5" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="AE5" s="46" t="b">
+      <c r="AE5" s="45" t="b">
         <v>1</v>
       </c>
     </row>
@@ -45174,8 +45150,8 @@
       <c r="Q6" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
       <c r="T6" s="17" t="s">
         <v>535</v>
       </c>
@@ -45193,7 +45169,7 @@
       <c r="Y6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="Z6" s="46" t="b">
+      <c r="Z6" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AA6" s="26" t="s">
@@ -45205,10 +45181,10 @@
       <c r="AC6" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="AD6" s="47" t="s">
+      <c r="AD6" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="AE6" s="46" t="b">
+      <c r="AE6" s="45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -45279,7 +45255,7 @@
       <c r="Y7" s="26">
         <v>1</v>
       </c>
-      <c r="Z7" s="46" t="b">
+      <c r="Z7" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AA7" s="26" t="s">
@@ -45294,7 +45270,7 @@
       <c r="AD7" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="AE7" s="46" t="b">
+      <c r="AE7" s="45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -45369,7 +45345,7 @@
       <c r="Y8" s="26">
         <v>1</v>
       </c>
-      <c r="Z8" s="46" t="b">
+      <c r="Z8" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AA8" s="26" t="s">
@@ -45384,7 +45360,7 @@
       <c r="AD8" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="AE8" s="46" t="b">
+      <c r="AE8" s="45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -45457,7 +45433,7 @@
       <c r="Y9" s="26">
         <v>1</v>
       </c>
-      <c r="Z9" s="46" t="b">
+      <c r="Z9" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AA9" s="26" t="s">
@@ -45472,7 +45448,7 @@
       <c r="AD9" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="AE9" s="46" t="b">
+      <c r="AE9" s="45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -45510,7 +45486,7 @@
       <c r="K10" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="L10" s="94" t="s">
+      <c r="L10" s="93" t="s">
         <v>60</v>
       </c>
       <c r="M10" s="7"/>
@@ -45545,7 +45521,7 @@
       <c r="Y10" s="26">
         <v>1</v>
       </c>
-      <c r="Z10" s="46" t="b">
+      <c r="Z10" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AA10" s="26" t="s">
@@ -45560,7 +45536,7 @@
       <c r="AD10" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="AE10" s="46" t="b">
+      <c r="AE10" s="45" t="b">
         <v>1</v>
       </c>
     </row>
@@ -45633,7 +45609,7 @@
       <c r="Y11" s="26">
         <v>1</v>
       </c>
-      <c r="Z11" s="46" t="b">
+      <c r="Z11" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AA11" s="26" t="s">
@@ -45648,7 +45624,7 @@
       <c r="AD11" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="AE11" s="46" t="b">
+      <c r="AE11" s="45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -45696,8 +45672,8 @@
       <c r="Q12" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
       <c r="T12" s="17" t="s">
         <v>535</v>
       </c>
@@ -45709,13 +45685,13 @@
       </c>
       <c r="W12" s="26"/>
       <c r="X12" s="26" t="str">
-        <f>J12</f>
+        <f t="shared" si="0"/>
         <v>{{CTX:CUSTOMER_BOOKING_NAME_0}}</v>
       </c>
       <c r="Y12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="Z12" s="46" t="b">
+      <c r="Z12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AA12" s="26" t="s">
@@ -45730,7 +45706,7 @@
       <c r="AD12" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="AE12" s="46" t="b">
+      <c r="AE12" s="45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -45780,8 +45756,8 @@
       <c r="Q13" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="17" t="s">
         <v>535</v>
       </c>
@@ -45796,13 +45772,13 @@
         <v>AG101</v>
       </c>
       <c r="X13" s="26" t="str">
-        <f>J13</f>
+        <f t="shared" si="0"/>
         <v>{{CTX:CUSTOMER_BOOKING_NAME_0}}</v>
       </c>
       <c r="Y13" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="Z13" s="46" t="b">
+      <c r="Z13" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AA13" s="26" t="s">
@@ -45817,7 +45793,7 @@
       <c r="AD13" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="AE13" s="46" t="b">
+      <c r="AE13" s="45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -45867,8 +45843,8 @@
       <c r="Q14" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
       <c r="T14" s="17" t="s">
         <v>535</v>
       </c>
@@ -45880,13 +45856,13 @@
       </c>
       <c r="W14" s="26"/>
       <c r="X14" s="26" t="str">
-        <f>J14</f>
+        <f t="shared" si="0"/>
         <v>{{CTX:CUSTOMER_BOOKING_NAME_0}}</v>
       </c>
       <c r="Y14" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="Z14" s="46" t="b">
+      <c r="Z14" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AA14" s="26" t="s">
@@ -45901,7 +45877,7 @@
       <c r="AD14" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="AE14" s="46" t="b">
+      <c r="AE14" s="45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -45939,7 +45915,7 @@
       <c r="K15" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="L15" s="94" t="s">
+      <c r="L15" s="93" t="s">
         <v>60</v>
       </c>
       <c r="M15" s="7"/>
@@ -45951,8 +45927,8 @@
       <c r="Q15" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
       <c r="T15" s="17" t="s">
         <v>535</v>
       </c>
@@ -45964,13 +45940,13 @@
       </c>
       <c r="W15" s="26"/>
       <c r="X15" s="26" t="str">
-        <f>J15</f>
+        <f t="shared" si="0"/>
         <v>{{CTX:CUSTOMER_BOOKING_NAME_0}}</v>
       </c>
       <c r="Y15" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="Z15" s="46" t="b">
+      <c r="Z15" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AA15" s="26" t="s">
@@ -45985,7 +45961,7 @@
       <c r="AD15" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="AE15" s="46" t="b">
+      <c r="AE15" s="45" t="b">
         <v>1</v>
       </c>
     </row>
@@ -46035,8 +46011,8 @@
       <c r="Q16" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
       <c r="T16" s="17" t="s">
         <v>535</v>
       </c>
@@ -46048,13 +46024,13 @@
       </c>
       <c r="W16" s="26"/>
       <c r="X16" s="26" t="str">
-        <f>J16</f>
+        <f t="shared" si="0"/>
         <v>{{CTX:CUSTOMER_BOOKING_NAME_0}}</v>
       </c>
       <c r="Y16" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="Z16" s="46" t="b">
+      <c r="Z16" s="45" t="b">
         <v>0</v>
       </c>
       <c r="AA16" s="26" t="s">
@@ -46069,7 +46045,7 @@
       <c r="AD16" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="AE16" s="46" t="b">
+      <c r="AE16" s="45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -46542,10 +46518,10 @@
       <c r="W4" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="X4" s="96" t="s">
+      <c r="X4" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="Y4" s="96" t="s">
+      <c r="Y4" s="95" t="s">
         <v>60</v>
       </c>
       <c r="Z4" s="4" t="s">
@@ -46668,10 +46644,10 @@
       <c r="W5" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="X5" s="96" t="s">
+      <c r="X5" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="96" t="s">
+      <c r="Y5" s="95" t="s">
         <v>60</v>
       </c>
       <c r="Z5" s="4" t="s">

--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -35722,10 +35722,10 @@
   <sheetPr/>
   <dimension ref="A1:IA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AV1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BF18" sqref="BF18"/>
+      <selection pane="bottomLeft" activeCell="HZ6" sqref="HZ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>

--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -35722,10 +35722,10 @@
   <sheetPr/>
   <dimension ref="A1:IA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Z1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="HZ6" sqref="HZ6"/>
+      <selection pane="bottomLeft" activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -43956,7 +43956,7 @@
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -44248,7 +44248,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -44441,7 +44441,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="6" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="11460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="quote_fee_1_player" sheetId="6" r:id="rId1"/>
@@ -3788,12 +3788,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -30587,10 +30587,10 @@
   <sheetPr/>
   <dimension ref="A1:BL13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -51112,8 +51112,8 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>

--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="7" activeTab="10"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="quote_fee_1_player" sheetId="6" r:id="rId1"/>
@@ -3560,11 +3560,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3797,12 +3797,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -4261,16 +4261,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4629,7 +4629,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4647,13 +4647,13 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6349,7 +6349,7 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -30596,10 +30596,10 @@
   <sheetPr/>
   <dimension ref="A1:BL13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="X1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>

--- a/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
+++ b/src/main/resources/input_excel_file/booking/Create_Booking_Batch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="quote_fee_1_player" sheetId="6" r:id="rId1"/>
@@ -3560,11 +3560,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -4261,16 +4261,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4629,7 +4629,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4647,13 +4647,13 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6440,8 +6440,8 @@
   <sheetPr/>
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -30596,7 +30596,7 @@
   <sheetPr/>
   <dimension ref="A1:BL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="X1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="X1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="AA16" sqref="AA16"/>
